--- a/output/Total_time_range_data/江苏省/连云港市_学习考察.xlsx
+++ b/output/Total_time_range_data/江苏省/连云港市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5022 +436,5495 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>75</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>局领导赴无锡考察学习退役军人服务体系建设和双拥创建工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://tyjrswj.lyg.gov.cn//tyjrswj/tpxw/content/1a739118-69e8-485a-96b4-0eb8efc0cf80.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['7月4日，连云港市退役军人事务局党组书记、局长王永士一行赴无锡市考察学习退役军人服务体系建设和双拥创建工作。连云港市退役军人事务局党组成员、三级调研员宁建波以及有关处室负责同志参加，无锡市退役军人事务局相关负责同志陪同。', '王永士一行先后赴无锡市滨湖区胡埭镇退役军人服务站、马鞍村退役军人服务站、无锡市退役军人服务中心，实地参观退役军人服务中心（站）接待窗口、活动场所、政治文化环境以及崇军氛围布设，认真听取就业创业扶持、走访慰问、帮扶解困、信访接待、权益保障等工作经验介绍，并就工作队伍建设、思想政治引领、退役军人志愿服务等方面进行交流互动，一起探讨推进退役军人事务工作高质量发展的创新举措，努力让退役军人获得感成色更足。', '王永士一行来到无锡市退役军人事务局，认真听取无锡市双拥办有关负责同志对全国双拥模范城创建工作的情况介绍，详细了解双拥模范城创建工作的方式方法、创建模式、创建流程、档案资料收集等方面工作，并就如何创新推动双拥工作进行座谈交流。王永士表示，无锡市双拥工作基础扎实、活动丰富多彩、军地共建氛围浓厚，在双拥创建工作中有许多丰富的经验和值得学习借鉴的方法，连云港市退役军人事务局将以此次考察学习为契机，加强学习交流，取长补短，提质增效，全力推动新时代港城双拥工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>75</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>新安镇盱眙县卫健委考察团来新安镇刘园村考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/xzdt/content/b3e8e4c3-77a6-42bb-a6e9-5c60027a0af9.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['近日， 盱眙县卫健委考察团一行8人来到新安镇刘园村考察学习“省级健康村”建设。新安镇副镇长汪小梅、镇爱卫办主任李晓明陪同考察。', '盱眙县卫健委考察团一行8人来到新安镇刘园村考察学习“省级健康村”建设。新安镇副镇长汪小梅、镇爱卫办主任李晓明陪同考察', '盱眙县卫健委考察团一行实地考察了刘园村示范健康家庭、环境卫生、生活污水治理、卫生改厕、废弃物无害化处理， 观摩了刘园村彩虹路、神奇古井、吴承恩祖居地，听取了刘园村抓好健康村公共卫生管理、健康服务保障等方面的经验介绍。', '盱眙县卫健委考察团一行实地考察了刘园村示范健康家庭、环境卫生、生活污水治理、卫生改厕、废弃物无害化处理', '观摩了刘园村彩虹路、神奇古井、吴承恩祖居地，听取了刘园村抓好健康村公共卫生管理、健康服务保障等方面的经验介绍', '考察团成员一致认为， 此次考察受益匪浅，印象深刻， 启发很大。表示一定要把新安镇刘园村抓好健康村建设的好经验和做法带回去， 指导当地建康村建设，同时希望两地之间加强交流往来， 加深友谊，强化合作， 取长补短，建立定期联系机制， 推动两地建康村建设取得更好成绩。 （董媛媛 相生年）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>75</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>东海县审计局赴新沂市审计局考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-07-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://sjj.lyg.gov.cn/lygssjj/xqdt/content/623be34b-30de-47c9-a265-6726abd01312.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['6月28日，由局党组书记、局长居锟带队，东海县审计局一行5人赴新沂市审计局考察学习先进审计经验。', '新沂市审计局党组书记、局长吴兴介绍了近年来全局审计工作的开展情况，着重介绍了获得全市创新事项的政府投资审计“网上中介超市”的创新思路和操作流程，同时，双方就财政同级审、部门预算执行全覆盖审计、大数据审计及固定资产投资审计等方面进行了深入的讨论和交流。', '通过此次参观交流，大家纷纷表示收获很大、感触很深，双方对如何抓好当前审计工作有了更深的认识，双方将以此次交流为契机，在以后的工作中加强沟通联系、深化交流学习，不断强化专业胜任能力，共同推进党委政府中心工作迈向新台阶，为经济社会高质量发展贡献审计力量。图为考察学习座谈会现场。（杨秀瑞）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>75</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>通榆河东海县水务局来我处考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/jcdt/content/d502627c-5bfe-46ae-996c-31c9fe6f4d40.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['5月25日，东海县水务局一行来我处太平庄闸管理所及善后河南泵站管理所考察学习，重点考察学习省精细化管理工程创建经验和做法，主要学习交流工程精细化管理软硬件提升改造及档案资料整编等相关内容。', '考察组一行实地查看了太平庄闸工程现场及善后河南泵站泵房、发电机房、高低压配电室、中控室等地，听取了管理所技术管理人员对工程的详细介绍，双方就工程精细化管理工作进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>75</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>局领导赴常州考察学习退役军人事务工作和双拥工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://tyjrswj.lyg.gov.cn//tyjrswj/gzdt/content/f65fcf97-8775-4853-a73b-478ecefa2059.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['8月14日下午至15日上午，连云港市退役军人事务局党组书记、局长王永士一行考察学习常州市退役军人事务工作和双拥工作。常州市退役军人事务局党组书记、局长杨贵生，副局长尹志平、蒋华东陪同考察交流活动。', '王永士一行先后参观了常州市退役军人服务中心、新北区薛家镇退役军人服务站、常蒸蒸发器有限公司戎耀之家、常州双拥广场等先进典型，认真听取退役军人服务管理、就业创业、权益保障、双拥创建等方面的经验介绍，详细了解服务保障体系建设、优秀戎耀之家打造、双拥工作开展等情况，对常州市相关做法表示赞赏。', '在两市交流座谈会上，杨贵生对连云港市调研考察组来常州交流工作表示欢迎，他简要介绍了近年来常州市退役军人事务工作和双拥工作开展情况。杨贵生说，连云港市退役军人事务系统围绕“重学习、提效能、强保障、善创新、当标杆”的工作思路，创新打造了“阳光安置”“惠兵兴业”“暖心优抚”“尊崇褒扬”“诚心维权”“港城双拥”“温馨军休”“品质军供”等一系列有特色、有品质、有影响的工作品牌，总结了一整套可学习、可借鉴、可推广的经验做法。', '王永士说，常州是一座充满活力和激情的城市，常州市退役军人事务工作坚持以退役军人为中心，主动听民声、解民忧、暖民心，各项活动有声有色、服务保障有情有义。“戎耀龙城”“五红五先锋”党建品牌引领退役军人工作高质量发展相关经验做法走在全省前列。王永士表示，连云港市退役军人事务系统将以此次双城交流互动为契机，全方位拓展两地在优抚安置、就业创业、拥军褒扬、服务体系建设等方面的合作，进一步加强资源共享和交流交往，共同推动两地退役军人事务工作和双拥工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>75</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我县党政代表团赴宜兴考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/212f80a2-efee-41d3-b1ed-86d5af870e71.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['4月6日， 县委副书记、县长苏卫哲带领我县党政代表团赴宜兴考察，并召开宜兴—灌南南北结对帮扶合作2023年第2次联席会议。 宜兴市委副书记、市长胡小坚，宜兴市副市长张毅、金磊； 灌南县委常委、常务副县长张卫峰，灌南县委常委、副县长张华， 灌南县副县长李秀云；宜兴、灌南两地各镇、各相关部门负责人参加会议。', '县委副书记、县长苏卫哲带领我县党政代表团赴宜兴考察，并召开宜兴—灌南南北结对帮扶合作2023年第2次联席会议', '会上， 县委副书记、县长苏卫哲表示，此次灌南县党政代表团怀着增进亲情友情、开阔思路眼界、加强交流合作的强烈愿望， 来宜兴学习考察，旨在借鉴学习宜兴经济社会发展的先进经验和成功做法。 他指出，灌南将把深化合作共建作为一项极端重要的政治任务， 虚心学习宜兴在产业发展、营商环境、体制机制等方面的先进理念模式，全力以赴为此次集中签约的项目做好要素保障和后续跟踪服务， 全方位、高标准、快节奏推动结对帮扶合作各项工作落地落实，携手谱写两地高质量发展的新篇章。', '县委副书记、县长苏卫哲表示，此次灌南县党政代表团怀着增进亲情友情、开阔思路眼界、加强交流合作的强烈愿望', '虚心学习宜兴在产业发展、营商环境、体制机制等方面的先进理念模式，全力以赴为此次集中签约的项目做好要素保障和后续跟踪服务', '全方位、高标准、快节奏推动结对帮扶合作各项工作落地落实，携手谱写两地高质量发展的新篇章', '宜兴市委副书记、市长胡小坚对我县党政代表团的到来表示欢迎， 并简要介绍了宜兴相关情况。他说， 自去年宜灌两地开展结对帮扶合作以来，双方合作机制逐步完善、合作重点愈发突出、合作思路日益清晰， 高效推动两地在产业、教育、医疗、民生等领域的合作不断迈向深入。他希望， 下一阶段，宜灌两地进一步提升工作准度、深度和力度， 全力打造对口协作示范样板，推动宜灌两地经济社会高质量发展。 要立足各自产业基础和资源优势，在招商、科技、生态、市场等方面进一步抓重点、找共鸣， 不断拓展两地互利共赢的合作空间。', '自去年宜灌两地开展结对帮扶合作以来，双方合作机制逐步完善、合作重点愈发突出、合作思路日益清晰', '会上， 宜灌两地签订了2023年度宜兴灌南结对帮扶合作重点工作协议、宜兴灌南产业共强合作协议、招商引资合作协议以及南北结对园区合作、乡镇合作框架协议等也集中签约。', '宜灌两地签订了2023年度宜兴灌南结对帮扶合作重点工作协议、宜兴灌南产业共强合作协议、招商引资合作协议以及南北结对园区合作、乡镇合作框架协议等也集中签约。', '在宜期间， 苏卫哲一行先后实地考察了中环领先半导体材料有限公司、宝银特种钢管有限公司以及宜兴市博物馆等地，详细了解宜兴市在产业强市、科技创新、文化传承等方面的经验做法。', '苏卫哲一行先后实地考察了中环领先半导体材料有限公司、宝银特种钢管有限公司以及宜兴市博物馆等地，详细了解宜兴市在产业强市、科技创新、文化传承等方面的经验做法']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>75</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市科技局我市科技系统组团参加第届中国国际人才交流大会并赴大湾区考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.lyg.gov.cn/zglygzfmhwz/bmdt/content/903410de-781e-4c19-913a-95735762faa9.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['部门信息-市科技局：我市科技系统组团参加第21届中国国际人才交流大会并赴大湾区考察学习', '近日，值科技部和深圳市人民政府共同主办的第21届中国国际人才交流大会在深圳召开之际，市政府副秘书长马东率连云港科技代表团参加大会，并赴大湾区考察深圳、广州重点科技园区、企业。市科技局分管负责人，各处室单位、各县区科技局负责人20余人参会。东海省级农高区受邀参加“第三届科技创新支撑乡村振兴发展论坛”。', '中国国际人才交流大会是我国专门对国（境）外专家组织、培训机构、专业人才开放的规模最大、规格最高的国家级、国际化、综合性的人才与智力交流盛会。本届大会以“促科技创新、谋共同发展、惠全球人才”为主题，聚焦高质量发展首要任务，荟萃全球智慧，以创新之光照亮高质量发展之路。会前，市科技局积极动员,梳理产业链条和创新需求，征集人才需求46项参会。展会期间，全体参会人员推介我市科技创新政策并深入学习其他省市的国际人才引进政策、国际科技合作开展主要做法。', '在深圳期间，考察团组前往南山区，实地考察奥比中光科技集团股份有限公司和深圳烯旺新材料科技有限公司，直观体验了3D感知技术在刷脸支付、智慧零售、智慧安防、机器人等领域智能化产品。市政府副秘书长马东表示，欢迎两家企业来连云港考察投资，两地企业可以在科技创新平台建设、基础应用研究等方面广泛合作。深圳南山区科创局副局长张旭陪同参观。', '在广州期间，考察组先后来到华南技术转移中心、华南新材料创新园、广州归谷科技园、中乌国际（黄埔）创新研究院参观并深入交流。市科技局局长许东方指出，大湾区有太多值得学习借鉴的好经验，要结合连云港的实际认真思考吸收，转化为富有连云港特色的思路举措。同时，作为我市包括新医药、新材料在内重点产业，亟需增强与孵化载体的产业对接，促进行业交流和相互学习。要充分利用国际智力资源，推进中以创新发布（连云港）成果转化基地、连云港“一带一路”技术转移中心建设，通过引荐海内外优秀人才、技术和项目等创新要素落地连云港，不断创新平台的服务方式服务我市高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>75</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>灌南县人社局到东海县考察学习考区建设工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://rsj.lyg.gov.cn//hrzxzx/xqdt1/content/5a6ff719-afcd-40d6-800d-008646931492.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['5月22日，灌南县人社局党组成员、人才交流管理中心主任乔学光率队一行4人来东海县考察学习人事考试考区建设工作，东海县人社局党组成员、副局长冯军政陪同，考试中心负责人及业务人员参加座谈交流。', '座谈会上，副局长冯军政首先对来宾表示欢迎。随后与考察组深入交流了2023年事业单位公开招聘考试考务组织管理、考试安全等方面工作情况。', '考察组通过实地参观和座谈交流的方式，参观了东海县人事考试组织机构配套、软硬件设施的建设情况。考察组对东海县人事考试信息化水平和人事考试经验给予充分的认可，认为东海县人事考试信息化科学高效，安全稳定。人事考试组织管理经验丰富、成绩显著，值得学习和借鉴。在看到为考生提供考试用品时，考察组更是连连点赞，称东海县积极打造优质服务环境，主动为考生考虑。', '此次考察活动，加深了东海县与灌南县人社局人事考试工作的沟通交流，通过相互交流，达到共同提升人事考试业务能力和服务水平的目的。', '近年来，东海县人社局不断改善人事考试软环境建设，全面提升人事考试信息化建设水平，打造“智慧人事考试”，着力打造安全、科学、高效的人事考试服务。经过多年努力以及不懈的实践和探索，2022年我县成功创建江苏省人事考试东海县考区，填补了苏中苏北县级考区的空白。', '2023年以来，东海县已举办全国一级建造师考试，全省事业单位统考笔试等考试，近期还将举办全国二级建造师考试。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>75</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>灌南县人社局到我县考察学习考区建设工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/f7312630-556c-4715-8533-0ce1b6cdb763.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['5月22日，灌南县人社局党组成员、人才交流管理中心主任乔学光率队一行4人来我县考察学习人事考试考区建设工作，县人社局党组成员、副局长冯军政陪同，考试中心负责人及业务人员参加座谈交流。', '座谈会上，副局长冯军政首先对来宾表示欢迎。随后与考察组深入交流了2023年事业单位公开招聘考试考务组织管理、考试安全等方面工作情况。', '考察组通过实地参观和座谈交流的方式，参观了我县人事考试组织机构配套、软硬件设施的建设情况。考察组对我县人事考试信息化水平和人事考试经验给予充分的认可，认为我县人事考试信息化科学高效，安全稳定。人事考试组织管理经验丰富、成绩显著，值得学习和借鉴。在看到为考生提供考试用品时，考察组更是连连点赞，称我县积极打造优质服务环境，主动为考生考虑。', '此次考察活动，加深了我县与灌南县人社局人事考试工作的沟通交流，通过相互交流，达到共同提升人事考试业务能力和服务水平的目的。', '近年来，东海县人社局不断改善人事考试软环境建设，全面提升人事考试信息化建设水平，打造“智慧人事考试”，着力打造安全、科学、高效的人事考试服务。经过多年努力以及不懈的实践和探索，2022年我县成功创建江苏省人事考试东海县考区，填补了苏中苏北县级考区的空白。', '2023年以来，我县已举办全国一级建造师考试，全省事业单位统考笔试等考试，近期还将举办全国二级建造师考试。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>75</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>我市科技系统组团参加第届中国国际人才交流大会并赴大湾区考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://kjj.lyg.gov.cn/lygskxjsj/zdyw/content/53d7a5b9-53cc-4315-b351-f4f194ac7c7e.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['4月14日-17日，值科技部和深圳市人民政府共同主办的第21届中国国际人才交流大会在深圳召开之际，市政府副秘书长马东率连云港科技代表团参加大会，并赴大湾区考察深圳、广州重点科技园区、企业。市科技局分管负责人，各处室单位、各县区科技局负责人20余人参会。东海省级农高区受邀参加“第三届科技创新支撑乡村振兴发展论坛”。', '中国国际人才交流大会是我国专门对国（境）外专家组织、培训机构、专业人才开放的规模最大、规格最高的国家级、国际化、综合性的人才与智力交流盛会。本届大会以“促科技创新、谋共同发展、惠全球人才”为主题，聚焦高质量发展首要任务，荟萃全球智慧，以创新之光照亮高质量发展之路。会前，市科技局积极动员,梳理产业链条和创新需求，征集人才需求46项参会。展会期间，全体参会人员推介我市科技创新政策并深入学习其他省市的国际人才引进政策、国际科技合作开展主要做法。', '在深圳期间，考察团组前往南山区，实地考察奥比中光科技集团股份有限公司和深圳烯旺新材料科技有限公司，直观体验了3D感知技术在刷脸支付、智慧零售、智慧安防、机器人等领域智能化产品。市政府副秘书长马东表示，欢迎两家企业来连云港考察投资，两地企业可以在科技创新平台建设、基础应用研究等方面广泛合作。深圳南山区科创局副局长张旭陪同参观。', '在广州期间，考察组先后来到华南技术转移中心、华南新材料创新园、广州归谷科技园、中乌国际（黄埔）创新研究院参观并深入交流。市科技局局长许东方指出，大湾区有太多值得学习借鉴的好经验，要结合连云港的实际认真思考吸收，转化为富有连云港特色的思路举措。同时，作为我市包括新医药、新材料在内重点产业，亟需增强与孵化载体的产业对接，促进行业交流和相互学习。要充分利用国际智力资源，推进中以创新发布（连云港）成果转化基地、连云港“一带一路”技术转移中心建设，通过引荐海内外优秀人才、技术和项目等创新要素落地连云港，不断创新平台的服务方式服务我市高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>75</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>赣榆区教育局赴惠山区开展考察学习活动</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://jyj.lyg.gov.cn/lygsjyj/qxdt/content/bae4dace-c175-4065-a4f2-ad1fac5d29ac.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为加强赣榆区与惠山区教育领域结对帮扶合作交流，认真学习借鉴惠山区教育先进经验，赣榆区教育局于3月27日至30日，组织区内初中、高中校长赴惠山区开展教育考察学习活动。', '近年来，惠山区以“建设教育强区、促进教育现代化、率先实现教育高位均衡发展”为目标，为人民群众提供了充足的优质教育资源，特别是', '提升“学在赣榆”教育品牌影响力。下一步，区教育局将持续加强赣榆、惠山两地教育部门和各学段学校的沟通协调、合作交流，让南北结对帮扶合作结硕果、谱新篇。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>75</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>德州市司法局来我局考察学习行政复议应诉工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://sfj.lyg.gov.cn/lygssfxzw/sfxzyw/content/e466eeb6-fc49-4f68-9fde-d180533ea971.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['3月23日，德州市司法局党组成员付朝志带领德州市司法局行政复议应诉科室主要负责人、县区司法局局长等一行人，来我局就行政复议应诉经验做法进行考察学习。市局党委委员、副局长周毓及相关处室负责人参与考察座谈。', '考察组一行先后参观了海州区司法局行政复议办案中心、海州区非诉讼服务中心。随后与我局就行政复议应诉工作开展了座谈交流。座谈会上，市局党委委员、副局长周毓介绍了我市行政复议应诉制度建设、案件办理及工作保障等工作情况。双方还就行政复议纠错、行政机关负责人出庭应诉、信息化建设等进行了深入交流和探讨。双方均表示，通过此次交流,相互增进了了解，开拓了视野，学到了经验，希望今后继续加强沟通交流，共同推动行政复议应诉工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>75</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市民宗局赴扬州市考察学习宗教场所安全工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn/lygmzzj/mzyw/content/c36b429e-b74e-4665-b2bc-9c12892055be.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为持续提升安全工作成果，巩固全市民宗领域安全稳定的大好局面，全面推进中国式现代化连云港新实践做贡献，3月21日—22日，市民宗局吴生祥副局长带队，赴扬州市考察学习宗教活动场所消防安全及电子档案建设工作。', '考察学习组先后来到大明寺、高旻寺、文峰寺、蒋王基督教堂和东林寺。每到一处，不一样的场所安全底蕴和管理风格，给大家留下了深刻的印象，感受颇多。大明寺浓厚的传统文化、佛教文化和现代安全工作的相互结合令人印象深刻；高旻寺深严的禅宗修渡和井然有序场所管理，让人肃然起敬；文峰寺厚积的历史传承体现了宗教中国化的特色元素；蒋王基督教堂的规范化管理让人赞不绝口；特别是东林寺的整体建设和安全管理规范化水准让全体人员感到惊叹，肃然起敬。', '通过考察学习，同志们收获满满，纷纷表示一定要把这次扬州之行中所看、所学、所获的安全工作方面的先进做法，带到我们的工作实际中去。为我市“打造平安场所样板、培育标准化指导中心”工作提供了极有价值的帮助与参考。通过考察学习，也让两地民宗系统同仁之间架起了互通有无，互相促进的友谊桥梁。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>75</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>医保局临沂市兰山区医保定点医疗机构行业协会赴我区医保协会考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.ganyu.gov.cn/gyqzf/gzdt/content/81588551-d47f-459b-9b41-490d3a6529ca.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['3月31日，临沂市兰山区医保局党组书记臧艳丽一行赴我区医保协会考察学习，我区医保局局长张宜梅、医保处主任王祥君、医保处副书记樊继林、行业协会秘书长张扬陪同。', '考察组一行同我区医保协会就医保行业协会的经验做法、管理模式、运行经验、如何开展活动等方面作了深入的沟通和交流，并就如何采取有力措施做好医保行业协会工作进行了深入的探讨和交流，分享各自经验和做法。', '本次考察学习对各自是一次非常宝贵的学习契机，双方表示将进一步加强沟通，深入交流，互相学习，共享发展经验，共同推动医疗保障事业更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>75</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>保定国家高新区行政审批局来区考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.lda.gov.cn/lygjjjskfq/bmdt/content/57ea7fdc-bfe7-4359-8725-00ae40a42127.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['3月31日上午，保定国家高新区市场监管分局局长刘军辉、行政审批局副局长周波等一行6人来我区交流学习，区行政审批局局长许正祥及相关业务处室负责人陪同。', '考察组首先来到政务服务三楼大厅，实地查看政务大厅功能分区、窗口单位入驻、软硬件配备等情况。座谈会上，许正祥结合“放管服”改革和优化政务服务做法，向考察组详细介绍了区行政审批局改革创新、管理运转情况，随后双方重点围绕“审管”联动、企业分级分类监管、企业监管无事不扰政策、政务服务大厅“综窗”改革和“一件事一次办”改革等方面进行了深入交流探讨。', '考察组高度认可我局在政务大厅建设和审批改革中取得的成绩，并表示将充分吸收我区政务大厅建设经验，进一步研究借鉴“放管服”改革成果和创新方法，推动政务服务水平进一步提升。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>75</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>县政协赴多地考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/5196df28-4ce6-4863-8eda-3fe3ce3bb5b6.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['近日， 县政协主席廖朝兵带队赴淮安金湖、南通如东、苏州张家港和无锡宜兴等地政协考察学习“有事好商量”、界别建设等方面优秀工作经验做法。县政协副主席王苏东、秘书长孙春参加考察学习活动。', '县政协主席廖朝兵带队赴淮安金湖、南通如东、苏州张家港和无锡宜兴等地政协考察学习“有事好商量”、界别建设等方面优秀工作经验做法。县政协副主席王苏东、秘书长孙春参加考察学习活动', '在淮安金湖县， 考察组一行先后来到金湖县统战经济界别“有事好商量”协商议事室、塔集镇“有事好商量”协商议事室、塔集镇荷花荡社区“有事好商量”协商议事室进行实地参观考察，听取了讲解介绍， 观看了“码”上议平台操作流程。经了解， 近年来，金湖县政协依托淮安市政协“有事好商量—‘码’上议”平台， 着力打造“三联三融三促”基层协商议事品牌，切实推动了“有事好商量”协商议事工作提质增效、常态长效。', '考察组一行先后来到金湖县统战经济界别“有事好商量”协商议事室、塔集镇“有事好商量”协商议事室、塔集镇荷花荡社区“有事好商量”协商议事室进行实地参观考察，听取了讲解介绍', '着力打造“三联三融三促”基层协商议事品牌，切实推动了“有事好商量”协商议事工作提质增效、常态长效', '在南通如东县， 考察组参观了如东县政协委员之家、城中街道丁杨村“有事好商量”协商议事室和城建环保界别“有事好商量”协商议事室，与如东县政协有关同志深入交流， 听取了“有事好商量”协商议事活动开展、阵地建设、制度建设、作用发挥等有关情况介绍。', '考察组参观了如东县政协委员之家、城中街道丁杨村“有事好商量”协商议事室和城建环保界别“有事好商量”协商议事室，与如东县政协有关同志深入交流', '听取了“有事好商量”协商议事活动开展、阵地建设、制度建设、作用发挥等有关情况介绍。', '在苏州张家港市， 考察组一行先后来到了科技科协界别委员之家、杨舍镇“有事好商量”协商议事室，详细了解了张家港市政协在界别建设和“有事好商量”协商议事工作方面经验做法。 张家港市政协将界别建设融入到部门履职之中，建成科技科协界“三位一体”工作载体， 载体集“有事好商量”协商议事室、委员之家、社情民意联系点、科协情报信息服务中心、科学大讲堂、金点子沙龙、“商”书房等为一体，与科协科技工作者之家相融， 实现了资源的集约利用。', '考察组一行先后来到了科技科协界别委员之家、杨舍镇“有事好商量”协商议事室，详细了解了张家港市政协在界别建设和“有事好商量”协商议事工作方面经验做法', '载体集“有事好商量”协商议事室、委员之家、社情民意联系点、科协情报信息服务中心、科学大讲堂、金点子沙龙、“商”书房等为一体，与科协科技工作者之家相融', '在无锡宜兴市， 考察组深入湖？镇邵东村“有事好商量”协商议事室考察学习，与当地政协负责同志深入交流。 据了解，近年来宜兴市政协大力推进“有事好商量”协商议事室、委员工作室、社情民意联系点、履职党支部、政协书房五位一体建设， 在“有事好商量”协商议事室中建立委员工作室，引导政协委员开展“微协商”“微监督”“微公益”等活动， 借助无锡政协网站、“3232”有线电视平台（市政协社情民意模块）的传播优势，通过线上直报， 形成覆盖城乡的社情民意收集网络。', '考察组深入湖？镇邵东村“有事好商量”协商议事室考察学习，与当地政协负责同志深入交流', '据了解，近年来宜兴市政协大力推进“有事好商量”协商议事室、委员工作室、社情民意联系点、履职党支部、政协书房五位一体建设', '在“有事好商量”协商议事室中建立委员工作室，引导政协委员开展“微协商”“微监督”“微公益”等活动', '借助无锡政协网站、“3232”有线电视平台（市政协社情民意模块）的传播优势，通过线上直报', '县政协主席廖朝兵在考察结束后召开座谈会上强调， 兄弟县区政协的优秀经验做法值得我们学习借鉴，要认真总结本次学习考察的收获， 结合自身工作实际抓好落实工作；要进一步加强“有事好商量”协商议事工作， 持续在智慧平台、委员工作室和品牌建设方面发力，全力打响灌南政协“有事好商量”协商议事品牌； 要全面推进界别建设，启动“界别建设提升年”活动， 依托“有事好商量”协商议事平台，建强界别活动载体， 丰富界别活动内容，创建界别活动品牌； 要进一步加强社情民意信息工作，按季度召开社情民意信息总结会， 聘请特约信息员，发挥社情民意特约信息员“领头雁”作用， 进一步提升社情民意信息工作水平。', '持续在智慧平台、委员工作室和品牌建设方面发力，全力打响灌南政协“有事好商量”协商议事品牌']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>75</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>我局组织全市水政执法骨干赴张家港等地进行双标建设考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-03-14</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/slyw/content/5c0c04e1-f596-42ef-a60d-5d7ffe7630b9.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为进一步推进我市水政监察队伍、水行政执法基地标准化建设工作，学习先进地区经验，3月8日-9日，我局组织全市水政执法骨干赴张家港水政监察大队、省水行政执法太湖管理处基地、无锡市滨湖区水政监察大队进行“双标建设”考察学习。', '张家港水政监察大队多次被水利部、省水利厅表彰为全国、全省水政监察工作先进集体，并获得过“全国精神文明创建活动示范点”“全国水利文明单位”“第四届全国文明单位”等荣誉称号。考察人员一行参观了张家港市水政监察大队办公区、装备器材室、问询室、体能训练室、普法展览室等办公场所，实地考察张家港水政大队执法保障基地、东部执法趸船等基础设施，座谈听取了张家港市水政监察行政执法、队伍建设和精神文明建设情况介绍。省水行政执法太湖管理处基地濒临太湖，考察人员一行参观了执法基地的内部设施，听取了太湖水政支队负责人关于该基地建设过程、运维管理、规章制度等方面的介绍。', '在无锡市滨湖区水利局，考察人员和无锡市区两级相关负责人就水政监察队伍、水行政执法基地标准化建设工作进行了探讨，深入交流了涉水执法工作实践中存在的问题，双方均表示希望在今后的工作中进一步增强联系，取长补短，促进两地水政执法工作再上新台阶。', '此次考察时间紧、任务重，仅两天的时间安排了三个单位参观学习，但是参与考察的全市水政执法骨干均表示收获很多，不仅学习到了全省水政监察先进单位的经验，更重要的是开阔了思路，拓展了理念，相信会对我市今后水行政执法工作的良好开展起到积极的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>75</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>上合组织连云港国际物流园赴青岛上合示范区考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-12-16</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.lianyun.gov.cn/lyq/jrly/content/6285c1a0-9cae-4a6d-9e97-d2e8066605b4.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['12月12日，连云港市商务局副局长孙瑾，连云区委副书记、连云经济开发区党工委书记、上合物流园管委会常务副主任苏军率上合组织（连云港）国际物流园考察团赴青岛上合示范区考察学习。青岛上合示范区党工委委员、管委会副主任孟庆胜接待考察团一行并主持召开座谈交流会。', '考察团一行参观了上合示范区综合服务平台展厅、上合之珠国际博览中心、青岛金控数码港、中国传化（上合）国际物流港等，了解了上合示范区的发展历程、政务服务、对外合作交流和重点项目建设等情况。', '座谈交流会上，孟庆胜介绍了上合示范区体制机制、机构职能、对外合作、物流产业等方面情况。他表示，上合示范区获批3年来，已初步构建起东接日韩、北接蒙俄、南连东盟、西接上合组织国家及“一带一路”沿线国家的国际物流大通道，期待与上合组织（连云港）国际物流园在完善自身建设、提升平台功能、强化辐射带动等多方面展开合作。', '苏军介绍，上合组织（连云港）国际物流园依托上合品牌影响力和连云经济开发区的临港产业优势，“公、铁、河、海”多式联运物流运输体系基本建成，出海基地服务功能不断完善，对外开放合作能级显著增强，物流产业发展水平快速提高，国际经贸合作往来日益深化，下一步将重点发展现代物流、新材料、新能源、海洋生物四大产业。他表示，上合示范区发扬“敢闯敢试、立说立行、善作善成”的精神，在国际物流、现代贸易、双向投资合作、商旅文化交流发展及海洋合作等方面成效显著；上合组织（连云港）国际物流园将认真学习上合示范区的成熟运营经验，进一步加强双方信息互通，持续深入开展合作交流，实现优势互补、错位竞争，共同为上合组织国家经贸合作发展提供强大支撑。', '孙瑾表示，上合示范区勇扛重任，主动服务和融入国家开放战略，聚焦国际物流、现代贸易、双向投资合作、商旅文化交流发展“四个中心”建设，链接全球资源和市场，全面提升国际竞争力，“一带一路”国际合作新平台加速崛起。上合组织（连云港）国际物流园是连云港市港口型物流枢纽，上合组织共用出海基地、综合物流服务基地、产业合作发展基地，是连云港市“一带一路”交汇点核心区陆海转换枢纽功能强支点。期待双方紧密携手，推动各领域深度融合、共建共兴、互利共赢，形成共建一流产业园区的合作典范，进而促进“一带一路”国家在更大范围、更高水平、更深层次的区域合作。', '此次考察为上合组织（连云港）国际物流园进一步对标经济高质量发展先进园区、学习先进园区的先进经验提供了有效途径，上合物流园将把带回的成熟经验、先进做法、创新理念应用于实际建设中，持续深化国内外合作，提升开放水平，进一步丰富物流发展业态，加快打造国际物流枢纽高地。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>75</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>河南省滑县老年人体育协会赴连云港市赣榆区老年体协考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://sports.lyg.gov.cn/lygtyj/qxxw/content/a4e78c91-8a61-4ece-bab0-d98e68aaff8a.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['河南省滑县老年人体育协会赴连云港市赣榆区老年体协考察学习交流老年体协工作及新闻宣传工作的做法。赣榆区政协副主席李安对河南省滑县老年人体育工作委员会常务主席段其东一行9人的到来表示热烈欢迎。赣榆区老年体协常务副', '席张学滋和滑县老年体工委常务主席段其东分别介绍了赣榆区、滑县的基本情况，并对老年体育事业的发展进行了交流。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>75</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>通榆河赴江苏省骆运水利工程管理处考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-08-31</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/jcdt/content/c6515439-fbb0-4d2a-8280-88f229ffd2e8.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为全面深入学习省管水利工程单位精细化工程创建的成功经验，拓宽我处精细化创建思路，打通当前创建工作的堵点、难点，8月29日，管理处主任朱丽向带领相关人员赴江苏省骆运水利工程管理处所辖的皂河闸、皂河抽水站考察学习精细化管理工程创建工作。', '在皂河闸，考察人员实地参观了配电室、启闭机房、水轮机厂房等工程现场，双方以精细化管理的角度就标志标牌布置、运行操作流程、日常维修养护等方面进行了深入交流；在皂河抽水站，通过参观泵站厂房、泵站技术展览馆、“泵魂”广场，考察人员详细了解了泵站精细化管理的硬件设施和管理方法，领略了“亚洲第一泵”的先进技术和发展历程。', '随后在精细化工程创建工作座谈会上，双方结合当前创建工作推进情况并对照《江苏省水利工程精细化管理评价办法》进行了难点交流、经验分享、疑问解答。', '此次考察学习明晰了创建思路，明确了工作任务，达到学习交流的目的，下一步，我处将及时把经验心得转变成工作举措，确保精细化创建工作有序推进，取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>75</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>我市党政代表团赴无锡考察学习两市召开南北结对帮扶合作第二次联席会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://boc.lyg.gov.cn/sswj/hydt/content/6bcd9ec4-ca75-4d73-8048-953d60c2e70e.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['11月3日至4日，市委书记马士光、市长邢正军率党政代表团赴无锡考察学习，两市召开无锡—连云港南北结对帮扶合作第二次联席会议，合力巩固帮扶共建成果、深化拓展两市合作，以实际行动贯彻党的二十大精神，落实省委省政府关于推进区域协调发展的决策部署。无锡市委书记杜小刚在会上讲话并出席相关活动。无锡市长赵建军出席会议和相关活动。无锡市领导朱爱勋、陆志坚、蒋敏、许峰、马良、吴建元；连云港市领导黄远征、杨新忠、赵云燕、高圣华、宋波、韦怀余等参加。', '会上，两市一系列重要合作成果签约落地。两市主要领导一同见证无锡连云港共建工业园区以及高校科研、农业农村、港口运输、医药等领域10项合作协议签约；双方共同为长三角一体化（无锡连云港）联合招商中心、无锡连云港科创飞地、江阴灌云科创飞地、锡山东海科创飞地揭牌。在讲话中，马士光向无锡给予连云港的关心支持致以感谢。他表示，无锡发展成就令人瞩目，展现出敢为人先的魄力、志存高远的境界、解放思想的锐气、推动转型的定力和“四千四万”的精神，值得连云港努力学习借鉴。党的二十大强调促进区域协调发展，构建优势互补、高质量发展的区域经济布局和国土空间体系，从建设中国式现代化和推进共同富裕的高度对区域经济发展作出了战略性、长远性部署和安排。省委省政府着眼于缩小地区差距、加快共同富裕步伐，推进区域互补、跨江融合、南北联动，优化实施南北结对帮扶，充分体现了对连云港等后发地区的关怀和支持。连云港将深入贯彻党的二十大精神，坚决落实省委省政府决策部署，以无锡的先进理念、成功经验、优良作风为激励和启迪，以更加奋发有为的状态融入全省区域协调发展大局，以更高标杆、更高追求推动高质量发展。', '马士光介绍了连云港经济社会发展情况。他说，近年来，连云港牢记总书记殷殷嘱托，加快推进新时代的“后发先至”、建设人民期待的现代化新港城，深入推动港产城一体化发展、东西双向开放发展、创新驱动发展和生态优先绿色发展，各项事业呈现良好态势。随着一系列成果的落地，两市合作跃升至新的能级，必将为双方发展提供更多机遇、注入更强动力。下一步，希望双方紧密携手，积极推动党的二十大关于“促进区域协调发展”“推进长三角一体化发展”“加快建设海洋强国”等重大决策部署落地见效；认真落实省委省政府部署要求，共同争创共建一流产业园区的合作典范，共同争创优势互补、互利共赢现代产业体系的合作典范，共同争创各领域深度融合、共建共兴的合作典范。杜小刚对连云港党政代表团表示欢迎。他说，近年来，连云港深入贯彻习近平总书记视察江苏重要讲话指示精神，“强富美高”连云港建设成绩显著，“一带一路”交汇点支点城市展现澎湃活力。“开展南北结对合作，既是政治责任，也是战略机遇。”杜小刚说，习近平总书记在党的二十大报告中对促进区域协调发展提出重大要求，在视察江苏时特别嘱托“要做好区域互补、跨江融合、南北联动大文章”。今年省委、省政府作出深化南北结对帮扶合作、优化结对帮扶合作关系的部署，充分体现了对锡连两市的深切期许，也为两市优势互补、协同发展、互利共赢提供了实践路径。无锡愿与连云港合力抢抓战略机遇，积极参与“一带一路”交汇点建设，共同融入长三角一体化等重大国家战略，着眼全省现代化建设大局，开展全方面、多领域、深层次合作，携手办好中欧班列合作论坛等标志性活动，开创南北结对合作新局面；高标准规划建设无锡连云港工业园区，大手笔集聚资源力量，全周期完善运营管理，加快引进大型优质项目，打造全省共建园区的示范标杆；聚焦共同富裕积极鼓励企业、行业、产业之间开展多形式的战略合作、技术合作、市场合作，推动产业链优势互补和价值链合理分工，加强数字经济领域合作，拓展交通物流、农业农村、文旅康养、教育医疗、人力资源等方面交流协作，形成强强联合、互利共赢的良好局面；在县区结对全覆盖的基础上，以共建园区和合作项目为着力点，更好构建上下配套、全面紧密的合作关系，探索部分重点乡镇建立结对合作关系，共同推动更高水平乡村振兴，携手并肩做好南北合作大文章，开创现代化建设美好未来，打造区域协调发展新典范。会前，我市党政代表团前往无锡华虹集成电路研发和制造基地、SK海力士半导体（中国）有限公司、威孚环保催化剂有限公司、星洲工业园，国家超级计算无锡中心、深海技术科学太湖实验室等地考察，并举办南北共建合作产业联动发展座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>75</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>我市党政代表团赴无锡考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-11-05</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.lyg.gov.cn/zglygzfmhwz/gcyw/content/e03c5c71-e49b-4a49-8e5a-d8894c0ca0b3.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['11月3日至4日，市委书记马士光、市长邢正军率党政代表团赴无锡考察学习，两市召开无锡——连云港南北结对帮扶合作第二次联席会议，合力巩固帮扶共建成果、深化拓展两市合作，以实际行动贯彻党的二十大精神，落实省委省政府关于推进区域协调发展的决策部署。无锡市委书记杜小刚在会上讲话并出席相关活动。无锡市长赵建军出席会议和相关活动。无锡市领导朱爱勋、陆志坚、蒋敏、许峰、马良、吴建元；连云港市领导黄远征、杨新忠、赵云燕、高圣华、宋波、韦怀余等参加。', '会上，两市一系列重要合作成果签约落地。两市主要领导一同见证无锡连云港共建工业园区以及高校科研、农业农村、港口运输、医药等领域10项合作协议签约；双方共同为长三角一体化（无锡连云港）联合招商中心、无锡连云港科创飞地、江阴灌云科创飞地、锡山东海科创飞地揭牌。', '在讲话中，马士光向无锡给予连云港的关心支持致以感谢。他表示，无锡发展成就令人瞩目，展现出敢为人先的魄力、志存高远的境界、解放思想的锐气、推动转型的定力和“四千四万”的精神，值得连云港努力学习借鉴。党的二十大强调促进区域协调发展，构建优势互补、高质量发展的区域经济布局和国土空间体系，从建设中国式现代化和推进共同富裕的高度对区域经济发展作出了战略性、长远性部署和安排。省委省政府着眼于缩小地区差距、加快共同富裕步伐，推进区域互补、跨江融合、南北联动，优化实施南北结对帮扶，充分体现了对连云港等后发地区的关怀和支持。连云港将深入贯彻党的二十大精神，坚决落实省委省政府决策部署，以无锡的先进理念、成功经验、优良作风为激励和启迪，以更加奋发有为的状态融入全省区域协调发展大局，以更高标杆、更高追求推动高质量发展。', '马士光介绍了连云港经济社会发展情况。他说，近年来，连云港牢记总书记殷殷嘱托，加快推进新时代的“后发先至”、建设人民期待的现代化新港城，深入推动港产城一体化发展、东西双向开放发展、创新驱动发展和生态优先绿色发展，各项事业呈现良好态势。随着一系列成果的落地，两市合作跃升至新的能级，必将为双方发展提供更多机遇、注入更强动力。下一步，希望双方紧密携手，积极推动党的二十大关于“促进区域协调发展”“推进长三角一体化发展”“加快建设海洋强国”等重大决策部署落地见效；认真落实省委省政府部署要求，共同争创共建一流产业园区的合作典范，共同争创优势互补、互利共赢现代产业体系的合作典范，共同争创各领域深度融合、共建共兴的合作典范。', '杜小刚对连云港党政代表团表示欢迎。他说，近年来，连云港深入贯彻习近平总书记视察江苏重要讲话指示精神，“强富美高”连云港建设成绩显著，“一带一路”交汇点支点城市展现澎湃活力。', '“开展南北结对合作，既是政治责任，也是战略机遇。”杜小刚说，习近平总书记在党的二十大报告中对促进区域协调发展提出重大要求，在视察江苏时特别嘱托“要做好区域互补、跨江融合、南北联动大文章”。今年省委、省政府作出深化南北结对帮扶合作、优化结对帮扶合作关系的部署，充分体现了对锡连两市的深切期许，也为两市优势互补、协同发展、互利共赢提供了实践路径。无锡愿与连云港合力抢抓战略机遇，积极参与“一带一路”交汇点建设，共同融入长三角一体化等重大国家战略，着眼全省现代化建设大局，开展全方面、多领域、深层次合作，携手办好中欧班列合作论坛等标志性活动，开创南北结对合作新局面；高标准规划建设无锡连云港工业园区，大手笔集聚资源力量，全周期完善运营管理，加快引进大型优质项目，打造全省共建园区的示范标杆；聚焦共同富裕积极鼓励企业、行业、产业之间开展多形式的战略合作、技术合作、市场合作，推动产业链优势互补和价值链合理分工，加强数字经济领域合作，拓展交通物流、农业农村、文旅康养、教育医疗、人力资源等方面交流协作，形成强强联合、互利共赢的良好局面；在县区结对全覆盖的基础上，以共建园区和合作项目为着力点，更好构建上下配套、全面紧密的合作关系，探索部分重点乡镇建立结对合作关系，共同推动更高水平乡村振兴，携手并肩做好南北合作大文章，开创现代化建设美好未来，打造区域协调发展新典范。', '会前，我市党政代表团前往无锡华虹集成电路研发和制造基地、SK海力士半导体（中国）有限公司、威孚环保催化剂有限公司、星洲工业园，国家超级计算无锡中心、深海技术科学太湖实验室等地考察，并举办南北共建合作产业联动发展座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>75</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>抢险队赴省水利防汛物资储备中心徐州分中心考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-08-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/jcdt/content/0a8bb0a7-ed3d-447c-b584-e172ad4fc0fd.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['8月11日，由局安监处牵头，调度中心、抢险队一行9人赴省水利防汛物资储备中心徐州分中心考察学习。', '考察组一行首先参观了徐州分中心防汛物资储备仓库，了解仓库日常管理、智能出入库系统应用、安全管理等方面的基本情况；随后，在会议室听取徐州分中心许峰主任关于创建安全生产标准化工作汇报；最后双方就如何推进物资仓库管理规范化、标准化、精细化进行了交流讨论。', '此次考察学习不仅为积极推进抢险队安全生产标准化创建工作拓展了思路、积累了经验，也是开展党建引领“寻标达标创标”行动的重要工作部署。抢险队紧盯一流物资储备工作标准，学习借鉴安全生产先进经验做法，找差距、查短板、定目标，做到学有标杆、赶有方向，有力推动“清润']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>75</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>灌南县赴外地开展大豆玉米带状复合种植考察学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-03-10</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn/lygnyxxw/xqdt/content/96681164-7822-4e0b-baa2-d5c00c271956.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为了确保高质量完成省市下达的大豆玉米带状复合种植推广任务，保障新技术新模式顺利推广，3月1日至4日，灌南县农业农村局领导张凤楼、韩林带领种植业科、农机装备科、作栽站、农机推广站等相关负责人赴山东、河北等地进行了考察学习。', '一行人先后到山东临沂、德州和河北石家庄等相关生产厂家，实地察看了大豆玉米带状复合种植适用的播种机械、玉米收获机械的现场操作和演练，认真听取了技术人员对各种机具的详细讲解，对大豆玉米带状复合种植机械化技术及不同品牌的配套机具进行了交流探讨。另外，还参观了缓释肥料生产现场，详细了解玉米、大豆缓控释肥的产品特点、生产工艺及用法用量。', '下一步，灌南县将抓住春播有利时机，通过加大政策宣传和技术培训，让更多农民了解玉米大豆带状复合种植的优势，从而提高全县大豆玉米带状复合种植技术到位率和普及率。同时结合本地实际，制定大豆玉米带状复合种植技术方案，力争在种植模式、品种选配、肥料施用、技术配套、种管收装备配套等关键环节真正地实现农机农艺融合，从而提高灌南县玉米大豆生产能力，助力农民增产增收，促进农业可持续发展。（灌南县农业农村局 孙妍）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>75</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>新安镇组织微社区党组织书记赴苏州扬州考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-10-14</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/xzdt/content/c78ce5c1-720f-4f85-a204-0675b344c01b.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为搞好社区治理， 加强微社区建设，近日， 新安镇组织16名微社区党组织书记分别来到苏州、扬州等地进行考察学习。', '此次外出考察学习主要围绕微社区建设、社区服务、社区管理亮点等内容进行， 有针对性地参观了苏州市姑苏区金阊街道中街路社区 、平江街道历史街区社区、观前社区以及扬州市汶河街道荷花池社区、龙头关社区等地在党群服务中心建设、社区网格化管理、精神文明、特色文化建设等方面内容，详细了解了社区管理规范、理念超前的先进管理经验和创新思维模式， 通过现场参观学习，听取经验介绍， 了解了他们在工作创新、文化建设、社区服务品牌打造等方面情况。', '有针对性地参观了苏州市姑苏区金阊街道中街路社区 、平江街道历史街区社区、观前社区以及扬州市汶河街道荷花池社区、龙头关社区等地在党群服务中心建设、社区网格化管理、精神文明、特色文化建设等方面内容，详细了解了社区管理规范、理念超前的先进管理经验和创新思维模式', '参观学习结束后， 大家表示此行收获良多。通过此次外出学习， 大家认为苏州、扬州等地在加强社区建设方面规划起点高、社区建设标准高、思想意识超前、亮点特色多，纷纷表示将认真消化吸收本次学习成果， 借鉴外地先进社区建设、服务等方面的好经验、好做法，找差距， 转变思想观念，一步一个脚印做好自身微社区工作， 切实提高工作能力和水平，为更好地服务社区群众， 推进全镇经济社会高质发展作出新的更大的贡献。（相生年）', '大家认为苏州、扬州等地在加强社区建设方面规划起点高、社区建设标准高、思想意识超前、亮点特色多，纷纷表示将认真消化吸收本次学习成果']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>75</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>安徽和县县委统战部一行来灌南县考察学习宗教工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021-07-27</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn/lygmzzj/mzdt/content/fd29e0f4-2551-493b-8825-f87c5fb95f0f.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['7月22日上午，安徽和县县委常委、统战部部长王炜带领考察团一行9人来灌南县考察学习宗教管理工作经验。灌南县委统战部常务副部长、县民宗局局长周涤非，县民宗局副局长胡建国等人陪同考察。', '考察团一行先后到新集孙庄教会、张湾文化礼堂、灌南县基督教中心堂进行了实地考察。认真听取了该县在宗教管理方面的先进经验和做法，实地感受了灌南县在宗教工作方面取得的成果，对灌南县基督教财务管理“两统两化”、宗教场所安全管理等方面进行了细致了解。', '座谈中，双方进行了相互交流。灌南县民宗局介绍了近几年宗教工作的做法以及取得的成效。王炜表示灌南的做法值得学习借鉴。双方表示，希望通过此次考察学习，进一步增进双方的交流合作和业务沟通，优势互补、共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>75</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市水利局赴徐州考察学习水利安全生产监管工作</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-09-28</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/slyw/content/419fa964-e5a3-434b-add5-0512abb2ed2a.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['9月26日，局水政支队、安监处人员赴徐州市水务局考察学习水利安全生产监管及三级安全标准化建设工作。', '考察组一行通过座谈交流和查看相关台账资料，详细了解了徐州市水务局在安全监管、行政执法以及三级水利安全生产标准化建设等方面的工作经验和做法。双方围绕安全生产执法主体、自由裁量权的运用、项目线索移交、立案调查、安全生产标准化建设的经验做法等内容进行了深入交流。', '下阶段，将根据局领导安排进一步加强水利安全生产监管及三级安全标准化的学习研究，以点带面，全面开展水利安全生产监管及三级安全标准化创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>75</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>郁正言副局长带队赴淮安扬州考察学习宗教工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2021-07-26</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn/lygmzzj/mzyw/content/8fd27367-1746-4501-80d1-4c0d67a7fd96.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['考察组一行实地考察了两市宗教活动场所，与当地民宗部门、乡镇负责人以及宗教界人士座谈交流。', '郁正言指出，两地宗教场所“四进”活动有声有色，宗教事务管理规范有序，宗教文化建设成效明显，值得学习借鉴。他提出要继续加强交流往来，学习兄弟城市的好经验、好做法，进一步提升宗教工作水平，为维护我市宗教领域和谐稳定的良好局面作出更多贡献。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>75</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>宿迁市宿城区医保局赴赣榆区班庄镇省级分钟服务圈示范点考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-09-09</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://ybj.lyg.gov.cn//sylbzj/gzdt/content/7a079054-bfb5-41df-98e0-611a31e6ad23.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为学习借鉴赣榆区医保局省级“15分钟医保服务圈”班庄镇示范点建设相关经验，9月8日，宿城区医保局党组书记、局长李红辉带队赴该区班庄镇示范点参观交流学习。', '考察组一行先后观摩了示范点服务大厅医保窗口“综合柜员制”服务新模式、医保经办业务下沉运行情况等工作。赣榆区医保局局长张宜梅详细介绍了班庄镇示范点标准化建设、服务优化升级、硬件设施、业务经办、队伍建设等工作，并依次就示范点设立的8个区域进行了介绍。双方还就当前医疗保障工作中的重点、难点、热点问题进行了交流探讨。', '考察人员表示，赣榆区班庄镇医保示范点建设工作得力，思路开阔，是医保经办服务再造的重要举措，让其深受启发与触动，先进经验和做法值得学习和借鉴。', '该区医保局局长张宜梅指出，将以本次宿城区医保局考察学习为契机，强化与兄弟单位之间的沟通交流，互享心得，共学习同发展，奋力推动新时代医保工作再筑新辉煌！']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>75</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市局工作领导小组办公室组织赴无锡金华考察学习医保改革工作</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-05-28</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://ybj.lyg.gov.cn//sylbzj/gzdt/content/fe8d03b3-0948-40de-a3fd-1a6df9151426.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['5月17日、18日，市医保局党组成员、副局长、DIP工作领导小组办公室主任王清华带领市局DIP专项工作小组相关负责人以及部分DIP试点医疗机构分管领导、医保处负责人一行12个人赴无锡、金华考察学习医保改革工作。', '无锡市作为DRG付费国家试点城市，选定24家试点医院、30家观察点医疗机构，于今年1月1日起在试点医院全面试行总额控制下DRG为主的多元复合医保支付，并实际付费。', '5月17日下午，考察组一行和无锡医保局副局长王海阳、医药服务管理处处长钱孝明、市医保中心副主任魏小雷以及无锡市部分医疗机构代表一起座谈，双方就付费结算办法、付费考核办法、医疗机构病案质控管理等方面内容进行了深度交流。', '早在2016年7月,金华市就在市区7家医院试点启动“病组点数法”付费改革；2017年7月,金华市区49家住院医疗机构全部实施了“病组点数法”付费改革；2018年,金华市所有定点医疗机构住院全部按“病组点数法”进行医保支付,形成了疾病分组634个,实现了全市住院病种全覆盖。2019年5月，被列为DRG付费国家试点城市。', '5月18日下午，考察组一行与金华市医保局局长张少华、医药服务管理处处长江小州、市医保中心医疗管理科科长施晓蕾进行座谈。张少华局长向考察组介绍了金华市医改的总体概况；江小州处长从政策方向、主要做法、改革成效三个方面向考察组全面讲解金华医改的历程。听完介绍，双方就DRG分组、费率、支付标准、调节系数、考核标准细则等方面进行交流。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>75</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>日照市公积金中心一行来我中心考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://zfgjj.lyg.gov.cn/lygszfgjjglzx/gzdt/content/c03bf517-d51a-4be2-b79b-41e90fc91aad.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['5月25日，日照市住房公积金管理中心副主任孙波等一行7人专程来我中心进行考察学习，中心副主任吴红及相关部门负责人参加座谈。', '座谈会上，中心首先对我市住房公积金管理运作及业务开展情况进行了简要介绍，随后双方重点围绕贷款管理、区域经济一体化、企业楼盘准入管理、综合服务平台建设、与受托银行合作及考核监管等工作进行深入细致的交流和讨论，互享了先进经验做法。', '双方表示今后要继续加强学习，交流经验，取长补短，相互借鉴好的经验做法，为推动两市住房公积金管理工作打下坚实的基础。(办公室 张晶晶)']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>75</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>局领导赴无锡常州考察学习退役军人事务工作</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-07-23</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://tyjrswj.lyg.gov.cn//tyjrswj/gzdt/content/cf918348-71d9-4298-9ca6-51190c120550.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['7月20日，连云港市退役军人事务局党组书记、局长王永士一行考察学习无锡、常州两地退役军人事务工作。无锡市和常州市退役军人事务局相关领导陪同考察。', '王永士一行先后参观了无锡华腾军创（江苏）科技园有限公司、常州市新北区薛家镇退役军人服务站、新北区退役军人就业创业服务促进会等单位，认真听取退役军人服务管理、权益保障、创业发展等方面的经验介绍，详细了解服务保障体系建设、优秀戎耀之家创建、退役军人信息化服务平台建设等情况。', '王永士在座谈交流时表示，无锡、常州市退役军人事务工作的经验做法，让我们深受启发，既开阔了视野，又拓宽了思路。连云港市退役军人事务系统将认真学习无锡、常州市退役军人事务系统的先进经验，对标找差、抬高标杆、创新创优，奋力推动港城退役军人事务工作高质量发展，着力提升退役军人的归属感、获得感和荣誉感。', '考察学习期间，王永士一行还拜访了无锡联勤保障中心，汇报了我市军供保障工作开展情况。无锡联勤保障中心副主任吴贤源大校亲切接待了王永士一行，他简要介绍了军供保障工作面临的新形势新任务，并对下一步工作提出了有关要求。王永士表示，连云港市军供保障工作将认真贯彻落实联勤保障部队的部署安排，对标其他城市的先进经验，快速提升军供保障水平和区域协同联动能力，切实为部队提供优质高效的军供保障服务，为国防建设和部队发展作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>75</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>连云区供销总社外出考察学习农药零差率工作</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-05-08</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://gxs.lyg.gov.cn/lygsgxhzs/swdt/content/ffb9013e-503a-47b9-8e00-a88ebca5ede5.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为进一步贯彻落实省、市社考核目标要求，试点开展好农药零差率统一配供和农药废弃包装物回收工作。近日，连云区供销总社组织分管领导、业务科人员共4人赴盐城市盐都区考察学习盐都区社相关先进经验。', '考察中，学习团一行先后参观学习了农药废弃包装物收集中心、智能配肥中心和中兴现代农业综合服务中心，并进行了工作座谈，详细了解盐都区社在为农服务体系建设方面的介绍。', '通过学习考察，大家开阔了眼界，增长了工作经验。下一步，连云区社将认真吸收本次考察学习成果，结合区情实际，积极拓展土地托管服务项目和试点开展农药零差率统一配供和农药废弃包装物回收工作，积极参与农村环境综合整治，促进乡村绿色生态发展，切实提升农村生态环境水平，助推美丽乡村建设。（连云区社供稿）']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>75</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市普查办赴兴化市考察学习自然灾害综合风险普查试点工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-04-23</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://safety.lyg.gov.cn/lygsajj/gzdt/content/022cb480-b7dc-4193-bbb2-0628c8066505.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['为进一步推动我市第一次全国自然灾害综合风险普查工作的顺利开展，4月22日，市应急管理局党组成员、市普查办公室主任钱成勇率领市普查办、市住建局、市交通局、市自然资源和规划局、市应急管理局、市水利局、市气象局以及下辖各县区（功能板块）的普查相关负责人，赴江苏省风险普查先行试点单位泰州兴化市进行学习考察。泰州市应急管理局副局长李濮、兴化市应急管理局副局长李园峰，以及市县两级相关处（科）室负责同志参与活动。', '考察组一行现场查阅了风险普查先行试点工作台账，听取了兴化市普查工作经验介绍，并召开了座谈会。会上,兴化市普查办详细介绍了该市风险普查试点工作发动部署、任务分解、合力推动等组织实施情况。宾主双方就普查试点任务范围、职责分工、技术支撑、资金测算、推进难点、经验做法等方面进行了深入交流。', '钱成勇表示，兴化市普查试点工作取得显著成效, 得到省普查办的充分肯定，形成的经验和做法值得学习借鉴，连云港市将结合实际，充分吸收借鉴“兴化经验成果”的基础上，进一步创新工作思路，压实工作责任，全力确保优质高效完成风险普查各项工作，并期望两市今后能进一步加强在风险普查工作领域的学习交流,取长补短，推动普查工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>75</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>我局赴日照市临沂市考察学习退役士兵移交安置工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-03-18</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://tyjrswj.lyg.gov.cn//tyjrswj/gzdt/content/7ab6bd2f-448f-45ec-9f3c-9a3333c13702.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['3月16日，连云港市退役军人事务局党组副书记、副局长徐为怀带领调研组赴山东省日照市、临沂市考察学习退役军人移交安置工作，市委编办、海州区退役军人事务局相关负责同志共同参与。', '上午，调研组一行来到日照市（日照市符合政府安排工作条件退役士兵人数与连云港市相近）。日照市退役军人事务局领导和市委编办等相关部门业务负责同志详细介绍了日照市退役军人安置工作开展情况。调研组详细了解了当地如何克服岗位资源少，做好岗位提供，保质保量完成退役士兵安置工作的做法，还对该市创新推进军休干部医养服务模式进行了学习。', '下午，调研组一行来到临沂市（临沂市符合政府安排工作条件退役士兵人数多）。临沂市退役军人事务局领导和市委编办等相关业务负责同志介绍了临沂市退役军人移交安置工作开展情况。调研组重点了解了该市如何顶住任务压力，确保安置岗位数量、提升安置岗位质量等方面的做法，并就安置过程中出现的一些共性现象交流了体会。临沂市退役军人事务局相关同志仔细询问了我市岗位采集、组织选岗等方面的做法，并对我市创新制定“八个一”举措加强退役士兵待安置期间服务管理、全市统一调度选岗进程等做法给予了肯定。', '参加座谈的同志一致认为，作为友好睦邻城市，下一步要加大业务交流，落实好“阳光安置”政策，不断创新创优，增强安置工作满意度，为高质量做好退役军人移交安置探索经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>75</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>徐圩港控集团赴青岛港开展党业融合考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.xwxq.gov.cn/xxxq/djgz/content/de84e554-5d86-46a5-9b4b-7b36d4271ab8.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为推进集团党建与业务深度融合发展，切实将党建工作成效转化为集团高质量发展引领力量，近日集团组织各党支部书记和党务人员赴青岛港全自动化集装箱码头开展党业融合考察学习。', '全体人员先后参观了党建展馆和时代楷模“连钢创新团队”展馆，细致了解了山东港口青岛港和自动化码头建设发展历程，深入学习以“改革先锋”“最美奋斗者”许振超、“时代楷模”“连钢创新团队”等为代表的先进模范群体的光荣事迹，通过近距离参观自动化码头运行，更加深刻体会到“连钢创新团队”连续攻克一系列技术难题，构建一整套技术标准，建成一座拥有自主知识产权的全自动化码头的艰辛路程和不屈斗志。他们的爱岗敬业、勇于开拓、团结协作和精益求精的工匠精神让在场全体人员深受触动。', '各党支部分别就党支部情况、党业融合做法和难点问题与青岛新前湾集装箱码头公司相关负责人员作了深入交流，重点围绕党业融合的亮点做法和党建工作思路开展充分研讨。通过交流学习，大家拓展了思维，开阔了眼界，表示要以此次交流学习为契机，真正将学习成效运用到集团党建业务中去，把党建工作渗透到经营中，促进中心工作的进一步提升。', '通过本次考察学习，各党支部书记和党务人员的党建工作思路得到了有效拓展，对党业融合工作有了进一步认识，切实激发了大家创新党建工作，推动业务发展提质增效的工作热情。下一步，徐圩港控集团将持续深化党业融合工作，全面提升党建工作队伍专业能力和活力，加强锤炼党员干部过硬的工作作风，把党建成果转化为推动集团高质量发展的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>75</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>县人社局泗阳县人社局来我县考察学习技工学校创建工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2024-06-06</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/8bbd3e49-1497-4600-83c5-44107d5570a8.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['近日， 泗阳县人社局鉴定中心主任、职业能力建设科负责人姬扩娜携泗阳县中专校一行6人来我县考察学习技工学校创建工作，县人社局党委委员孔祥忠携局职能科室、县中专校负责同志陪同调研。', '泗阳县人社局鉴定中心主任、职业能力建设科负责人姬扩娜携泗阳县中专校一行6人来我县考察学习技工学校创建工作，县人社局党委委员孔祥忠携局职能科室、县中专校负责同志陪同调研', '调研组一行实地考察了灌南中专（县技工学校）虚实一体化实训中心、数字素养赋能中心、智慧教室等重点教学场所， 详细了解技工学校在学校建设、教育管理、招生宣传等方面先进做法。随后调研组还实地参观了县公共实训基地， 同时就中专校增挂技工学校校牌工作，进行座谈交流。', '调研组一行实地考察了灌南中专（县技工学校）虚实一体化实训中心、数字素养赋能中心、智慧教室等重点教学场所', '详细了解技工学校在学校建设、教育管理、招生宣传等方面先进做法。随后调研组还实地参观了县公共实训基地', '座谈会上， 县人社局党委委员孔祥忠对姬扩娜一行来灌考察交流表示热烈欢迎，详细介绍了我县技工学校创建工作的基本情况， 希望灌泗两地继续搭建友谊桥梁，在促进人社各项事业发展上互学互鉴， 共话共赢。县技工学校副校长徐淮军重点就办学特色、教学管理、校企合作、社会服务、招生状况等方面与调研组进行了深入交流。 姬扩娜表示，灌南县技工学校创建工作的先进做法及宝贵经验， 值得泗阳借鉴和学习，希望今后两地进一步加强交流， 携手共促技工教育事业发展。', '县人社局党委委员孔祥忠对姬扩娜一行来灌考察交流表示热烈欢迎，详细介绍了我县技工学校创建工作的基本情况', '共话共赢。县技工学校副校长徐淮军重点就办学特色、教学管理、校企合作、社会服务、招生状况等方面与调研组进行了深入交流', '近年来， 灌南县人社局深入实施就业优先战略，以“健全终身职业技能培训制度， 推动解决结构性就业矛盾”为引领，紧盯产业需求导向， 进一步规范职业技能培训开展，提高技工学校办学质量， 不断推动高素质劳动者成长和涌现，为地方经济社会发展提供了坚实的技能人才支撑。 （汪珊珊）']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>75</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>于治安带队赴上海浦东新区应急局考察学习应急指挥体系建设</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2024-05-20</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://safety.lyg.gov.cn/lygsajj/gzdt/content/117e0025-6b40-4d76-8649-7a878a7085ad.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['为进一步提升我市应急指挥体系建设，学习长三角发达地区应急指挥综合运管体系建设，5月14日，市应急管理局党委书记、局长于治安带队赴上海浦东新区考察学习。', '在浦东新区城市运行综合管理中心，考察组观摩了浦东新区应急指挥平台运行演示、应急救援案例复盘、应急救援资源统筹调配、无人机机库启动无人机实时起飞监测等。考察组与浦东新区应急管理局就应急指挥体系建设情况进行交流探讨，并详细了解浦东新区各级应急指挥部建设、应急指挥运行机制、应急指挥综合保障、应急指挥组织实施和部门协同联合值班等工作情况。', '考察组认为，浦东新区应急指挥体系实现了“平台+队伍+物资+预案+演练”一体化管理，应急指挥体系架构比较完善，应急预案和应急处置规程定期修订，形成了比较完善的突发事件应急处置规范，对我市应急指挥体系建设具有很好可学习借鉴的经验。', '下一步，我市将以健全“统一指挥、专常兼备、反应灵敏、上下联动”的应急管理体制机制为目标，聚焦“大应急”、“大安全”，不断完善应急指挥工作机制，健全“666工作法”，发挥“六大编组”协同救援合力，不断提升应急指挥能力水平。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>75</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>县行政审批局东海县数据局来我县考察学习</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/b87880db-f1da-4105-8161-456e67f61c79.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['5月10日， 东海县数据局局长、党组书记，政务办主任李华带领考察组来我县考察学习。', '座谈会上， 县行政审批局、司法局、住建局等部门相关负责人分别就我县“综合查一次”和优化审批服务两项工作的推进过程、取得成效、下一步安排等作了具体介绍。', '县行政审批局、司法局、住建局等部门相关负责人分别就我县“综合查一次”和优化审批服务两项工作的推进过程、取得成效、下一步安排等作了具体介绍。', '考察组表示， 灌南近年来在“综合查一次”和优化审批服务工作方面有很多值得借鉴和学习的地方，这次交流学习不仅加深了彼此的了解， 同时也拓宽了工作视野，突破了思维瓶颈。 希望双方在今后的工作中多进行沟通交流，共同努力、互通有无、共同进步， 不断促进“综合查一次”和优化审批服务工作再上新台阶。（郑波 徐从政）', '灌南近年来在“综合查一次”和优化审批服务工作方面有很多值得借鉴和学习的地方，这次交流学习不仅加深了彼此的了解']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>75</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>区民政局南北结对共谋发展海州区民政局赴无锡市新吴区考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/ff060ba4-633c-4edc-bbd7-9954436a1ffe.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['为进一步深化南北结对帮扶合作，深入了解新吴区在养老服务方面的先进做法，近日，海州区民政局党组书记、局长祁德带队赴无锡市新吴区考察学习，新吴区民政和卫生健康局党委书记、局长卢军英等陪同考察。', '考察组一行先后来到了新安街道居家养老服务中心、镜湖社区智慧餐厅和耘林养老服务中心，对社区居家养老、社区食堂和银发经济发展进行了实地调研。现场了解了各机构的设施布局、运营情况和特色亮点等。', '在随后召开的座谈会上，双方就养老服务质量提升、养老服务制度建设等方面展开了深入交流，并签订了《养老服务领域结对帮扶合作协议》，在支持养老服务设施建设、强化养老服务人才培养、促进养老服务产业发展等方面建立了良好的合作关系。', '下一步，海州区民政局将以此次考察学习为契机，加强与新吴区的沟通交流，深化养老服务领域帮扶合作，推动海州区养老服务再上新台阶。（撰稿人：朱兰榕 ；审核人：陈敏敏）']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>75</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>连云港市供销总社赴新沂市供销社考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://gxs.lyg.gov.cn/lygsgxhzs/swdt/content/b680d2f3-96d3-4d4c-b6cc-88846c54b4ee.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['3月6日，连云港市供销合作总社党委委员、理事会副主任周振玲带队，前往新沂市供销社考察学习农资保供、农药零差率统一配供和包装废弃物回收处理先进经验。', '学习小组人员一行先后来到新沂市供友农佳供应链管理有限公司、新沂市农资市场、新沂供销电子商务有限公司，实地察看新沂市农资市场建设情况、学习了新沂市社在包装废弃物回收处理溯源系统建设的做法。双方还就农资保障供应、农药零差率统一配供、农业社会化服务试点等有关问题进行了学习交流。', '通过此次内容丰富、紧贴实际的调研活动，了解并学习了新沂市社好的工作经验及先进做法，为我社开展农资保供和废弃物回收处理提供了宝贵的经验。（发展规划处供稿）']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>75</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>赣榆党政代表团赴四地考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.ganyu.gov.cn/gyqzf/gyyw/content/f73e19c0-401e-4ac0-863d-61b8c1096c6c.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['这是一次攀高逐新奋进之行，这是一次解放思想、对标找差之行，这是一次催生加快发展之行……', '19日至21日，区委书记苏卫哲，区委副书记、区长李莉率领赣榆党政代表团，先后深入徐圩新区、大丰区、沭阳县、邳州市四地考察学习，实地学习借鉴兄弟城市高质量发展、因地制宜发展新质生产力的生动实践和成功经验。在徐圩新区，副市长、徐圩新区党工委书记吕洁陪同。区人大常委会主任毛太乐、区政协主席李冰等区四套班子领导参加考察学习。', '汇通江淮之气概、畅达黄海之辽阔。两天时间、四座城市，从日出到日落，所到之处，先进地区推进高质量发展、因地制宜发展新质生产力的生动实践触目可及。穿行生产线，探访实验室，各地以科技创新推动产业创新，特别是以颠覆性技术和前沿技术催生新产业、新模式、新动能，勾勒出传统产业升级、新兴产业壮大、未来产业培育的美好愿景，让人备受启发，又信心倍增，代表团成员一路走、一路学、一路思考，边听边看、边学边议。', '徐圩新区是国务院批准设立的国家东中西区域合作示范区的先导区，是国家七大石化产业基地之一，是江苏沿海开发、“一带一路”支点建设中产业合作的主要实施载体，是连云港市委市政府确定的发展新型临港产业的核心区。在徐圩新区总投资约677亿元，贯通全产业链一体化布局、打造世界级新能源新材料产业集群的盛虹炼化一体化项目，让人眼前一亮、倍受震撼，带给代表团的启发是：实体经济大有可为，特别是徐圩新区与赣榆地域相近、产业相连，其做大做强先进制造业，积极推进新型工业化，改造提升传统产业，培育壮大新兴产业，加快构建以先进制造业为支撑的现代化产业体系的发展经验和做法值得学习和借鉴。', '大丰区是全国文明城市、国家首批生态示范区、国家园林城市、国家森林城市、国家全域旅游示范区。恒北村是国家级生态村、全国文明村、全国乡村旅游重点村。近年来，该村围绕“梨园风光、生态宜居、乡村旅游”做大富民文章，走出了乡村振兴特色之路。荷兰花海景区于2013年建成，先后完成投资35亿元，带动周边社会化投资120亿元，是国家4A级景区、江苏省优秀旅游风情小镇、省引进国外智力示范基地，累计接待游客2110万人次，实现旅游综合收入18.268亿元。参观中，让代表团一行真切感受到“绿水青山就是金山银山”的真理力量，一致认为，绿色是高质量发展的底色。赣榆将充分挖掘乡村特色旅游资源优势，结合红色旅游、山海岛旅游，做大乡村振兴富民文章。', '沭阳县是全国综合实力、工业经济百强县，2023年，GDP达到1411.67亿元，经济总量连续三年位居苏北第一。在沭阳县江苏桐昆恒阳化纤有限公司、新界泵业（江苏）有限公司、天能股份江苏沭阳公司，企业发展经验和做法让代表团一行大受启发。企业发展的经验是重视科技创新和产业创新的深度融合，加强重大科技攻关，增强产业创新发展的技术支撑能力。深入实施制造业重大技术改造升级和大规模设备更新工程，推动制造业高端化、智能化、绿色化发展，让传统产业焕发新的生机活力。', '邳州市是全国文明城市，2020年以来连续三年蝉联省推进高质量发展先进县（市、区）、徐州综合考核第一等次第一名。2023年地区生产总值同比增长10%，位居全国工业百强县第28位。在邳州市曼德电子电器有限公司、蜂巢易创科技有限公司、江苏鲁汶仪器有限公司、江苏上达半导体有限公司，让人感受到四家企业攀高逐新的科技魅力。发展中，主要做法是瞄准世界科技前沿，加强关键核心技术攻关，加大产品推广应用力度，做大做强产业链、生态圈，打造产业新高地。同时，强化企业创新主体地位，构建上下游紧密合作的创新联合体，促进产学研融通创新，加快科技成果向现实生产力转化。', '一年春作首，奋斗正当时。两天的行程，带给代表团的是启发、是思考、是谋划、是奋进，大家纷纷表示，将一以贯之抓好区委区政府加快发展系列政策举措的贯彻落实，以更加务实的举措和更优的营商环境，形成推动高质量发展的合力，在中国式现代化建设中奋力谱写赣榆崛起新篇章。（姚绍庄）']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>75</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>中心赴深圳公积金中心考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://zfgjj.lyg.gov.cn/lygszfgjjglzx/gdtp/content/a06031f4-b029-44f0-9ff2-464cfcfeac25.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['为更好推动住房公积金工作提质增效，提升我市住房公积金数字化发展水平，4月18日，中心主任、党组书记刘成同志带队赴深圳市住房公积金管理中心、招商银行深圳总部考察学习。', '刘主任一行先后参观了招商银行行史陈列馆、招商银行-私人银行体验中心、深圳市住房公积金管理中心“助圆安居梦 惠泽千万家”品牌展示中心，并分别与招商银行机构业务部、深圳市住房公积金管理中心开展业务交流研讨。', '交流会上，深圳市住房公积金管理中心主任潘霞云介绍了深圳市公积金中心机构设置、发展历程、业务运行的基本情况。信息管理部、互联网应用发展部分别介绍了信息化建设情况以及住房公积金数字化发展工作的思路与实践等。刘主任表示，通过深圳学习考察，我们要对标学习一流，借鉴深圳公积金的经验做法，加快我市公积金数字化转型步伐，积极推进信息化建设，不断提升服务效能，实现公积金事业发展质的提升。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>75</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>常熟市民政局局长唐晓一行到连云港市殡仪馆考察学习</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://mzj.lyg.gov.cn/lygsmzj/gzdt/content/57ec4278-41d8-4246-9587-7422574591a1.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['4月23日上午，常熟市民政局党委书记、局长唐晓一行9人到连云港市殡仪馆考察学习。市殡仪馆党支部副书记吴淑珩，副馆长桑连义等领导陪同。', '常熟市民政局考察学习人员先后参观了殡仪馆业务大厅、生命文化教育馆、遗体处置中心、火化中心、告别厅、守灵区等场所，实地察看了市殡仪馆硬件设施设备运营、智能化管理运行的整体情况，并对遗体火化、遗体接运车辆管理以及殡仪服务项目内容进行了全面深入了解。', '实地参观结束后，双方进行了座谈交流。座谈会上，殡仪馆党支部副书记吴淑珩介绍了自新馆建设以后工作开展情况、新馆整体功能布局以及建设经验做法，并针对对方提出的“社会车辆人尸混运”和“殡葬数字智能建设”等问题进行了详细解答。随后，双方就殡葬基础设施建设、精神文化、服务优化等方面深入探讨交流。', '常熟市民政局局长唐晓对市殡仪馆新馆建设与管理工作给予了高度评价，认为连云港市殡仪馆在设施建设、智能化管理以及殡葬服务等方面成果显著，相关工作经验值得学习借鉴，将继续加强与连云港市殡仪馆的交流沟通，共同推进两地殡葬事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>75</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市应急管理局市开发区联合考察组赴上海化学工业区和公共安全教育实训基地考察学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://safety.lyg.gov.cn/lygsajj/hdp/content/c5f21814-471b-4702-9885-c05b6b78a4fe.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['为进一步提升我市化工园区管廊、管道、管阀件“三管”安全管理能力，学习借鉴外地安全生产一体化实训基地先进经验做法，12月14日，市应急管理局党委书记、局长于治安，市开发区党工委副书记、管委会常务副主任王玉祥带队赴上海化学工业区和上海市公共安全教育实训基地考察学习。', '在上海化学工业区，考察组一行实地观摩了园区公共管廊，深入了解园区管廊建设规模、生产运营与现场管理情况，听取园区公共管廊有限公司运行安全管理、数字化转型与智慧化建设等经验介绍。随后，考察组参观了应急响应中心，详细了解上海化学工业区应急响应机制和流程、应急处置队伍、应急物资储备等情况，并与上海化学工业区安监处负责人就园区安全管理、安全生产许可、信息化监管等方面进行了座谈交流。', '考察组认为，上海化学工业区面向化工区产业集群建成智慧公共管廊服务平台，建立“政府+客户+管廊公司”“人防+物防+技防”“事前控制+事中管理+事后核查”三个“1+1+1”安全管理保障模式，实现了园区公共管廊长期安全、可靠运行。', '在上海市公共安全教育实训基地，考察组一行实际体验了综合演练、交通安全、地震灾害、紧急救护、消防安全等十余个实训馆，并与实训基地负责人进行了深入交流，详细了解了实训基地规划、设计、建设、运维、实训、教学等情况。', '考察组认为，上海市公共安全教育实训基地基于智慧安全实训系统、实训数据分析系统、公共安全教育数字化平台等构建了全过程智慧实训系统，结合信息化驱动开展课程设计、实施与评价，以“真学、真练”为特色，“真懂、真会”为标尺，使参训者达到了“识险避险、自救互救”的目标。', '下一步，我市将结合在上海化学工业区、上海市公共安全教育实训基地学习的先进经验，严格落实“三管”21条，进一步提升园区“三管”安全管理水平，高标准做好我市安全生产一体化实训基地规划、设计和建设等工作。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>75</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>于治安带队赴万华化学恒力石化考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://safety.lyg.gov.cn/lygsajj/gzdt/content/2514083f-92df-40b9-a428-0de65ec84522.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为学习借鉴外地先进经验和做法，进一步提升我市化工园区、化工（危化品）企业安全管理能力，2023年11月12日至13日，市应急管理局党委书记、局长于治安带领部分县区应急管理局主要负责人和市局危化处负责人，专程赴烟台万华化学集团股份有限公司、恒力石化(大连)有限公司考察学习。', '12日上午，在万华化学企业展厅，考察组一行了解了万华的创业历程、研发创新、基础研究、成果产业一体化展示等多项成果。在万华化工仿真实训中心，考察组深度体验了安全教育展示、八大作业设施、化工仪表展示、设备维修维护展示、电气展示、焊接展示、消防及防护用品展示，详细了解员工培训考核开展情况。随后，考察组与万华化学集团工作负责人进行了座谈交流，万华化学集团安全管理人员详细介绍了集团在安全文化理念和安全领导力、企业安全管理体系、现场安全管理措施、从业人员知识和技能培训、公共管廊安全管理等方面的先进经验和做法。', '考察组认为，万华化学将安全理念融入企业文化，以零伤害、零事故、零排放为目标，以风险管理为核心，以安全领导力与安全文化为基石，以能力提升、审核为抓手，以卓越执行力和落实为根本，全面提升安全管理能力和业绩，构建了全生命周期的过程安全风险管控体系。企业化工仿真实训中心对企业涉及的装置、特种设备、管件、阀门附件等实物通过解剖式培训、实操体验、平台学习等方式，全面提升了从业人员专业能力素质。', '13日上午，考察组一行参观了恒力石化企业展厅，实地考察了企业生产装置运营、安全环保及炼化项目规划布局、中水处理等情况。随后，考察组步入联合运营中心，观看了公司宣传片，详细了解了恒力石化安全责任体系建设、冬季危化品生产防冻防凝、安全设计源头管控、特殊作业及检维修作业消防力量前置等经验做法。', '考察组认为，恒力石化将安全理念融入党建文化，强化源头安全风险管控，抓工艺、抓设计、抓设备。按照高起点规划、高标准设计，选用世界先进工艺，车间主任从项目设计、施工、安装运行全过程参与，源头管控项目重大安全风险。在生产装置区开展消防实训，组织无脚本盲演，促使消防人员迅速熟悉企业装置布局及安全风险，全面提升应急处置能力。', '下一步，市应急管理局将全面梳理、积极推广万华化学、恒力石化先进经验和做法，引导督促企业学习借鉴，对标先进查找不足，进一步弥补安全管理方面短板弱项，切实提升我市危险化学品企业的安全管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>75</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市民宗局组织赴临沂考察学习宗教中国化实践工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn/lygmzzj/mzyw/content/d28dbf0d-1475-46f8-8fb7-768ef621223b.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['11月3日，市民宗局副局长郁正言带领民宗干部和宗教界人士一行赴山东省临沂市考察学习我国宗教中国化实践工作。市民宗局宗教处、市道教协会、市天主教爱国会、市基督教两会，以及部分县区民宗部门、基督教“三自”爱国运动委员会负责人参加活动。临沂市委统战部副部长、市民宗局局长王子鹤，四级调研员张宗辉，兰山区委统战部副部长、区民宗局局长包汉青等陪同。', '考察组一行首先来到临沂市基督教两会中心教堂，参观了临沂市基督教中国化示范基地，听取市基督教两会负责人关于基督教中国化工作的情况介绍，详细了解临沂市在践行基督教中国化方面的思路、举措和成效。随后来到临沂天主教堂，实地查看场所建设，参观民主办教成果展示，学习推进天主教中国化方面的工作经验。离开临沂后，考察组来到赣榆区基督教中心堂，参观了赣榆区基督教中国化教育实践基地建设情况，并召开座谈会交流本次考察学习情况。', '会上，郁正言指出，本次考察内容充实、收获颇丰，取得了良好效果。要认真总结梳理周边兄弟城市的先进做法和经验，进一步对标找差、创新实干，转变思想认识，加强工作配合，提升工作质量，推进我国宗教中国化连云港实践走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>75</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>东海县全省非遗工作培训班学员来东海考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://wglj.lyg.gov.cn/lygswgxj/xqzx/content/bc2ac122-9420-4d04-85bd-a8ba8dd47b35.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['12月5日，全省非遗工作培训班200多名学员分批次考察学习国家级非遗项目——东海水晶雕刻非遗工作开展情况。学员们先后来到东海水晶雕刻非遗馆、水晶雕刻生产性保护基地（恒达珠宝）、东海水晶博物馆、东海水晶城。通过现场参观、交流，领略东海水晶文化的源远流长及东海非遗工作的丰硕成果。', '近年来，东海县深入实施非物质文化遗产传承发展工程，不断加大非物质文化遗产的申报和保护传承力度，切实提升非物质文化遗产系统性保护水平。截至目前，全县共有54项非物质文化遗产项目，涵盖了非遗文化的10个基本门类，其中国家级保护项目1项（东海水晶雕刻），省级保护项目7项（跑马灯、吕剧、姐儿溜、桃林烧鸡、桃林酒、苏北琴书、金银制作），市级保护项目36项，县级保护项目10项，省级项目代表性传承人3人，市级项目代表性传承人39人和近30个非遗项目传承基地。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>75</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>市公路中心赴盐城和扬州考察学习服务设施建设</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://jtj.lyg.gov.cn/lygjt/glgl/content/4d0ff5c7-4292-4ccc-b76f-9f6d9e43abe7.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['9月7日至8日，市公路中心考察组赴盐城和扬州考察学习服务设施建设、运营管理以及服务效能提升等方面做法和经验。', '考察组成员包括“王子灵劳模创新工作室”部分成员和全市服务设施县、区责任主体。考察组一行先后参观了盐城228国道黄尖、条子泥服务区，扬州353省道四庄服务区、356省道三联服务区，并与盐城、扬州市公路中心及相关服务设施运营管理单位进行了深入交流座谈。', '考察学习中，大家认为盐城市普通国省道服务设施建设运营管理模式先进，服务设施规划设计理念超前，设施齐全功能完善、管理服务水平高，充分满足了公众多元化、个性化、品质化的消费需求。扬州市“不求所有，但求所用；共建共享，共生共荣”的总体思路更加接地气，具有适用性和推广价值。两天考察学习开拓了考察组成员眼界，拓宽了全市服务设施运营责任主体的管理思路，为更好地贯彻落实《江苏省普通公路服务设施效能提升三年行动计划（2023—2025年）》要求，切实提升服务效能，打造“大美山海路”品牌。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>75</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>新安镇宿迁市宿城区卫健委考察团来刘园村考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/xzdt/content/0b14adcf-8c0f-40f0-8944-7b389143813c.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['九月的新安镇刘园村秋高气爽， 美景如画。9月6日上午， 宿迁市宿城区卫健委考察团一行5人来到新安镇刘园村考察学习“省级健康村”建设。新安镇副镇长汪小梅、镇爱卫办主任李晓明陪同考察。', '宿迁市宿城区卫健委考察团一行5人来到新安镇刘园村考察学习“省级健康村”建设。新安镇副镇长汪小梅、镇爱卫办主任李晓明陪同考察', '宿城区卫健委考察团一行实地考察了刘园村示范健康家庭、环境卫生、生活污水治理、卫生改厕、废弃物无害化处理， 观摩了善恩游园、神奇古井、吴承恩祖居地，听取了刘园村开展省级健康村建设、抓好公共卫生管理、健康服务保障等方面的经验介绍。', '宿城区卫健委考察团一行实地考察了刘园村示范健康家庭、环境卫生、生活污水治理、卫生改厕、废弃物无害化处理', '观摩了善恩游园、神奇古井、吴承恩祖居地，听取了刘园村开展省级健康村建设、抓好公共卫生管理、健康服务保障等方面的经验介绍', '考察团成员一致认为， 此次考察受益匪浅，印象深刻， 启发很大。表示一定要把新安镇刘园村抓好健康村建设的好经验和做法带回去， 指导当地建康村建设，同时希望两地之间加强交流往来， 加深友谊，强化合作， 取长补短，建立定期联系机制， 推动两地建康村建设取得更好成绩。 （董媛媛）']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>75</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>苏州市吴中区民政局赴连云区考察学习殡葬改革经验</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://mzj.lyg.gov.cn/lygsmzj/gzdt/content/1f47665d-2dc8-4021-887a-2b0f2a12b456.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['11月1日，苏州市吴中区民政局局长张建琳一行8人赴连云区学习殡葬改革经验。连云区民政局副局长张玉莲以及相关处室负责人等陪同考察。', '吴中区考察团先后实地考察了连云街道陶庵社区散坟治理点和云山街道排淡河人文生态绿园，并与连云区民政局和街道相关负责人进行了深入交流，充分了解连云区殡葬改革的成功经验和做法。考察团成员认真听取了连云区殡葬改革的介绍，详细了解了连云区在殡葬服务、殡葬习俗改革等方面的成功经验和做法，诸如成立领导小组，制定殡葬联席会议制度和制定长效管理办法等，并明确各成员单位分工，定期对各街道殡葬整治工作进行督查以确保将工作制度落到实处。考察团对连云区殡葬改革的经验和做法给予了高度评价，并表示在今后的工作中将充分借鉴连云区的成功经验和做法，积极推进当地殡葬改革工作，推动吴中区殡葬事业持续健康发展。', '此次考察活动不仅加强了两地的交流与合作，更为彼此分享创新经验提供了宝贵的平台，连云区将进一步加强与苏州市吴中区沟通交流，积极探索服务领域的创新之路，共同推动两地民政事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>75</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>如皋市公共资源交易中心来灌考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.guanyun.gov.cn/gyxzf/bmdt/content/014189b2-a7ef-4e31-b828-066cb7037ff8.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['8月16日上午，如皋市行政审批局总工程师严海兵带队到灌云县公共资源交易中心考察学习，县行政审批局党组成员姜驹、县公共资源交易中心主任王兴陪同考察。', '严海兵一行实地考察我县公共资源交易中心独立评标仓以及公共资源交易监管平台的建设情况，通过听取情况介绍、现场交流的方式重点学习了我县交易中心“数字见证室”、“不见面开标室”、投标保证金自动退付等方面的先进经验和创新方法。严海兵表示，要以此次考察学习为契机，进一步解放思想、转变工作观念，认真学习借鉴先进经验做法，加强交流学习，拓展合作领域，助推两地区域社会经济和营商环境良好发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>75</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>新安镇创文考察组赴南通苏州考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2021-03-04</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/xzdt/content/1f12fd4b-c444-44de-87d0-f73b5415ac06.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['3月2日至4日， 由新安镇分管负责人、创文重点村支部书记和镇创文办相关人员组成的新安镇创文考察组，赴南通、苏州等地考察学习全国文明城市创建工作先进经验和成功做法。', '由新安镇分管负责人、创文重点村支部书记和镇创文办相关人员组成的新安镇创文考察组，赴南通、苏州等地考察学习全国文明城市创建工作先进经验和成功做法', '考察组一行先后实地考察了南通市如东县、苏州市张家港市、太仓市， 通过实地参观、听取经验介绍、边看边议、座谈交流等形式，全面深入了解这些城市在无物业老旧小区管理、背街小巷整治、农贸市场管理、社区文明创建、志愿服务开展、新时代文明实践站（所）阵地建设等方面的先进做法和经验。', '通过实地参观、听取经验介绍、边看边议、座谈交流等形式，全面深入了解这些城市在无物业老旧小区管理、背街小巷整治、农贸市场管理、社区文明创建、志愿服务开展、新时代文明实践站（所）阵地建设等方面的先进做法和经验', '大家纷纷表示， 通过考察学习，受益匪浅， 启发很大，既开阔了眼界， 又坚定了信念，回到灌南后， 一定要将好的经验做法借鉴和运用到灌南的创文工作中去，努力为全县创建全国文明城市助力加油、增光添彩。 （相生年）', '一定要将好的经验做法借鉴和运用到灌南的创文工作中去，努力为全县创建全国文明城市助力加油、增光添彩']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>75</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>海州区退役军人事务系统到邳州市考察学习</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020-12-07</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://tyjrswj.lyg.gov.cn//tyjrswj/gzdt/content/f7f8dd46-1d1e-4845-9d5e-d06ed16400d1.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['12月4日，海州区退役军人事务局组织退役军人服务中心工作人员、镇街及功能板块退役军人服务站站长共40余人，前往邳州市高新区、所属东湖街道及坝头社区退役军人服务站实地观摩。', '随行学习组就退役军人服务体系建设、业务规范等事宜分别与邳州基层退役军人服务站工作人员进行深入交流，同时，实地参观退役军人服务体系运行情况，了解为退役士兵服务的工作流程和成功经验。', '海州区退役军人事务局通过组织三级退役军人服务体系负责人与工作人员参观见学，借鉴了兄弟单位优秀做法，对下一步发展有了更好的参考，有效促进了海州区两级退役军人服务站“评星创建”。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>75</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>泰州市姜堰区供销总社考察学习赣榆区农村电商工作</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020-08-24</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://gxs.lyg.gov.cn/lygsgxhzs/swdt/content/ca6ce335-aaf2-4974-8a7f-bc764a453dbe.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['8月13日，泰州市姜堰区供销总社党委书记、主任李建忠，农业农村局党组成员、主任科员戴晓东等一行32人到赣榆区考察学习农村电商工作。赣榆区社党委书记、理事会主任庞博及电商办、农业农村局等有关领导陪同考察。', '考察组实地参观了赣榆紫菜交易中心，海头镇电商产业园，连云港浩源食品有限公司和宋庄镇电商直播基地。每到一处，考察组都认真看现场、听介绍，详细询问赣榆区农村电商发展情况，对赣榆区农村电商所取得成效表示赞同。认为赣榆区农村电商发展快，范围广，效果好，尤其是电商直播基地，社会效益和经济效益非常可观。并表示将充分借鉴赣榆区农村电商发展模式，结合姜堰区工作实际，取长补短，优势互补，进一步做强做大姜堰农村电商。（赣榆区社供稿）']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>75</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>骆马湖水利管理局灌南河道局来连考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020-10-28</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/slyw/content/04aee6d2-47cb-48ad-921f-d3c6f1971f97.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['为促进新时代水利行业精神有效落实，提升水利管理业务水平，加强灌南河道局与连云港市水利局交流学习，10月27日，骆马湖水利管理局灌南河道管理局在徐书涛副局长的带领下一行10人莅临我局考察学习水行政执法工作、水资源保护、取水许可管理等先进经验。', '座谈会上，灌南河道局听取了我局水行政执法工作、水资源保护、取水许可管理等方面工作的情况介绍，并就相关细节进行深入的交流探讨。徐书涛一行对我局水行政执法工作、水资源保护、取水许可管理创新举措等各项工作给予充分肯定，表示通过此次参观学习交流，加强了互通了解，开阔了视野，达到了相互取长补短，共同发展的目的。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>75</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>县农业农村局徐州市农业农村局来我县考察学习全程综合农事服务中心建设</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020-07-14</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/9ed3bd89-589c-407d-a40c-ee1972a279ba.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['县农业农村局：徐州市农业农村局来我县考察学习全程综合农事服务中心建设 - 灌南县人民政府', '近日， 徐州市农业农村局一行来我县考察学习全程综合农事服务中心建设，连云港市农业农村局副局长成云飞、农机装备处处长陈海、县农业农村局局长孙存康、副局长张凤楼等领导陪同考察。', '徐州市农业农村局一行来我县考察学习全程综合农事服务中心建设，连云港市农业农村局副局长成云飞、农机装备处处长陈海、县农业农村局局长孙存康、副局长张凤楼等领导陪同考察', '今年以来， 我县适应“三农”发展形势需要，将加快推进全程机械化综合农事服务作为现代农业建设的重要内容， 按照“覆盖全面、服务全程、运转高效、综合配套、保障有力”的新型农机社会化服务理念，整合并升级原有合作社功能， 全面服务和带动农户步入现代农业。综合农事服务中心通过以市场化方式将现代生产要素有效导入农业， 实现农户生产与现代生产要素的有机结合。目前， 我县已建立两家全程综合农事服务中心，初步建立了耕、种、管、收、储、运衔接配套的全程机械化服务模式， 为全县农机服务组织起到了良好的示范引导和带动作用。', '我县适应“三农”发展形势需要，将加快推进全程机械化综合农事服务作为现代农业建设的重要内容', '按照“覆盖全面、服务全程、运转高效、综合配套、保障有力”的新型农机社会化服务理念，整合并升级原有合作社功能', '全面服务和带动农户步入现代农业。综合农事服务中心通过以市场化方式将现代生产要素有效导入农业', '我县已建立两家全程综合农事服务中心，初步建立了耕、种、管、收、储、运衔接配套的全程机械化服务模式', '在考察中， 徐州市农业农村局一行先后参观考察了我县百事利全程综合农事服务中心和徐老庄全程综合农事服务中心建设情况，了解了我县全程综合农事服务中心建设典型做法， 并就农机合作社培育、规范化建设以及发展综合农事等方面和县农业农村局相关负责人进行了交流。', '徐州市农业农村局一行先后参观考察了我县百事利全程综合农事服务中心和徐老庄全程综合农事服务中心建设情况，了解了我县全程综合农事服务中心建设典型做法', '并就农机合作社培育、规范化建设以及发展综合农事等方面和县农业农村局相关负责人进行了交流。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>75</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>单县领导来我县中等专业学校考察学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020-05-18</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/e52f16e4-92c3-4994-be1a-99f010b9e90e.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['5月14日， 山东省菏泽市单县副县长汲永亮带队来我县中等专业学校考察学习学校整体建设布局、规划设计等方面的经验和做法。副县长郭智陪同考察。', '山东省菏泽市单县副县长汲永亮带队来我县中等专业学校考察学习学校整体建设布局、规划设计等方面的经验和做法。副县长郭智陪同考察', '在县中等专业学校， 考察组一行先后实地察看了室外运动区、教学区、生活区、实训区等教育生活区。大家一边看一边交流学习， 对学校的宿舍管理、特色专业、就业等情况进行了深入地探讨。', '考察组一行先后实地察看了室外运动区、教学区、生活区、实训区等教育生活区。大家一边看一边交流学习', '在随后的交流会上， 郭智向单县考察组介绍了我县基本情况和教育基本情况。在一同观看了中等专业学校宣传片后， 县中等专业学校负责人详细介绍了学校整体建设布局、规划设计理念，县人社局、教育局、自然资源和规划局等相关单位负责人也相继做了交流发言。 单县考察组对我县县委县政府高度重视教育以及取得的丰硕教育成果表示钦佩和赞赏，希望两县教育多合作交流， 推动中专办学水平不断提升。（融媒体记者 徐亮）', '郭智向单县考察组介绍了我县基本情况和教育基本情况。在一同观看了中等专业学校宣传片后', '县中等专业学校负责人详细介绍了学校整体建设布局、规划设计理念，县人社局、教育局、自然资源和规划局等相关单位负责人也相继做了交流发言', '单县考察组对我县县委县政府高度重视教育以及取得的丰硕教育成果表示钦佩和赞赏，希望两县教育多合作交流']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>75</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>临沂经济技术开发区管委会赴徐圩新区政务服务中心考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020-06-09</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.xwxq.gov.cn/xxxq/bmdt/content/6fe05f69-bf9d-47e9-81bd-14ec3de1c9a6.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['6月5日，临沂经济技术开发区管委会副主任张秀发一行14人赴徐圩新区政务服务中心考察学习“放管服”改革工作。徐圩新区管委会副主任朱彬以及政务服务中心相关负责同志参加。', '张秀发副主任一行参观了政务服务大厅，详细了解了大厅布局、窗口设置、运行方式、办理流程等基本情况，并认真听取了政务服务大厅三个标准化建设的介绍。在随后召开的座谈会上，双方就区域评估、标准地出让、优化营商环境等3个方面的工作开展情况及先进做法进行了深入的探讨和交流，相关负责同志现场演示了新区5个区域评估网上办理流程。', '近年来，新区政务服务中心不断深化服务方式，通过网上办理区域评估、推行综合窗口受理、印发服务指南手册及审批服务流程等多项创新举措，极大地方便了园区企业办理各类手续。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>75</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>东海县退役军人事务局赴外考察学习</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020-05-14</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://tyjrswj.lyg.gov.cn//tyjrswj/gzdt/content/8adb2892-2a0c-43e7-bc7b-d11f943b1be4.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['为进一步开阔工作思路，借鉴兄弟单位的先进经验，提高工作水平，积极推进东海县退役军人事务局各项重点工作高起点规划、高标准实施，近期，东海县退役军人事务局先后分两批前往海安、泗阳、响水、沭阳，学习观摩安置就业、服务中心建设和“退役军人之家”创建等工作。', '4月23日，东海县退役军人事务局副局长徐玉金带领维权科、退役军人服务中心及部分乡镇退役军人服务站负责人来到泗阳县实地考察了红色教育基地和史集街道退役军人服务站。', '4月24日在海安市，徐玉金一行参观了退役军人服务中心和腾飞集团退役军人之家。听取了海安市退役军人事务局组建、腾飞集团退役军人之家等有关经验介绍。', '5月8日，县退役军人事务局局长孙振权带领维权科、安置科、退役军人服务中心、军休所负责人先后来到响水县和沭阳县，就退役军人机构建设、运行管理、制度建设、档案管理、信访接待等方面进行了交流学习。', '孙振权表示，此次学习考察，目的在于学习兄弟单位的先进经验，发现自身短板；要通过找差距传递工作压力，改变工作作风，突出真抓实干；要进一步解放思想，积极转变观念，牢固树立为退役军人服务理念，找准工作突破口。在今后的工作中，要取人之所长，补己之所短，创新工作方法，从实际出发，扎实做好全年各项工作。沭阳退役军人事务局结合县情实际，建立信访转办、工作流程和稳定长效机制，打造防范化解信访稳定风险工作闭环，形成工作合力，确保工作专班规范高效。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>75</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>县行政审批局东海县行政审批局来我县考察学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020-04-26</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/764fd404-624c-4ffa-beb0-62ab888741d4.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['座谈会上， 灌南、东海两地审批局相关负责人分别介绍了局组建运行与“一件事”工作开展情况。双方互动问答， 还就组织架构、人员编制、福利待遇、事项划转、工程项目招投标监管等进行了现场交流与探讨。', '灌南、东海两地审批局相关负责人分别介绍了局组建运行与“一件事”工作开展情况。双方互动问答', '还就组织架构、人员编制、福利待遇、事项划转、工程项目招投标监管等进行了现场交流与探讨。', '周运喜表示， 灌南县行政审批局在全市率先成立，多项改革工作走在了全市前列， 有很多经验做法值得学习和借鉴。希望今后双方进一步加强沟通交流， 共同提高，齐力推动行政审批和政务服务各项工作迈上新台阶。 （杜娟）']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>75</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>县公共空间治理政策法规组赴新沂考察学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020-04-25</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/dhxw/content/a37adf98-11bb-468a-88de-6723b2a6fafd.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['4月23日上午，县公共空间治理政策法规组成员以及双店镇、温泉镇分管领导一行8人，赴新沂市考察学习公共空间治理工作先进经验。', '考察组一行先后来到新沂市新安街道仲庄村、新东村、嶂仓村、孔圩村、李庄村进行考察学习。考察中，考察组认真听仔细看', '并就该市在公共空间治理过程中将治理与党建结合、与改善农民人居环境结合、与村集体经济增加相结合等优秀做法和经验进行深入交流和探讨。', '近年来，新沂市全面推进农村公共空间治理工作，不仅清理出公共空间，更进一步明晰了公共资源产权，推动公共空间形态重构，把公共空间整合起来进行资源发包，市、乡、村分别成立了农业绿化公司，在清理出的公共空间上开展苗木种植，收益按照股份分成，既美化了环境，又增加了集体收入……一系列措施的实施，使农村闲置低效的资源资产得到盘活利用，让沉睡的农村生产要素活起来，在增加村集体收入的同时带动了村民致富。', '考察结束后，考察组对新沂市农村公共空间治理中实践出来的治理+党建、治理+村居环境改善、治理+集体经济增加、治理+苗木产业发展和“一图一码”村集体资产资源管控措施留下了深刻的印象。大家纷纷表示，要认真总结学习新沂市公共空间治理的创新做法，对标找差，努力把考察学习成果转化为推动东海发展的新思路、新举措，推动东海农村公共空间治理工作顺利开展。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>75</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>县审计局赴苏州考察学习科技强审工作</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/c5f9c9db-0f81-4293-a08d-03e817d8760d.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['为深入推进科技强审行动， 进一步提升审计工作效率与质量。4月15日， 县审计局组织审计人员赴苏州昆山市、吴江区审计局考察学习大数据审计以及一级预算单位全覆盖审计相关工作经验。', '县审计局组织审计人员赴苏州昆山市、吴江区审计局考察学习大数据审计以及一级预算单位全覆盖审计相关工作经验。', '交流活动中， 该局分别学习了昆山市审计局、吴江区审计局关于大数据分析平台建设、运行和维护情况，以及在大数据审计方面取得的成绩， 并观看了大数据分析平台现场操作演示，还就正在开展的一级预算单位全覆盖审计交流了工作做法。 该局局长王晓旻同志表示，一要加强大数据分析平台建设， 把科技强审行动不断向纵深推进；二要向先进地区学习经验， 进一步开阔审计人员眼界，提升审计工作水平； 三要认清差距，奋力赶超， 努力推动灌南审计工作再上新台阶。（管冲冲）', '该局分别学习了昆山市审计局、吴江区审计局关于大数据分析平台建设、运行和维护情况，以及在大数据审计方面取得的成绩', '并观看了大数据分析平台现场操作演示，还就正在开展的一级预算单位全覆盖审计交流了工作做法']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>75</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>云台山景区赴赣榆区考察学习殡葬治理工作</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019-12-27</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://yts.lyg.gov.cn/ytsfjqgwh/bmkx/content/6376e695-432b-42ae-8b11-8c4697ef7308.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['为进一步解放思想，对标先进，促进景区殡葬治理高质量发展，12月26日上午，景区社会事业局率云台街道及村居书记、老干部等相关同志赴赣榆区学习考察。', '学习考察期间，景区社会事业局与赣榆区民政局就殡葬改革、散葬乱埋治理、公益性公墓建设等重点工作进行了深入探讨和广泛交流，并实地考察了墩尚镇、宋庄镇和青口镇的公益性公墓建设。', '大家纷纷表示，考察学习是长见识、找差距、明目标的一次难得机会，本次参观体验和学习交流收获很大、受益匪浅。通过学习，要把赣榆区的真经学到手，把经验带回去，消化好、吸收好、转化好，带动景区殡葬治理持续加速发展。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>75</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>图灌云民宗局到河南鲁山考察学习宗教工作经验</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2020-02-21</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn//lygmzzj/xqdt/content/e23f43e7-cab0-41af-b7af-3fabb13797c8.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['考察期间，江劲松一行在鲁山县民宗局长李亚伟的陪同下，参观了中原大佛、世纪大钟和礼佛坛。在方丈室内，两地负责人相互介绍了近年来各自宗教工作的基本情况和取得的成绩，并就宗教管理规范化、活动场所去商业化、露天大佛合法化等问题进行了深入探讨，广泛交流。', '考察结束后，江劲松认为鲁山县宗教工作领导重视、开拓创新、措施有力，取得的成绩斐然，要求大家认真学习鲁山的先进经验，结合自身实际，有效地推动了灌云宗教事业又好又快发展。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>75</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>县发改委组团赴东夷小镇考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019-11-13</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/d608b374-e1e4-4dd2-9c0f-5ba363d80455.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['为推进东海水晶小镇建设进程，近日，由县发改委牵头，组成考察团赴日照市东夷小镇考察特色旅游项目。考察团观摩了精品民宿开发、特色小镇建设工作，详细学习了东夷小镇的特色和发展优势，感受了该镇小吃一条街的综合布局、民宿的精细化格局，了解了东夷小镇的经营模式、管理措施和项目配套基础设施建设等情况。', '随后，考察团在小镇党员活动中心会议室，与东港区发改委及旅游区相关负责人对东夷小镇项目的发展理念、运营模式、项目规划、乡村旅游开发等进行了交流探讨。会上，考察团对东海水晶和温泉旅游文化进行了推介宣传。', '通过此次考察，开拓了大家的眼界和思路，发现了自身发展的优势和不足，为水晶小镇的建设凝聚了新动力。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>75</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>全市政务服务系统干部职工综合素能提升培训班学员到南京市建邺区政务服务中心考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019-11-08</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://zwb.lyg.gov.cn/szwb/gzdt/content/db5b7af6-eeb1-4345-ae5e-517d3a0c1916.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['全市政务服务系统干部职工综合素能提升培训班学员到南京市、建邺区政务服务中心考察学习', '11月6日下午，全市政务服务系统干部职工综合素能提升培训班学员分别到南京市、建邺区政务服务中心考察学习。', '在南京市政务服务中心，学员们参观了征信查询区、公共资源交易区、创业创新大厅、公安综合大厅、不动产登记交易一体化大厅等服务区域建设和服务情况。南京市不动产登记交易、创业创新大厅的改革创新理念以及高效快捷的服务成效，给学员们留下了深刻印象。', '在建邺区行政审批局，学员们零距离感受了一窗全科受理、建政一点通、全生命周期办事、互联网服务体验等改革成果的魅力，坚定了运用互联网+政务服务以及用户思维提升新时代政务服务工作能力的信念。近年来，建邺区行政审批局在窗口服务、一网通办、便民利企、绩效考核及团队文化建设等方面都取得了很多成果。', '学员们表示，通过考察学习，我们看到了兄弟城市政务服务同行锐意改革、攻坚克难、向好向善、拼搏进取、成效显著，值得我们学习借鉴。今后，我们要进一步从群众服务侧集成优化政务服务流程、量化固化政策应用内容、审批环节闭环衔接、增加群众侧政务服务舒适度和可接受度，让我市人民群众享受到明明白白、如玉温润、如兰美好的高质服务。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>75</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>县行政审批局东海县行政审批局赴我县考察学习</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019-11-13</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/8450a6c1-0e54-439b-9219-8d6952ba7028.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['县行政审批局是全县最大的服务窗口单位， 是审批改革的最前沿，同时也是机构整合人员来源最广的单位。 今年以来，该局以机构改革为契机， 不断深化部门内部改革，强化绩效管理和争先创优意识， 锐意创新服务理念和管理模式，狠抓队伍建设， “放管服”改革向纵深推进，12345政府热线服务水平不断提升， 招投标环境公开透明、廉洁高效，行政审批和政务服务各项工作成效显著。', '座谈会上， 双方就行政审批局大厅运行管理、组织架构、人员进驻、职能划转、工程项目招投标监管等进行了现场交流与探讨。双方表示， 在持续深化“放管服”改革，营造高质量营商环境的时代要求下， 彼此都有很多经验值得学习和借鉴，希望通过这次交流， 在今后工作中将更加相互借鉴、相互沟通、共同提高，全面做好各项重点工作， 切实提升服务效能，为深化“放管服”改革作出积极贡献。 (杜娟)', '双方就行政审批局大厅运行管理、组织架构、人员进驻、职能划转、工程项目招投标监管等进行了现场交流与探讨。双方表示']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>75</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>灌南广饶县机关事务服务中心赴我县考察学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019-11-05</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://jgsw.lyg.gov.cn/lygsjgswglj/xqdt/content/2ddeb02d-31f6-4c86-b4da-7905cd0cd9e3.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['10月31日，广饶县机关车辆服务中心有限公司总经理徐亮一行6人来灌南县机关事务服务中心就公车管理方面工作经验进行考察学习。县机关事务服务中心副主任丁乃灿、刘晓慧陪同。', '考察团一行先后参观了县公务用车服务中心及公车平台运行情况，听取了相关情况介绍，详细了解我中心在公车管理、车辆驾驶员管理和经费管理等方面的情况。通过考察，广饶县考察团表示，灌南县机关事务事务服务中心整合资源、创思路、运营规范，从平台建设、岗位设置、车辆管理、审批流程、单车核算、监督考核等方面着手推进公务用车管理机制，措施新颖、效果明显，做法值得学习与借鉴。', '灌南县公务用车服务中心在县机关事务服务中心的指导下，高标准，严要求，共服务权限53个参改单位和临时机构。公车管理全面实行信息化，完全纳入“全省一张网”，用车申请、审批、派车、归队、结算都可通过系统平台快速完成，对全县党政机关公务用车全部纳入平台管理，喷涂标识、安装GPS、加装行车记录仪，实现管理更加精细化。对车辆加油、维修、保养实现定点，并单车核算，杜绝“跑冒滴漏”，将县、市内餐补发放改为里程补的形式更是激发了驾驶员的行车积极性与服务质量。全面调度车辆6000多次，行驶里程90万公里，车辆平均油耗从2016年度的12.67升下降至目前的10.25升。科学管理、规范运作的公车保障服务模式得到了上级领导的充分肯定和高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>75</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>市海发中心技术推广人员考察学习先进产业链</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019-08-30</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn/lygnyxxw/djgz/content/ffe933db-465f-4919-94f3-e367ee8d3bf2.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['依据《农业部关于大力实施乡村振兴战略加快推进农业转型升级的意见》的相关要求，为了提高渔业技术人员的推广水平，更好的指导并促进连云港市县（区）乡（镇）的渔业实体经济的转型升级，近日，连云港市海洋与渔业发展促进中心指派专业技术推广人员，赴江苏省华西都市农业发展有限公司，参观学习该公司由水产优良品种繁育', '江阴市水产技术指导站张呈祥站长热情接待了参观学习的远方来客，全程陪同并讲解渔业优良品种的家系选育过程、各个品种的特点及应用情况，规模化生态养殖的模式及相关技术，品牌的创建及现状，休闲渔业的特点、现状与发展未来，等等。', '个环节的实体运营，比如只从事池塘生态养殖工作，工作效益低，适应市场变化的能力差等；再比如，所谓的苗种培育，只简单的引进苗种进行中间培养，没有人繁过程，更无家系选育，等等，技术含量低。通过参观学习，海发中心的技术推广人员认为，有必要在连云港市县（区）乡（镇）的渔业实体经济中，推广、借鉴、应用华西都市农业发展有限公司的渔业转型升级版的产业链中的模式、技术，打造具有本地特色的渔业转型升级版的产业链。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>75</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市民宗局政法处开展考察学习活动</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2019-08-13</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn/lygmzzj/mzyw/content/2d1165e9-cb0d-4295-9130-e5e952d8fbf4.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['市民宗局政策法规处于2019年正式成立，为理清工作思路，突出主责主业，干好本职工作，经市民宗局党组研究决定，8月7日至9日，由市民宗局副局长郁正言带领政法处同志赴泰州、扬州等地考察学习。', '考察组一行分别与泰州市、扬州市民宗局举行座谈交流会，详细了解了兄弟市有关民族宗教政策法规宣传、行政执法、安全生产、政务服务、网络宗教事务管理、台账管理等方面的工作举措与成效。其中，建设“123+N”法律服务体系、搭建“互联网+监管”平台、坚持安全生产“四个必须”、组建民宗律师服务团、落实宗教改革网格化管理、实行基础台账编册管理等工作亮点突出，成果显著，具有很强的学习和借鉴意义。同时，在考察学习期间，双方分别就共同关心的民宗相关问题交换了意见并展开深入讨论，交流分享了民宗领域工作的好经验、好做法、好建议，真正实现了互学互鉴，互促共进。', '、开拓视野，有利于扩大交流、共享经验、增进友谊，有利于对标找差、取长补短、共同进步。在今后的工作中，政法处将认真总结本次考察学习经验，狠抓落实，借他山之石，悟攻玉之道，推动政策法规处工']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>75</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>溧阳市来我县考察学习非诉讼纠纷解决机制建设工作</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019-07-26</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/cf698c76-24bb-4c40-b904-8319c2d2c1d6.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['7月24日上午， 溧阳市副市长、公安局局长刘新农带领该市政府办、政法委、法院、司法局等部门负责同志组成的考察团来我县考察学习非诉讼纠纷解决机制建设工作。副县长王钢、县司法局相关负责人陪同。', '溧阳市副市长、公安局局长刘新农带领该市政府办、政法委、法院、司法局等部门负责同志组成的考察团来我县考察学习非诉讼纠纷解决机制建设工作。副县长王钢、县司法局相关负责人陪同', '今年以来， 县司法局按照省市工作部署，在法务协同机制建设基础上， 主动争取县领导支持和相关部门配合，整合人民调解、行政调解、律师调解、公证、行政裁决、行政复议、仲裁等多种资源， 先行先试，构建“1+2+n”非诉讼纠纷多元化解综合平台。 “1”是指依托县公共法律服务中心，建立“灌南县非诉讼服务中心”； “2”是重点在县法院和信访局分别设立“灌南县非诉讼服务分中心”；“n”是指依托镇公共法律服务中心建立11个镇非诉讼服务中心， 在8个行业调解委员会和行政调解、行政裁决、仲裁机构设立非诉讼纠纷化解联系点，形成了上下贯通、互联互通、协同畅通的非诉讼纠纷化解平台体系， 上半年诉前化解矛盾900件，参与访调对接100余起， 有力促进了全县社会和谐稳定。', '主动争取县领导支持和相关部门配合，整合人民调解、行政调解、律师调解、公证、行政裁决、行政复议、仲裁等多种资源', '“2”是重点在县法院和信访局分别设立“灌南县非诉讼服务分中心”；“n”是指依托镇公共法律服务中心建立11个镇非诉讼服务中心', '在8个行业调解委员会和行政调解、行政裁决、仲裁机构设立非诉讼纠纷化解联系点，形成了上下贯通、互联互通、协同畅通的非诉讼纠纷化解平台体系', '刘新农一行先后实地考察了县人民法院法务协同中心、新安司法所法律服务中心、县信访局调解中心， 详细了解非诉讼纠纷解决综合平台建设情况。通过实地考察， 考察团表示，灌南县按照省司法厅部署， 整合资源，创新思路， 多部门联动，在全省率先构建非诉讼纠纷多元化解综合体系， 从平台建设、岗位设置、流程衔接、配合运行等方面着手推进非诉讼纠纷化解机制建设，措施实在， 效果明显，做法值得学习与借鉴。 （刘青 李萌）', '刘新农一行先后实地考察了县人民法院法务协同中心、新安司法所法律服务中心、县信访局调解中心', '从平台建设、岗位设置、流程衔接、配合运行等方面着手推进非诉讼纠纷化解机制建设，措施实在']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>75</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>县司法局溧阳市赴我县考察学习非诉讼纠纷解决机制建设</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019-07-25</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/5991eb41-f6b7-4b66-b81f-a80ec7d748ee.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['7月24日上午， 溧阳市人民政府副市长、公安局局长刘新农带领该市政府办、政法委、法院、司法局等部门负责同志组成的考察团赴我县考察学习非诉讼纠纷解决机制建设工作。副县长、科技镇长团团长王钢、县司法局局长宋永武等陪同。', '溧阳市人民政府副市长、公安局局长刘新农带领该市政府办、政法委、法院、司法局等部门负责同志组成的考察团赴我县考察学习非诉讼纠纷解决机制建设工作。副县长、科技镇长团团长王钢、县司法局局长宋永武等陪同', '刘新农一行先后实地考察了县人民法院法务协同中心、新安司法所法律服务中心、县信访局调解中心， 详细了解非诉讼纠纷解决综合平台建设情况。通过实地考察， 溧阳市考察团表示，灌南县按照省司法厅部署， 整合资源，创新思路， 多部门联动，在全省率先构建非诉讼纠纷多元化解综合体系， 从平台建设、岗位设置、流程衔接、配合运行等方面着手推进非诉讼纠纷化解机制建设，措施实在， 效果明显，做法值得学习与借鉴。', '刘新农一行先后实地考察了县人民法院法务协同中心、新安司法所法律服务中心、县信访局调解中心', '从平台建设、岗位设置、流程衔接、配合运行等方面着手推进非诉讼纠纷化解机制建设，措施实在', '今年以来， 县司法局按照省市工作部署，在法务协同机制建设基础上， 主动争取县领导支持和相关部门配合，整合人民调解、行政调解、律师调解、公证、行政裁决、行政复议、仲裁等多种资源， 先行先试，构建“1+2+n”非诉讼纠纷多元化解综合平台。 “1”是指依托县公共法律服务中心，建立“灌南县非诉讼服务中心”； “2”是重点在县法院和信访局分别设立“灌南县非诉讼服务分中心”；“n”是指依托镇公共法律服务中心建立11个镇非诉讼服务中心， 在8个行业调解委员会和行政调解、行政裁决、仲裁机构设立非诉讼纠纷化解联系点，形成了上下贯通、互联互通、协同畅通的非诉讼纠纷化解平台体系， 上半年诉前化解矛盾900件，参与访调对接100余起， 有力促进了全县社会和谐稳定。（李萌）', '主动争取县领导支持和相关部门配合，整合人民调解、行政调解、律师调解、公证、行政裁决、行政复议、仲裁等多种资源', '“2”是重点在县法院和信访局分别设立“灌南县非诉讼服务分中心”；“n”是指依托镇公共法律服务中心建立11个镇非诉讼服务中心', '在8个行业调解委员会和行政调解、行政裁决、仲裁机构设立非诉讼纠纷化解联系点，形成了上下贯通、互联互通、协同畅通的非诉讼纠纷化解平台体系']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>75</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>市政府扶贫办组织扶贫系统干部赴河北魏县考察学习</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019-06-21</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn//lygnyxxw/fp/content/70631674-4767-4031-973a-dad12024dae7.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['6月17～19日，市政府扶贫办组织各县区扶贫办主任赴河北省魏县考察学习精准防贫机制建设，部分县区分管同志和市财政局、市纪委监委派驻第十四纪检组、市太平洋财产保险等相关领导受邀参加考察学习。魏县副县长赵金刚、扶贫办副主任武靖陪同考察。', '考察组一行先后深入河北绿珍食用菌有限公司、沙口集扶贫微工厂、密植梨扶贫产业园、魏县精准扶贫防贫服务中心等现场，认真听取了解魏县扶贫工作尤其是开办扶贫微工厂、探索精准防贫机制方面的经验介绍。', '座谈会上，考察人员先后与魏县扶贫办负责人、太平洋财险魏县支公司负责人进行深入交流，详细了解防贫机制建设和精准防贫保险的运行及成效情况。', '魏县立足乡镇服装加工、箱包制作等劳动密集型产业分布较广的基础优势，创设“扶贫微工厂”，发展劳动密集型和来料加工型产业，走出一条农户增收、村集体增益、企业增效及产业增强的产业化扶贫新路子；针对收入不稳的已脱贫户和不在建档立卡范围内的农村低收入户，瞄准因病、因学、因灾致贫返贫因素，由政府与太平洋保险公司合作创设“精准防贫保险”，借助保险公司专业化手段，对符合条件的防贫对象发放防贫保险金，率先走出一条精准防贫之路的创新做法，值得学习和借鉴。', '通过考察学习，参加人员进一步了解了魏县精准防贫工作机制运行情况，为我市开展精准扶贫、精准防贫工作提供了有益借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>县司法局扬州市赴我县考察学习非诉讼纠纷解决综合平台建设</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019-07-18</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/703a4afb-abb1-498c-aa6b-b6c6509e38bd.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['7月17日上午， 扬州市司法局组织该市仪征、高邮、广陵等部分市（区）法院、司法局分管领导、相关科室负责人，赴我县考察学习非诉讼纠纷解决综合平台建设相关做法。 市、县负责同志等陪同。', '扬州市司法局组织该市仪征、高邮、广陵等部分市（区）法院、司法局分管领导、相关科室负责人，赴我县考察学习非诉讼纠纷解决综合平台建设相关做法', '考察团一行先后实地考察了县人民法院、县信访局、新安司法所， 详细了解非诉讼纠纷解决综合平台建设情况。随后在县司法局召开了座谈会， 听取了县司法局长宋永武关于我县非诉讼纠纷解决综合平台建设情况介绍后，双方就如何做好非诉讼机制建设工作进行了交流探讨。 考察团表示，灌南县按照省厅部署， 整合资源，创新思路， 多部门联动，在全省率先构建非诉讼纠纷多元化解综合体系， 从平台建设、岗位设置、流程衔接、配合运行等方面着手推进非诉讼纠纷化解机制建设，措施非常实在， 效果非常明显，做法值得学习与借鉴。', '听取了县司法局长宋永武关于我县非诉讼纠纷解决综合平台建设情况介绍后，双方就如何做好非诉讼机制建设工作进行了交流探讨', '从平台建设、岗位设置、流程衔接、配合运行等方面着手推进非诉讼纠纷化解机制建设，措施非常实在', '今年以来， 县司法局按照省市工作部署，在法务协同机制建设基础上， 先行先试，主动争取县领导支持和相关部门配合， 整合人民调解、行政调解、律师调解、公证、行政裁决、行政复议、仲裁等多种资源，构建“1+2+n”非诉讼纠纷多元化解综合平台。 “1”是指依托县公共法律服务中心，建立“灌南县非诉讼服务中心”； “2”是重点在县法院和信访局分别设立“灌南县非诉讼服务分中心”；“n”是指依托镇公共法律服务中心建立11个镇非诉讼服务中心， 在8个行业调解委员会和行政调解、行政裁决、仲裁机构设立非诉讼纠纷化解联系点，形成了上下贯通、互联互通、协同畅通的非诉讼纠纷化解平台体系， 有力促进了全县社会和谐稳定。', '整合人民调解、行政调解、律师调解、公证、行政裁决、行政复议、仲裁等多种资源，构建“1+2+n”非诉讼纠纷多元化解综合平台', '“2”是重点在县法院和信访局分别设立“灌南县非诉讼服务分中心”；“n”是指依托镇公共法律服务中心建立11个镇非诉讼服务中心', '在8个行业调解委员会和行政调解、行政裁决、仲裁机构设立非诉讼纠纷化解联系点，形成了上下贯通、互联互通、协同畅通的非诉讼纠纷化解平台体系']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>郁正言副局长带队赴宿迁徐州考察学习</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019-06-21</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn/lygmzzj/mzyw/content/2493fce7-9164-4308-9948-0d8eb8410a9e.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['为拓展农村宗教事务管理思路，了解兄弟市农村宗教管理工作情况，近日，市民宗局郁正言副局长带领市委统战部非公经济与民族宗教处、市民宗局宗教处负责同志，以及各县区民宗局局长和功能板块宗教工作负责同志一行14人，赴宿迁市、徐州市考察学习农村宗教管理情况。', '考察学习小组利用两天的时间，除去行程安排，一共不到10个小时，高密度参观学习了9个场所（6个基督教场所、3个佛教场所）。6月12日，考察学习了宿迁市的农村宗教综合治理工作。宿迁市民宗局分管局长、洋河新区相关领导陪同考察学习了洋河新区新南园教堂、仓集中心堂等两个基督教活动场所。6月13日，考察学习了徐州市的农村宗教综合治理工作。徐州市民宗局分管局长、邳州市相关领导陪同考察学习了八集村基督教活动点，黄湾基督教活动点，邳州市基督教中心堂、艾山后村基督教活动点四个基督教场所和兴化寺、铁佛寺、严华寺三个佛教场所。', '他山之石可以攻玉，为了及时借鉴，学习经验，巩固学习成果，促进工作，考察学习组利用12日晚上的时间，在徐州市召开了考察学习讨论会。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>75</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>淄博市畜牧局一行赴我市考察学习生态健康养殖和现代渔业养殖工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2019-06-04</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn/lygnyxxw/csdt/content/e1be7fe4-c663-43bb-a4fd-eb72fd486bab.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['5月24日，淄博市畜牧渔业服务中心副主任孙学礼带队一行41人赴我市考察学习生态健康养殖和美丽牧场建设工作开展情况。', '考察团首先参观了连云港东旺奶牛养殖有限公司，由他们的技术员对场区建设和奶牛养殖、饲喂等情况作了详细的介绍。随后，考察团又到达了江苏省东辛农场水产养殖有限公司现代渔业科技园，讲解员带大家参观了渔业科技园并通过大屏幕进行介绍，他们的饲养、监管等情况都可以通过网站系统进行实时查看，从而第一时间确保安全饲养。', '通过这次学习交流，加强了我市与淄博市的友好往来，在考察过程中，双方互相介绍了各市畜牧业的发展情况，在今后的工作中有利于彼此间的交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>75</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>席世战副局长带队赴南通考察学习工业互联网工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://gxj.lyg.gov.cn/lygsjjhxxhwyh/jxdt/content/40652fdf-fe8d-4b54-8d80-945beffed994.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['系统入口 职称评审申报 连云港市中小 企业公共服务 平台 江苏政务服务网 权责清单', '5月20日，由市工信局席世战副局长带队，连云港高新技术开发区管委会副主任商显福、市工信局两化融合推进处处长李秀云、连云港高新技术开发区经安局局长骆丹、紫光云数（连云港）有限公司副总经理范彬彬一行5人赴南通考察学习工业互联网工作经验。', '发展工业互联网，是工业经济走向高质量发展的必由之路。推进工业互联网平台体系建设，不仅需要企业牵头，更需要政府助力。为使我市更好地打造工业互联网平台，全面推进工业互联网建设，席世战副局长一行5人首先对南通市工信局在推进工业互联网平台建设工作中的具体做法和出台的一些政策措施进行了学习，重点了解了南通市政府在推动工业互联网平台建设工作中所发挥的主要作用。', '之后席世战副局长一行5人考察了中天科技集团，中天科技集团是工信部首批“工业互联网平台集成创新应用试点示范”企业，在工业领域进行深耕和产业升级，同时在工业+互联网领域进行开拓和战略转型，极具模式新、覆盖广、应用深的特色。考察期间，席世战副局长一行就工业互联网平台的建设运营、工业互联网创新应用等方面与公司相关负责人员进行了座谈交流。调研组一行同时了解了中天科技集团工业互联网标识解析二级节点建设情况，为我市更好地开展工业互联网工作提供了可借鉴的路径经验。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>75</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>东海县社赴新沂考察学习</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019-04-17</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://gxs.lyg.gov.cn/lygsgxhzs/swdt/content/0382907b-e4c0-4ea1-8d32-5b52bacde219.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['考察组一行在双塘镇深入了解了新安供销社“农综社”改革试点情况，实地考察了徐州智能无人机生产基地、“地平线·新沂馆”、新沂“海外购”展示馆。在考察中双方就农资供应、测土配肥、粮食代储、农产品电商、土地托管、乡村物流、保险代理、便民消费、普惠金融做了深度的交流和探讨，双方人员表示今后应进一步加强沟通、紧密联系，互相学习，共同发展。', '考察结束后，葛溧强调，东海县社应当积极学习和借鉴供销系统先进的经验和做法，有针对性的开展工作，在改革中不断夯实基础，优化服务，更好的发挥供销社在推进和服务乡村振兴中的作用。（东海县社 供稿）']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>75</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>区商务局清华大学研修班来海州区考察学习</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/2c339e48-4c37-417f-a1ae-617e54c37339.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['清华大学研修班考察团首先来到了海州规划展馆进行了参观学习，通过史料图片以及多媒体演示、展板、5D影院等高科技数字化手段，学习了解海州区深厚的历史底蕴、山海文化和未来城市规划。', '参观结束后，考察团与海州区相关负责人召开了海州推介座谈会，对海州开发区和海州区的发展进行了深入的交流和探讨。座谈会上，详细介绍了海州开发区和海州区的区位优势、交通优势、招商资源信息和主要经济发展情况，让考察团对海州区有了更深更全面的认识。', '通过此次考察学习，不仅让清华大学研修班考察团人员看到海州开发区和海州区城市发展的契机，也看到了其内在的投资价值。同时，海州区希望今后与考察团人员能有更多深入的合作机会，助力海州区经济高质发展。（撰稿人：王维曦 审核人：龚雪）']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>75</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>甘肃省庆城县政协考察组来我县考察学习</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/eedf1820-1b00-496f-87d6-90951212ae64.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['5月18上午， 甘肃省庆城县政协副主席贺桂祥带领考察组一行来我县考察学习现代农业发展建设经验。县领导崔玉梅、王苏东陪同。', '甘肃省庆城县政协副主席贺桂祥带领考察组一行来我县考察学习现代农业发展建设经验。县领导崔玉梅、王苏东陪同', '近年来， 我县深入贯彻落实乡村振兴战略，紧紧围绕“大农业”、“大食物”、一二三产融合发展、精致农业、互联网+四大理念及“扩规模、增效益、求精美、创品牌”四项要求， 积极推进农业供给侧结构性改革，不断培育壮大食用菌、葡萄、稻田综合种养等特色产业发展， 现代农业取得了显著成效。', '我县深入贯彻落实乡村振兴战略，紧紧围绕“大农业”、“大食物”、一二三产融合发展、精致农业、互联网+四大理念及“扩规模、增效益、求精美、创品牌”四项要求', '积极推进农业供给侧结构性改革，不断培育壮大食用菌、葡萄、稻田综合种养等特色产业发展', '考察组一行先后来到李集镇新民村、万年达葡萄科技综合示范基地、盛丰家庭农场、青创园等地， 听取我县现代农业总体发展规划、发展模式等情况介绍，详细了解了我县农业政策优惠、特色产业发展、农业产量、农民收入、农产品竞争力和新型经营主体培育等方面情况。', '考察组一行先后来到李集镇新民村、万年达葡萄科技综合示范基地、盛丰家庭农场、青创园等地', '听取我县现代农业总体发展规划、发展模式等情况介绍，详细了解了我县农业政策优惠、特色产业发展、农业产量、农民收入、农产品竞争力和新型经营主体培育等方面情况', '考察组表示， 通过此次考察，真切感受到我县现代农业发展的生机与活力， 我县在发展现代农业方面的成功经验很有借鉴意义，希望以此次学习交流为契机， 进一步加深沟通交流，密切联系， 以振兴农业产业、增加农民收入为目的加快推进现代农业发展，为更好地服务地方经济社会发展做出新贡献。 （王月）', '以振兴农业产业、增加农民收入为目的加快推进现代农业发展，为更好地服务地方经济社会发展做出新贡献']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>75</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>石梁河赴骆运管理处考察学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-04-08</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/jcdt/content/c1ab2a90-ee2b-41e6-b78d-584bd302eb33.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['为进一步提升我处水利工程管理精细化，安全生产标准化等方面的管理能力，近日，石梁河水库管理处专业技术人员赴省骆运管理处考察学习。', '在骆运管理处皂河闸，我处专技人员详细了解了皂河闸概况，就规章制度、站容站貌、标识标牌、日常管理等精细化管理工作与皂河闸工作人员进行了交流和探讨。', '此次参观，不仅学习了精细化管理的先进理念与宝贵经验，更得到了启发。下一阶段，管理处将进一步完善精细化管理推进方案，不断提升全处工程管理能力和管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>75</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>灌云县民宗局赴贵州省三都县考察学习民族工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2018-11-09</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://mzzj.lyg.gov.cn//lygmzzj/xqdt/content/3ec9c9a8-e254-438c-8a39-e8fe8aa726b5.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['考察组一行参观了水族非遗项目体验中心、民族希望小学、水族文化博物馆、民族特色村寨等，认真听取了民族村精准扶贫、基础设施建设、民族特色文化、水族特色产业发展等方面的情况介绍，并就少数民族扶贫项目建设及特色产业发展等方面的经验做法进行了深入交流探讨。', '通过此次考察，大家相互交流工作经验，相互学习借鉴，取长补短，学以致用。进一步开阔了视野，开拓了思路，为促进民族团结进步、提升民族工作创新发展具有重要意义。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>75</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>连云港市老年体协乒乓球专委会组团赴灌云县考察学习</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018-11-28</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://sports.lyg.gov.cn/lygtyj/sshd1/content/6d115cd5-a02e-4ca3-8bf9-8d1ebb04bec4.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['2018年11月23日，连云港市老年体协乒乓球专委会组团赴灌云县考察学习。在灌云期间，他们听取了灌云县老年乒协活动的经验介绍，双方还举行了乒乓球友谊赛，切磋了球技，交流了感情，增进了友谊。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>75</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>营口市投资促进局来我市考察学习</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018-11-20</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://gxj.lyg.gov.cn/lygsjjhxxhwyh/jxdt/content/64e2e32b-ce52-4dd1-a99d-3d06d142f8af.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['系统入口 职称评审申报 连云港市中小 企业公共服务 平台 江苏政务服务网 权责清单', '日，营口市投资促进局温明泉副局长一行七人，来我市考察学习中小企业应急转贷资金、民营经济发展、化工产业等相关工作，市经信委冯燕芹副主任接待，中小企业发展合作处、原材料工业处、中小企业服务中心负责同志陪同参加交流座谈。', '座谈会上，冯燕芹副主任介绍了我市民营经济发展情况，重点介绍了我市中小企业应急转贷资金工作运行情况，包括我市中小企业应急转贷资金成立背景、运行成效及主要做法等。原材料工业处同志介绍我市化工行业发展情况。会上，两地就应急转贷、民营经济发展及化工产业等发展情况及存在的一些问题、经验进行了充分交流。温明泉副局长表示，我市在相关工作上有很多好的经验和做法值得借鉴学习，冯燕芹副主任强调两地以后要加强交流合作，共同推进两地工业经济持续、快速、健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>75</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>县教育局组织全县完小校长赴市区名校考察学习</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018-11-07</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/35f196ef-3026-49fa-b7cf-7a7ed0a3f253.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为进一步提升我县完小校长整体素质和管理水平，努力打造一支有理论、善管理、能开拓、作风好的完小校长队伍，近日，县教育局师资科协同县教师发展中心组织全县完小校长赴市区名校考察学习。', '活动当天上午，校长们考察了市苍梧小学的东西两个校区，全体成员参观了市苍梧路小学两个校区的校园文化，观看了西校区的升旗仪式，观摩了东校区的两节课，聆听了学校的办学特色情况介绍。苍梧小学的学、思、问、练的课堂教学风格以及西游特色文化等给全体校长留下了深刻的印象。', '市师专一附小教育集团熊福建校长作了题为《成长在“问学”路上》讲座，刘国文副校长围绕科研和教学改革等，作了《致力科研创新推进教学改革纵深发展》的专题报告。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>75</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>县政协考察学习港城一体化发展工作情况</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/f2050306-694d-476c-9d90-febfff10abf2.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['10月11日， 县政协主席杨以波带领驻灌市政协委员前往连云港市连云区考察学习经济社会发展一体化工作情况。县政协副主席崔玉梅、尚金柱、王苏东、尹文伟参加活动。', '县政协主席杨以波带领驻灌市政协委员前往连云港市连云区考察学习经济社会发展一体化工作情况。县政协副主席崔玉梅、尚金柱、王苏东、尹文伟参加活动', '连云区是连云港市“三个主城区之一”， 位于连云港对外开放的最东段，新亚欧大陆桥东端起点， 是连云港港口所在地、国家主枢纽港，连云区土地总面积836平方公里， 总人口约25万人。年旅游人数1200万人次。 连云区集港口、海滨、园区等优质资源，并处在“一带一路”交汇点上， 是“一带一路”东西双向开放的海上门户。', '杨以波一行先后考察了连云区宿城街道、连云区城市客厅展览馆以及连云新城区等地， 每到一处都详细听取了相关负责人对经济发展情况的介绍。', '考察过程中， 杨以波对连云区政协的精心接待安排表示感谢，对连云区近年来经济社会发展取得的巨大成就以及大力实施文化旅游产业， 走城市建设一体化路线的做法给予了高度评价。杨以波希望参加考察的驻灌市政协委员要认真学习连云区一体化发展中好的做法和成功经验， 同时希望两地加强交流与合作，共同推动两地经济社会快速协调发展。 （董经纬）', '杨以波对连云区政协的精心接待安排表示感谢，对连云区近年来经济社会发展取得的巨大成就以及大力实施文化旅游产业', '走城市建设一体化路线的做法给予了高度评价。杨以波希望参加考察的驻灌市政协委员要认真学习连云区一体化发展中好的做法和成功经验']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>75</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市殡仪馆到天津唐山等地考察学习先进建馆经验</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018-09-17</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://mzj.lyg.gov.cn/lygsmzj/gzdt/content/aafe296e-7da9-43d2-9e62-677851bffe62.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为积极协助上级部门做好殡仪馆的迁建工作，学习外地先进殡仪馆在设计、建设及服务方面的先进经验，9月13日上午，市殡仪馆班子成员一行3人前往天津市、唐山市殡仪馆进行考察学习。', '市殡仪馆现有服务设施设备陈旧落后，服务环境较差，管理和服务水平也受到限制，很多设施和设备已不适应丧葬形式的发展，严重制约了发展。2017年，市殡仪馆的搬迁工作被纳入到市政府工作报告，市民政局主要领导高度重视殡仪馆的搬迁工作，多次带领社会事务处、殡仪馆工作人员到本市各个地区考察选址，赴重庆、西安、厦门、南京、郑州、武汉、沈阳等地,考察学习殡仪馆选址、设计、建设等方面的先进经验。市殡仪馆积极配合上级部门做好殡仪馆迁建的前期各项准备工作，组织班子成员多次奔走我市各处考察选址，结合我市殡葬工作实际，多次向上级部门提供新馆的选址、建设等方面的有益建议及意见，并积极与多家设计公司联系新馆设计事宜，为殡仪馆的搬迁工作做了大量的准备工作。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>75</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>连云区卫计局局长谭燕带领基层卫生机构负责人到我中心考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.lda.gov.cn/lygjjjskfq/cyjd/content/kfqb1_65760.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为进一步促进基层医疗卫生服务能力的提升，连云区卫计局党组书记、局长谭燕带领基层卫生机构主要负责人到我中心考察学习有关国家基本公共卫生服务项目的工作情况。', '谭局长一行人在开发区社会事业局副局长刘丽杰的陪同下主要参观了我中心健康小屋、残疾人精准康复室、预防保健部，各基层卫生机构负责人相互讨论学习，交流心得，共同努力构建一个更加美好的基层卫生机构。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>75</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>通榆河赴扬州考察学习借鉴水利工程管理先进经验</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018-08-08</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/jcdt/content/3a1ea2f6-1e2d-40e6-aa3f-3e6a7de9127b.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['为推进我处工程管理标准化和精细化工作有序进行，学习先进工程管理经验，处领导朱丽向主任带领处技术骨干，于8月2-3日赴江都水利工程管理处和扬州市城市防洪工程管理处参观学习。', '学习组一行，先后参观了江都四站、万福闸、扬州闸和平山堂泵站，通过参观启闭机房和泵房，查阅城防处工程管理档案和听取工程管理国家级达标工作经验介绍，亲身体会工程管理精细化氛围和实际效果。', '参观人员纷纷表示此行启发很大，深受鼓舞，既解放了思想,又拓宽了思路，在看到差距的同时，也增强了加快提升发展的信心和动力，对我处接下来进一步提高工程管理水平具有重要指导意义。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>75</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>徐圩街道赴赣榆区考察学习农村集体产权制度改革先进经验</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2018-09-05</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.xwxq.gov.cn/xxxq/xwzx3/content/7e868a01-3607-4734-b01b-c9611c529655.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['为进一步做好农村集体产权制度改革及清产核资工作，提升农村集体“三资”管理水平，8月30日上午，徐圩街道党工委书记郭蔚琴同志带领街道农经部门及村两委成员赴赣榆区调研学习农村集体产权制度改革经验。', '徐圩街道一行参观了赣榆区农村产权交易服务中心、塔山镇“三资”代理管理服务中心和农村产权交易服务中心，并与赣榆区委农工办、塔山镇党委领导进行了座谈。会上我街听取了塔山镇关于农村集体产权管理的经验介绍，就组织制度、技术支撑等方面进行了系统学习，并探讨了工作中遇到的实际问题。', '此次赴赣榆考察学习，进一步拓宽了街道及村干部的视野，为我街农村集体产权制度改革工作的开展提供了极大的帮助。下一步，我街将规范农村基层治理的五项监管机制，抓好建立乡镇“三资”代理服务中心、搭建“农业农村综合信息平台”等相关工作，为乡村振兴战略实施提供有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>75</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>县行政审批局东海县政务办来我县行政审批局考察学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018-08-09</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/5dcb2011-abca-4e44-be49-ad3d058e1fa5.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['8月9日上午， 东海县政务办周运喜主任及审改办孙宁主任一行7人来我县考察学习“审批局组建经验以及具体工作中应注意的问题”，县行政审批局和县审改办主要领导陪同考察。', '东海县政务办周运喜主任及审改办孙宁主任一行7人来我县考察学习“审批局组建经验以及具体工作中应注意的问题”，县行政审批局和县审改办主要领导陪同考察', '考察团先参观了我县政务服务和审批服务大厅， 随后宾主双方在县行政审批局会议室举行座谈。会上， 双方互动问答，县审批局负责人详细讲述了本县审批局组建历程， 对科（室）设置、人员编制、审批事项及公共资源交易平台情况也做了详细介绍。双方还围绕政务“全链条”审批进展情况、现场勘验、信息数据建设、政务服务镇村延伸等问题进行了深入交流探讨。', '对科（室）设置、人员编制、审批事项及公共资源交易平台情况也做了详细介绍。双方还围绕政务“全链条”审批进展情况、现场勘验、信息数据建设、政务服务镇村延伸等问题进行了深入交流探讨', '考察结束后， 双方均表示今后将进一步加强沟通交流，齐力探索提升本市政务服务水平的新模式、新举措， 共同为企业和群众营造高质营商环境献智献策。（杜娟）']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>75</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>县人社局赴泰州考察学习城乡居保工作</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-08-09</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/439adb83-0e67-42d5-a62b-ad049a50a686.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['为进一步提高我县城乡居民养老保险服务水平， 规范经办服务模式，8月2日， 县人社局副局长王锦忠率城乡居保考察学习小组，到泰州市高港区人社局考察学习， 交流城乡居保制度建设中的成功经验，实地观摩镇、村社区平台建设方面的人力、财力投入， 终端服务智能化投入和系统信息公开共享等工作，城乡居保一站式服务模式。 双方共同探讨城乡居保的终端智能化服务和社保卡的应用以及城乡 居保工作中的不足。 希望今后加强联系，共同提高双方平台经办服务水平， 切实把城乡居民基本养老保险各项政策落到实处。（陈德新）']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>75</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>泰兴市房管局来我市资金监管中心考察学习商品房预售资金监管工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-09-12</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://jsj.lyg.gov.cn/lygszfj/zwxx/content/ffc38474-74c0-4b11-9a68-3e7a672a371b.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['9月12日上午，泰兴市房管局副局长钱建远一行8人来我局资金监管中心考察学习商品房预售资金监管工作。住房局副局长蒋应柏、资金监管中心主任汪蕾等人参加了交流学习会议。', '会议中，蒋应柏就我市商品房预售资金监管工作开展情况进行介绍。中心副主任和永寿通过PPT就我市商品房预售资金监管的监管机构、监管模式、监管系统，监管流程等方面展开了系统细致的讲解。并由信息中心技术科科长李明为考察人演示了监管系统。随后，与会人员就如何建立科学的监管账户管理模式，研发与商业银行相衔接的监管系统等问题展开了热烈的讨论。泰兴市房管局对我市商品房预售资金监管工作给予充分的肯定，认为此次考察不虚此行，并表示要积极学习我市先进经验，因地制宜，加快推进泰兴市预售资金监管业务的开展。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>75</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>灌南县赴泰州市姜堰区考察学习生态文明建设示范县示范乡镇创建工作</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2018-06-11</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/snhbdt/content/3648eb54-8286-4ffe-8bff-35879cc32e19.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['为了学习生态文明建设示范县、示范乡镇创建工作的先进经验和一些好的做法，有效推进灌南县生态文明建设示范创建工作的全面开展，6月7日，灌南县组织33名有关部门、乡镇领导干部赴首批国家级生态文明建设示范区泰州市姜堰区考察、学习。', '学习交流会上，首先观看了姜堰区示范创建工作专题片，姜堰区参与创建的相关部门分管领导、创建办材料组主要负责同志对各自在生态文明建设示范创建工作中承担项目的准备情况，好的方法及成功的生态创建管理模式都进行了一一介绍，并对一些重点、难点、关键点问题进行了指导。考察组现场还学习调阅了创建台帐资料，并就具体的基础条件、创建指标佐证材料收集整理问题进行了深入的探讨。与会人员纷纷表示此次学习受益良多，通过学习对各指标的材料准备思路更加清晰，为今后生态文明建设示范县、示范乡镇创建工作的高效开展提供了有力的保障。', '会上，灌南县政府办副主任吴晓军对姜堰区取得的优异成绩表示祝贺，对姜堰区的精心安排和讲解表示感谢，并强调参会部门今后要进一步加强沟通和交流，确保我县生态文明建设示范县、示范乡镇创建工作高效开展和快速提升。', '考察组一行实地察看了工业污水处理厂、绿色社区垃圾分类，村庄环境综合整治、医疗两废处置等现场点，详细了解了污水处理工艺、垃圾分类工作开展情况、医疗两废处置情况，并就各考核点如何准备进行详细交流。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>75</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>市民政局赴宿迁市考察学习村委会换届选举和扫黑除恶工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2018-06-15</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://mzj.lyg.gov.cn/lygsmzj/gzdt/content/e2a70d55-1f5a-4918-80bf-c432e5765424.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['为贯彻落实刘海涛书记在市民政局调研时提出的要求，近日，市民政局分管领导带领业务处室负责人和市扫黑办基础工作组人员共5人，赴宿迁考察学习村委会换届选举和扫黑除恶工作。', '由市委组织部门牵头、市民政部门具体抓落实，做到村委会换届与村党组织换届同部署、同要求、同推进。', '在村“两委”换届前开展“信访矛盾集中化解月”专项行动，围绕可能影响换届的宗族矛盾、干群矛盾等开展梳理排查，逐一化解。', '我市将吸收借鉴宿迁市的先进经验，改进我市村委会换届选举和扫黑除恶工作。一是全面调研摸底排查村级组织建设情况，及时指导基层研究解决对策，积极化解。二是进一步深化“一委三会”基层社会治理机制。三是建议在下一届村委会换届选举中参照宿迁市做法，由组织部门牵头，将村委会换届和村党组织换届同部署、同要求、同推进。四是进一步严把“入口关”。五是进一步落实退出机制，积极指导基层对照《村社干部行为对照负面清单》对村委会成员开展民主评议，对连续两次被评议不称职的村干部，依法终止其职务。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>75</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>县政务办徐州市沛县政务办来我县考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-06-16</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/552af0ad-1e1a-4c40-a050-47eb125f557d.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['6月15日上午， 徐州市沛县政务办袁勇一行7人来到我县考察学习“行政中心管理、公共资源交易平台整合、12345热线工作”等方面的先进经验。县行政审批局主要领导及相关科室负责人接待了考察团一行， 县招管办相关工作人员陪同。', '徐州市沛县政务办袁勇一行7人来到我县考察学习“行政中心管理、公共资源交易平台整合、12345热线工作”等方面的先进经验。县行政审批局主要领导及相关科室负责人接待了考察团一行', '考察团先后参观了我县政务服务及审批服务大厅， 随后宾主双方在会议室举行座谈。会上， 县审批局负责人详细介绍了科（室）设置、人员编制、审批事项及公共资源交易平台情况等。双方还围绕政务服务一张网进展情况、12345热线工作、政务服务镇村延伸等问题进行了交流探讨。', '县审批局负责人详细介绍了科（室）设置、人员编制、审批事项及公共资源交易平台情况等。双方还围绕政务服务一张网进展情况、12345热线工作、政务服务镇村延伸等问题进行了交流探讨']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>75</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>省经信委组织企业家赴青岛工业互联网发展标杆企业考察学习</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2018-08-08</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://gxj.lyg.gov.cn/lygsjjhxxhwyh/jxdt/content/4e772390-3110-4996-a423-47da5f631bae.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['系统入口 职称评审申报 连云港市中小 企业公共服务 平台 江苏政务服务网 权责清单', '为了贯彻落实《省政府关于深化“互联网+先进制造业”发展工业互联网的实施意见》，推动互联网、大数据、人工智能和制造业深度融合，推进我省工业互联网高质量发展，加快制造强省和网络强省建设，江苏省经信委联合中国信通院持续深入实施了工业互联网领军人才培训计划。7月4日-7日，省经信委企业信息化处组织全省各设区市经信委分管负责同志，省内工业互联网平台、制造业龙头企业主要负责人等共40人赴青岛工业互联网发展标杆企业，开展了考察交流学习。', '7月4日，考察团一行走进了海尔集团，参观了海尔文化馆和海尔企业大学，学习了解了海尔发展史、海尔企业文化；听取了海尔COSMOPlat平台运营总监田志争对于工业互联网平台运行理念、发展模式，以及海尔COSMOPlat大规模定制模式主题介绍，并进行了深度交流；考察团还实地参观了海尔空调胶州互联工厂，体验学习了工业互联网标杆工厂建设和运作成功案例。7月5日，考察团走进了青岛酷特智能股份有限公司，通过观看宣传片、参观工厂和定制体验中心，深入了解了青岛酷特智能如何彻底颠覆传统的商业基因、业务基因、管理基因、制造基因，由传统服装企业进化成为平台生态的时代企业。在交流互动环节，酷特智能负责人做了“酷特大规模个性化定制模式”的主题分享，考察团成员积极提问，踊跃发言，现场气氛热烈。7月6日，考察团来到了中车青岛四方机车车辆股份有限公司。工作人员详细讲解了制造基地的管理、运行、研发、实验、制造等流程和模块，参观了四方机车国家级研发中心，听取了中心建设模式、发展成果介绍，并观摩了11个试验台。', '本次活动旨在深度体验海尔、酷特智能以及青岛中车四方工业互联网转型的实践成果，在参观中学经验，在考察中找差距。每到一处，考察团一行都认真聆听、用心思考、踊跃交流。成员们纷纷表示，通过这次实践学习，开阔了眼界、看到了差距、明确了方向，也坚定了信心。下一步，将以此次实践学习为契机，认真借鉴工业互联网标杆企业理念、做法和思路，推动企业转型升级创新发展，积极抢占制造业发展制高点。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>75</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>县环保局我县赴泰州市姜堰区考察学习生态文明建设示范县示范乡镇创建工作</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2018-06-11</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/199074d6-3249-42e2-8495-48f344672c24.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['县环保局：我县赴泰州市姜堰区考察学习生态文明建设示范县、示范乡镇创建工作 - 灌南县人民政府', '为了学习生态文明建设示范县、示范乡镇创建工作的先进经验和一些好的做法， 有效推进我县生态文明建设示范创建工作的全面开展，6月7日， 我县组织33名有关部门、乡镇领导干部赴首批国家级生态文明建设示范区泰州市姜堰区考察、学习。', '我县组织33名有关部门、乡镇领导干部赴首批国家级生态文明建设示范区泰州市姜堰区考察、学习。', '学习交流会上， 首先观看了姜堰区示范创建工作专题片，姜堰区参与创建的相关部门分管领导、创建办材料组主要负责同志对各自在生态文明建设示范创建工作中承担项目的准备情况， 好的方法及成功的生态创建管理模式都进行了一一介绍，并对一些重点、难点、关键点问题进行了指导。 考察组现场还学习调阅了创建台帐资料，并就具体的基础条件、创建指标佐证材料收集整理问题进行了深入的探讨。 与会人员纷纷表示此次学习受益良多，通过学习对各指标的材料准备思路更加清晰， 为今后生态文明建设示范县、示范乡镇创建工作的高效开展提供了有力的保障。', '首先观看了姜堰区示范创建工作专题片，姜堰区参与创建的相关部门分管领导、创建办材料组主要负责同志对各自在生态文明建设示范创建工作中承担项目的准备情况', '好的方法及成功的生态创建管理模式都进行了一一介绍，并对一些重点、难点、关键点问题进行了指导', '考察组现场还学习调阅了创建台帐资料，并就具体的基础条件、创建指标佐证材料收集整理问题进行了深入的探讨', '会上， 县政府办副主任吴晓军对姜堰区取得的优异成绩表示祝贺，对姜堰区的精心安排和讲解表示感谢， 并强调参会部门今后要进一步加强沟通和交流，确保我县生态文明建设示范县、示范乡镇创建工作高效开展和快速提升。', '县政府办副主任吴晓军对姜堰区取得的优异成绩表示祝贺，对姜堰区的精心安排和讲解表示感谢', '并强调参会部门今后要进一步加强沟通和交流，确保我县生态文明建设示范县、示范乡镇创建工作高效开展和快速提升', '考察组一行实地察看了工业污水处理厂、绿色社区垃圾分类，村庄环境综合整治、医疗两废处置等现场点，详细了解了污水处理工艺、垃圾分类工作开展情况、医疗两废处置情况，并就各考核点如何准备进行详细交流。（封甜甜）']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>75</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市局餐饮监管处赴江阴张家港考察学习学校食堂管理工作</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-04-24</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://scjgj.lyg.gov.cn//sscjdglj/scjgyw/content/5f342635-c8e4-40bd-a433-35108a5b0855.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['日，市局餐饮监管处为响应市委市政府＂高质发展、后发先至＂动员部署，贯彻落实市局党组书记、局长周炜提出的“餐饮业提档升级”项目要求，市局党组成员、副调研员张祝宝同志带领市县区餐饮监管骨干及部分学校食堂食品安全管理负责人等一行', '管理等先进模式运行情况。现场观摩结束后，两地餐饮监管骨干进行了座谈交流，张家港局详细介绍了在全省率先推行', '管理的历程，以及推行过程中遇到的问题及解决路径。翟永祥处长简要介绍我市餐饮业监管发展及学校食堂监管情况与此行考察学习的见闻感受。市局党组成员、副调研员张祝宝同志在讲话中表示，此行受益匪浅，江阴、张家港局的经验分享为我市学校食堂推行', '先进管理提供了有益参考与启发，各位学员要认真学习消化吸收，把兄弟单位好的经验做法“带回去”，紧密结合年初部署，强化责任、突出重点，以饱满的热情、高度的责任感，积极推进学校食堂']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>75</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>东海县科协组织外出参观考察学习取经</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-04-13</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/9257fdeb-5ef5-4941-abb6-04d4249386d3.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['为加强与兄弟单位的交流沟通，学习外地先进经验、借鉴好的做法，推动东海科协工作提档升级，力促各项工作在全省科协系统中争先进位。4月10日，东海县科协领导班子及相关部门负责人一行9人专程赴徐州市丰县和新沂市两家科协考察学习。', '10日上午，学习考察团一行来到徐州市丰县，首先参观了全国科普示范社区——东大社区，详细听取了社区负责同志关于科普组织、科普活动等工作介绍，察看了社区e站、科普大屏、科普宣传栏，科普图书室、科普学校等科普设施；随后又参观了徐州市科普教育基地——瑶盛文化园，学习了陶瓷器皿的历史及制作的72道工序。下午来到新沂市科协，宋主席带领考察团一行饶有兴趣地参观了新沂科技馆，将科普展品建在风景区、在室外、在水上，给考察团一行很大的启发，为东海科技馆下一步发展提供了新的思路。', '此次外出参观学习取经，大家纷纷表示受益匪浅，开拓了视野，拓展了思维，为我县科协下一步工作高质发展、思维创新、改进工作，推动各项工作落实和水平提升具有十分重要的意义。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>75</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>嘉祥县领导来我县考察学习城乡供水一体化</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/4903910f-5f9b-4519-ab88-5e95dbfad034.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['3月27日上午， 山东济宁嘉祥县人大常委会主任李守华带队来我县考察学习城乡供水一体化工作。县领导夏苏明、徐能如、张友明陪同考察。', '山东济宁嘉祥县人大常委会主任李守华带队来我县考察学习城乡供水一体化工作。县领导夏苏明、徐能如、张友明陪同考察', '我县于2013年开始启动建设城乡统筹区域供水工程， 至2016年6月底已先后完成日产10万吨的硕项湖自来水厂、日产6万吨的田楼自来水厂建设任务，在全省率先完成城乡统筹区域供水。 2016年12月底前实现城乡统筹区域供水全覆盖，全面完成214座水厂的整合回购工作， 真正实现了城乡供水“同源、同质、同网、同服务”。', '至2016年6月底已先后完成日产10万吨的硕项湖自来水厂、日产6万吨的田楼自来水厂建设任务，在全省率先完成城乡统筹区域供水', '2016年12月底前实现城乡统筹区域供水全覆盖，全面完成214座水厂的整合回购工作', '李守华一行先后到硕项湖自来水厂、李集乡三级管网改造现场、李集乡合兴村小水厂、李集乡自来水分公司等地实地考察， 并听取了相关工作汇报。座谈会上， 李守华在听取我县城乡供水一体化工程进展情况汇报之后，详细询问了施工过程中存在的问题。 他对我县城乡供水一体化工作给予了高度评价，表示将学习借鉴我县管理经验和有益做法， 努力推动嘉祥县供水工作又好又快发展。（刘青）', '李守华一行先后到硕项湖自来水厂、李集乡三级管网改造现场、李集乡合兴村小水厂、李集乡自来水分公司等地实地考察', '李守华在听取我县城乡供水一体化工程进展情况汇报之后，详细询问了施工过程中存在的问题']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>75</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>县人大调研组赴两灌考察学习</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-04-11</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/dhxw/content/678b606d-4390-43fc-8c79-6db030ffd3cd.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['4月9日，县人大常委会主任陈启发率全县21个乡镇（场、街道）人大主席赴灌云县和灌南县，就乡镇人大代表之家（联络站）建设运营情况进行调研。县人大常委会副主任张继生、鲁东参加调研。 在灌云县，调研组先后来到伊芦乡人大代表工作站、伊甸园人大代表工作站、人大常委会委员工作室和伊山镇人大代表之家进行实地调研。每到一处，调研组成员都认真听、仔细看、用心记，积极学习人大代表之家建设运营经验和创新做法。在灌南县，调研组走进镇郊社区人大代表联络站和新安镇人大代表之家，亲身感受该县人大代表之家的纽带、服务作用，并现场学习相关工作经验。在随后召开的座谈会上，调研组听取了该县乡镇人大代表之家建设运营的经验介绍。 陈启发指出，在“高质量发展、后发先至”的大氛围下，各乡镇人大要加强学习，在与灌云灌南的对标找差中进一步明晰工作思路，切实抓好代表之家硬件建设和乡镇人大工作“谋实”与细节提升。要迅速落实学习经验，高标准推进代表之家、联络站、接待岗建设工作。尤其是接待岗建设工作要统一标准、突出实效，做到村村建、村村有、村村发挥作用。要高质量运营代表之家，发挥好阵地作用，切实提升基层人大的监督实效。要重抓先进典型、品牌打造，加强自身建设，加大创新力度，不断扩大基层人大工作的影响力，推动东海人大工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>75</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>县红十字会赴南京工业大学应急救护培训基地考察学习</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-03-27</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/fd69fae6-3c80-43b9-a84e-8f8d3f4ca0ca.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['3月26日上午， 县红十字会常务副会长张雨禾一行来到南京工业大学红十字会应急救护培训基地考察学习，该基地同时也是江苏省红十字会应急救护培训基地、南京市红十字会应急救护培训基地。', '县红十字会常务副会长张雨禾一行来到南京工业大学红十字会应急救护培训基地考察学习，该基地同时也是江苏省红十字会应急救护培训基地、南京市红十字会应急救护培训基地', '本次考察学习受到了南京工业大学红十字会领导和志愿者的热情接待， 南京工业大学的老师带领张会长一行参观了红十字文化建设、创伤救护培训室、红十字工作区等一系列完善的设施，同时也耐心为张会长讲解了南京工业大学的应急救护地基筹建和运作流程。', '南京工业大学的老师带领张会长一行参观了红十字文化建设、创伤救护培训室、红十字工作区等一系列完善的设施，同时也耐心为张会长讲解了南京工业大学的应急救护地基筹建和运作流程', '作为红十字事业的一份子， 大家都是本着“人道、博爱、奉献”的红十字精神为人民服务，为他们提供后勤的保障； 只有在学习中相互促进，在促进中均衡发展， 才能更好的为社会奉献红十字力量。（杨晓唐）']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>75</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>市民政局赴浙江进行民政行政执法考察学习</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-04-10</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://mzj.lyg.gov.cn/lygsmzj/gzdt/content/5ecc5475-698f-4d53-bfac-1c5229008a7d.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区经验，更好地推进我市民政行政执法工作，3月上旬，副局长叶劲松率政策法规处并市人大相关领导对浙江省衢州、杭州两市民政行政执法工作进行了学习考察。', '浙江两市的民政行政执法工作主要有三个方面的成效：一是配备了专门的综合执法机构，全省6个设区市成立了民政综合执法机构，18个县（市、区）成立了民政综合执法机构。二是建立了民政综合执法机制。浙江省量化执法裁量基准，以设区市为单位，实现了社会组织、殡葬管理、社会养老裁量基准的一体化，坚持系统内综合执法与系统外衔接执法相结合，加强实施联合执法。三是探索了民政综合执法方式方法，形成由点向面扩展式，由柔向刚、刚柔相济式执法特点，衢州市民政局组织编写了《民政行政执法案卷》。', '下一步，我局行政执法工作将从三个方面加以推进：一是增强对行政执法重要性的认识，加强法治培训、执法监管，提高全系统依法行政水平；二是尽快成立市民政行政执法支队，统一行使市民政局权力清单中行政处罚权与强制权；三是高起点谋划，积极构建民政执法规范化建设体系，将法治民政各项工作全部纳入规范化体系予以推进，为民政法治工作积累经验。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>75</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>海州区法制办赴吴江区常熟市考察学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2018-02-09</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://sfj.lyg.gov.cn/lygssfxzw/fzgc/content/127f810d-f129-416d-a563-ef3289e2f029.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['考察过程中，郭区长一行与两地法制机构进行了深入沟通和交流，吴江区、常熟市在行政重大决策程序，行政复议、应诉规范化建设，行政执法全过程记录，行政执法人员培训及法律顾问工作等方面均有许多先进经验值得学习参考。', '通过考察学习，进一步开拓了思路，对海州区法治政府建设工作具有较好的借鉴和指导。下一步，海州区将结合实际，进一步加大工作推进力度，完善工作机制，有效吸纳“苏州经验”，力争在法治政府建设上再有新的突破。', '通过考察学习，进一步开拓了思路，对海州区法治政府建设工作具有较好的借鉴和指导。下一步，海州区将结合实际，进一步加大工作推进力度，完善工作机制，有效吸纳']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>75</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>县海渔局盱眙仪征客人来我县考察学习动物疫控社会化服务工作</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2018-03-22</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/1f33253a-da77-45c7-80fd-e83042b3fd10.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['3月21日， 盱眙县农委副主任杨兆荣一行10人、仪征市畜牧兽医站站长曹志全一行7人，来我县考察学习重大动物疫病防控社会化服务工作。 来访人员参观了李集动物防疫检疫所和灌南军亚动物防疫服务有限公司。副局长朱军陪同考察， 同时就我县社会化服务防疫物资储备、档案归类、人员配备等相关制度落实情况及2018年动物疫控工作开展情况进行了介绍，并就相关问题进行了交流。', '盱眙县农委副主任杨兆荣一行10人、仪征市畜牧兽医站站长曹志全一行7人，来我县考察学习重大动物疫病防控社会化服务工作', '来访人员参观了李集动物防疫检疫所和灌南军亚动物防疫服务有限公司。副局长朱军陪同考察', '同时就我县社会化服务防疫物资储备、档案归类、人员配备等相关制度落实情况及2018年动物疫控工作开展情况进行了介绍，并就相关问题进行了交流', '为提升我县重大动物疫病防控水平， 保障全县畜牧业健康、稳定发展，根据《江苏省2017年动物疫病防控支持政策调整试点工作暂行方案》精神， 2017年初，我县作为连云港市动物疫病防控支持政策试点县， 率先探索政府“花钱购买劳务”的新路径，逐步完善动物免疫社会化服务体系， 取得了良好的经济和社会效益。（朴聪雁 孙爱玲）', '保障全县畜牧业健康、稳定发展，根据《江苏省2017年动物疫病防控支持政策调整试点工作暂行方案》精神']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>75</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>灌南红会来到墟沟街道考察学习</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2018-01-11</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/0abe0e6e-e652-4df6-90d7-9743880c2912.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['1月10日上午， 灌南县红十字会与新安镇及镇东社区领导一行来到连云区墟沟街道滨海社区考察学习。', '本次考察学习受到了连云区红十字会和墟沟街道的热情接待， 墟沟街道滨海社区董书记耐心向灌南红会的工作人员介绍了健康工艺坊、爱心储蓄超市、智慧养老驿站、志愿者服务中心等一系列完善的社区设施，同时也耐心讲解了滨海社区的养老照护的运作流程。', '墟沟街道滨海社区董书记耐心向灌南红会的工作人员介绍了健康工艺坊、爱心储蓄超市、智慧养老驿站、志愿者服务中心等一系列完善的社区设施，同时也耐心讲解了滨海社区的养老照护的运作流程', '作为红十字事业的一份子， 大家都是本着“人道、博爱、奉献”的红十字精神做百姓坚强的后盾，只有在学习中相互促进， 在促进中均衡发展，才能更好的为社会奉献红十字力量。 （杨晓唐）', '大家都是本着“人道、博爱、奉献”的红十字精神做百姓坚强的后盾，只有在学习中相互促进']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>75</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>山东莒南县商务局来我县考察学习外派劳务工作经验</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2018-01-26</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/9615afc0-5709-4ee5-b07f-029b94d65d44.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['1月26日，山东省莒南县商务局一行来东海县考察学习外派劳务工作先进经验。考察团在听取外派劳务服务中心工作做法后，又先后考察了江苏省外派劳务考试中心连云港考点和部分外派劳务企业。', '东海县外派劳务服务中心成立于2009年2月，是经江苏省商务厅批准，由东海县政府主办的具有事业法人资格的江苏省首家外派劳务服务平台。经过多年探索实践与创新发展，形成了具有东海特色的集中对接、集中报名、集中培训的外派劳务管理新模式，外派劳务工作一直处在全市领头羊地位。每年向68个国家和地区，输送外派劳务人员10000余名，占全市外派劳务市场的85%以上份额。先后被中国对外承包工程商会评定为“全国对外劳务行业外派劳务基地”、省商务厅评定为“江苏省外派劳务公共服务平台”。获得连云港市“青年文明号”、“创先争优活动优质服务品牌”等荣誉称号。其成功经验做法曾多次被央视新闻频道、经济频道、国际频道及国际商报、连云港日报、东海日报等媒体广泛报道，在国内外外派劳务市场具有一定影响力。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>75</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>区司法局仪征市司法局莅临海州区考察学习</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2017-12-15</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/b68334bd-03de-410b-8b35-6be9ceb08018.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['考察学习组一行先后参观了海州区公共法律服务中心、新海街道星化社区、新海司法所、茗馨花园法律援助广场和朐阳门法治文化广场等法治文化阵地，详细听取了海州区司法局在公共法律服务体系建设、法治宣传工作等方面的经验介绍，海州区副区长郭玉家、区司法局局长刘亚军陪同参观。', '考察组一行纷纷表示，通过这次考察学习，进一步解放了思想、开阔了视野、提升了境界、鼓足了干劲，在今后工作中将充分借鉴海州区司法局好的经验做法，结合仪征市司法局实际，创新发展理念，加强公共法律服务体系建设，打造具有地域特色的司法行政工作。（王岑）']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>75</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>灌云县商务局来东海县考察学习农贸市场建设工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2017-12-15</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/69d09dc0-14f8-45f0-8de1-5cc55b22c71c.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['考察一行先后参观了东海净菜市场和海陵农贸市场，认真查看了市场的整体布局、消防设施、卫生保洁、食品安全检测等情况。在农贸市场，考察团成员在菜摊、肉摊、水产区、熟食区、检测室等地停留，认真听取关于升级改造情况的介绍。考察团高度评价我县农贸市场升级改造工作成果，认为东海县的先进经验值得灌云县借鉴和学习。同时，希望双方能加强交流与合作，共同促进经济社会发展，共同促进农贸市场工作取得新进展，真正实现便民利民惠民。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>75</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>赣榆区社赴沭阳县社考察学习</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2017-11-23</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://gxs.lyg.gov.cn/lygsgxhzs/swdt/content/9e3d1301-09e8-44b1-aa60-9f707fdb8f86.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['近日，赣榆区社一行九人赴沭阳县社考察学习省定经济薄弱村综合服务社提档升级和电子商务运行等方面的做法和经验。', '赣榆区社一行先后实地考察了赵庄村综合服务社、苏台(沭阳）花木产业示范园、沭阳县新河供销社合作社、沭阳县鸿丰水产电子商务服务站等地，并详细听取了相关负责人的情况介绍。', '在听取相关经验介绍后，赣榆区社相关负责人表示，沭阳县供销社为农服务工作先进做法值得学习和借鉴，在以后的工作中两社要继续加强交流学习，赣榆区社将借鉴沭阳县社的先进做法，从实际出发，真抓实干，全面深入推进供销合作社综合改革。（赣榆区社']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>75</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>海州区关工委赴靖江考察学习校外辅导站建设工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2017-11-21</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/e6b514bf-7e92-4b50-8e9e-35cab375ef5b.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['近日，海州区关工委周恒泰主任带领区关工委和区少年宫有关负责领导一行9人赴泰州靖江市考察学习校外教育辅导站建设工作。', '周恒泰一行在靖江市关工委常务副主任朱沛元、副主任夏珀、副秘书长宋山海等领导的陪同下先行来到', '靖江市城南办事处中心小学，听取该校关工委主任校外教育辅导站建设情况汇报，现场观看该校课外教育辅导站获得江苏省第九届“校园之间”智力活动总决赛冠军和葫芦丝演奏等成果展示。在靖江市城南办事处初级中学，周恒泰一行饶有兴趣的观看了初级中学校外教育辅导站学生的健美操和课本剧的表演后，在该校会议室与靖江市西来镇关工委、城南新区中学关工委、孤山中学关工委、城南办事处和澄靖园区办事处关工委等领导就校外教育辅导站建设进行了深入的交流，', '周恒泰主任用 “激动、感动、触动” 三个关键词概括了此次靖江之行。他说，通过连云港市关工委领导的推荐和协调，我们海州区关工委一行来到靖江市学习校外辅导站的先进经验，我们感到无比的激动。靖江市校外教育辅导站建设不但有着很好的基础，而且很有特色，是全省先进，是我们学习的榜样；第二是感动，我们海州区关工委一行到达靖江时已时过下午1点，靖江市关工委年近八十高龄的朱主任一行却仍坚持在宾馆长时间等着我们，我们感到非常的感动，借此机会，我仅代表海州区关工委对泰州、靖江市两级关工委给我们的热情接待和提供的学习机会表示衷心的感谢，同时也盛情邀请泰州靖江市关工委领导便捷时能亲临连云港市指导海州区关工委校外辅导站建设工作；第三是触动，这次靖江之行，对我们触动非常之大。靖江市关工委思想解放，在校外教育辅导站建设方面不断探索新思路、新方法，从孩子自身实际情况、实际需求出发，突破“校园篱笆”，充分利用现有学校设施、师资，开办校外辅导站，并在活动内容、活动形式、活动时间等方面都进行了富有成效的探索。取得了很好的效果，学生满意，家长满意，社会满意，值得我们学习借鉴。', '回去以后，我们将积极认真地消化此次靖江学习所得，借鉴靖江市关工委先进的办站理念，不断开拓我们办站的工作思路，加速提升我们海州区校外教育辅导站建设工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>75</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>区物价局组织商户赴泰州实地考察学习价格诚信街区创建经验</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-11-06</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/cf1db366-ca94-4cc7-bb0b-f9481c94e188.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['近日，海州物价分局联合陇海步行街管委会组织商户代表赴泰州学习调研价格诚信街区创建工作先进经验。', '调研组一行先是参观了凤城河风景区老街价格诚信街区建设情况，实地查看了老街价格诚信宣传、软硬件设施建设、商户明码标价等情况。随后，调研组观看了街区创建工作汇报短片并召开座谈会，学习了泰州市物价局在街区整治、诚信氛围营造、无理由退换制度等方面的先进经验，并就组织诚信品牌创建、价格监管、街区组织网络建立等方面问题进行了交流。', '此次实地考察和交流，对全面推动价格诚信街区创建工作起到很好的促进作用，调研组表示将进一步完善价格诚信街区创建工作方法，做好价格诚信街区申报工作，加强日常监督检查，以迎接省物价局考核验收。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>75</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>县领导赴泗阳泗洪两县考察学习扶贫项目</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2017-09-18</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/9f4a9a07-dbc8-46d3-9470-d840b2506555.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['9月13-14日， 县委副书记、省委驻灌南帮扶工作队队长蔡踊泓带领部分帮扶工作队员，赴泗阳、泗洪两县考察学习扶贫项目、交流帮扶工作。', '县委副书记、省委驻灌南帮扶工作队队长蔡踊泓带领部分帮扶工作队员，赴泗阳、泗洪两县考察学习扶贫项目、交流帮扶工作', '在泗阳县和泗洪县， 蔡踊泓一行实地考察了城厢街道陶圩村农贸市场、卢集镇薛嘴特色田园乡村建设、高渡镇高渡村千亩采摘园、双沟镇周冲村土地股份合作社、峰山乡碧根果基地和泗洪国顺服装有限公司等多个考察点。每到一处， 考察组人员都认真参观、仔细询问，听取了相关负责人关于村情村况、帮扶规划、帮扶项目等方面的介绍， 详细了解所到之地扶贫开发的宝贵经验和做法，并与两县帮扶工作队就入驻以来组织建设、队伍管理、项目筛选、调度推进等方面的具体做法及下一步的工作思路和打算进行了深入的交流。', '蔡踊泓一行实地考察了城厢街道陶圩村农贸市场、卢集镇薛嘴特色田园乡村建设、高渡镇高渡村千亩采摘园、双沟镇周冲村土地股份合作社、峰山乡碧根果基地和泗洪国顺服装有限公司等多个考察点。每到一处', '考察组人员都认真参观、仔细询问，听取了相关负责人关于村情村况、帮扶规划、帮扶项目等方面的介绍', '详细了解所到之地扶贫开发的宝贵经验和做法，并与两县帮扶工作队就入驻以来组织建设、队伍管理、项目筛选、调度推进等方面的具体做法及下一步的工作思路和打算进行了深入的交流', '考察中， 蔡踊泓认为两县充分发挥自身优势，因地制宜， 强化村庄规划建设和产业扶贫，有效改善了农村居住环境， 带动了农户增收，精准扶贫工作取得了明显成效， 许多帮扶措施值得借鉴和学习。他要求工作队员回去以后要将学习到的先进经验和特色做法运用到自身工作中， 结合各村实际，因地制宜， 以改革的思路创造性地落实精准帮扶的各项举措，为更高标准、更大力度做好此轮帮扶工作做出贡献， 确保圆满完成各项目标任务。（董经纬）', '许多帮扶措施值得借鉴和学习。他要求工作队员回去以后要将学习到的先进经验和特色做法运用到自身工作中', '以改革的思路创造性地落实精准帮扶的各项举措，为更高标准、更大力度做好此轮帮扶工作做出贡献']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>75</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>赣榆区政务办来我中心考察学习</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2017-08-30</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/3aa70e9b-c0c9-4216-bc4e-21f2b006612a.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['8月29日下午， 赣榆区政务办副主任冯还清一行4人来我县政务服务中心考察学习，实地察看了中心办事大厅进驻窗口布局和硬件设施配备情况。', '赣榆区政务办副主任冯还清一行4人来我县政务服务中心考察学习，实地察看了中心办事大厅进驻窗口布局和硬件设施配备情况', '实地察看后， 冯还清一行与中心人员就相关工作进行了深入的探讨和交流，对中心在大厅日常管理方面提出来的“亲切服务”品牌、“双随机一公开”督查制度、双城同创“我承诺我践行”承诺书及星级管理等做法表示赞赏。 认为中心功能分布合理、制度建设规范、管理考核高效，将把此次考察成果带回去， 认真学习借鉴，完善赣榆区政务服务中心日常管理办法， 推动赣榆区政务服务工作再上新台阶。（肖耀华）', '冯还清一行与中心人员就相关工作进行了深入的探讨和交流，对中心在大厅日常管理方面提出来的“亲切服务”品牌、“双随机一公开”督查制度、双城同创“我承诺我践行”承诺书及星级管理等做法表示赞赏']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>75</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市农委赴内蒙古自治区通辽市考察学习牛羊集中屠宰管理工作经验</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2017-09-14</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn/lygnyxxw/zyxw/content/122e679f-c43c-4218-ab39-1385f5e19c3a.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['9月5日-9月8日，市农委组织连云港出入境检验检疫局、东海县林牧业局等屠宰管理人员赴内蒙古通辽市考察学习牛羊集中屠宰管理工作经验，通辽市农牧业局畜禽屠宰监督管理科有关工作人员陪同。', '牛羊肉是重要的民生食品。近年来，随着肉类生产结构的调整和居民生活水平的提高，牛羊肉的产量和消费量逐年增长。但是目前我国仅对生猪实行“定点屠宰，集中检疫”，牛羊屠宰尚未纳入定点屠宰管理范畴，私屠滥宰现象普遍存在，牛羊产品质量安全问题日益突出，规范生牛羊屠宰管理已经成为与百姓生活息息相关的民生大事。依法加强对牛羊屠宰活动的管理，既是贯彻落实省农委《关于进一步加强畜禽屠宰行业管理的意见》和《连云港市畜禽屠宰行业发展规划（2017-2020年）》文件精神，履行行业监管的职责所在，也是保障肉品质量安全、保护广大消费者权益和健康的必然要求；既是实现集中屠宰检疫检验、加强疫病防控的重要措施，又是满足各民族消费需求、促进民族团结和社会稳定的一项基础工作。', '据了解，内蒙古自治区屠宰行业的特点是以牛羊为主，牛羊占屠宰总量的70%，牛羊屠宰企业占全区屠宰企业总量的65%。早在商务部门管理时期，内蒙古自治区就已经对牛羊屠宰实行定点管理，要求企业设立屠宰厂（场）的必须依法取得《畜禽定点屠宰证》，在牛羊集中屠宰管理方面有完善的屠宰监管法规基础和丰富的管理经验。一是出台了《内蒙古自治区牛羊屠宰管理办法》，使内蒙古自治区的牛羊屠宰管理步入法治化轨道。该《办法》明确规定，内蒙古自治区对牛羊实行定点屠宰、集中检疫制度；首次以立法形式要求牛羊定点屠宰厂（场）建立牛羊产品召回制度；是全国首个以政府规章的形式要求牛羊屠宰厂（场）对牛羊产品自检，官方抽检的省份，改革了检疫检验制度，理顺了牛羊屠宰厂（场）和监管机构的责任关系，进一步落实了屠宰企业质量主体责任。二是构建了牛羊屠宰监管法规基础体系。为了更好落实《办法》相关规定，制定出台了配套的《内蒙古自治区牛羊屠宰巡监、抽检操作规范（试行）》《内蒙古自治区牛羊定点屠宰厂（场）检疫检验人员管理办法（试行）》《内蒙古自治区屠宰环节牛羊病害损失和无害化处理费用补贴试点方案》《内蒙古自治区屠宰环节牛羊包虫病病无害化处理经费补贴标准》《内蒙古自治区屠宰行业技术培训方案》《内蒙古自治区畜禽肉品品质检验证章标志管理办法（试行）》等规范性文件，使企业自检，官方兽医巡监、抽检的工作制度、屠宰厂检疫检验人员管理和病害牛羊无害化处理有了具体可操作性的规定。', '考察结束后，双方表示要以本次考察交流为契机，加强两地往来，进一步推进两地交流合作，共同提高畜禽屠宰监管水平。(委畜禽屠宰管理处供稿)']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>75</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市农委王靖主任赴浦东新区考察学习</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2017-09-08</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn/lygnyxxw/zscd/content/f2e6bdd3-4e5a-43bf-bec2-b934d48ff719.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['为学习好经验、好做法，加强对接交流，深化合作发展，推动我市农业对外开放合作试验区建设，9月7日，市农委主任王靖、副主任孟凡恕赴上海浦东新区考察学习，该区农委副主任吴忠陪同调研。', '王靖一行先后来到孙桥现代农业园区、区农发中心、保尔花卉基地和祥欣种猪场，现场观摩了浦东新区近年来在农业国际合作、农产品质量检测、农业信息化、种源农业方面发展的新成果，详细了解了浦东新区开放型农业建设情况。', '座谈会上，该区农委吴忠就浦东国家现代农业示范区建设、地理信息系统建设、种质资源发展、科技创新和国际合作等做了介绍，双方还就承接自贸区溢出效应进行探讨。（市农业外经中心供稿）']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>75</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>日照市机关事务管理局来连考察学习</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-08-14</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://jgsw.lyg.gov.cn/lygsjgswglj/szyw/content/52ca6cd9-e5a5-45c4-9264-6e8f3884b2b2.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['8月11日，日照市机关事务管理局党组书记、局长仕志东一行7人来连进行考察学习。我局党组成员、副局长朱玉环和陈万海、职能处室负责人陪同。', '日照市机关事务管理局此次来连主要考察学习办公用房和公务用车管理等方面的经验和做法。座谈会上，我局相关分管领导就办公用房和公车管理作了详细的介绍，双方就机关事务管理工作方面的经验作了深入的交流和探讨。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>75</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>海州湾街道西墅村赴南通考察学习紫菜养殖技术</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2017-08-04</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.lianyun.gov.cn/lyq/xjjj/content/55EB1A4119466C11E05013AC64C74698.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['（通讯员：张炼、孙晨曦）近日，海州湾街道西墅村党委组织村集体经济负责人、村民营经济带头人和部分创业代表赴江苏省海洋水产研究所考察学习紫菜养殖技术。 此次考察交流对西墅村今后的紫菜养殖发展具有良好的指导意义，大家表示要转变传统养殖思路，合理栽培，保护和发展好紫菜产业，有效推动村民增收致富。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>75</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>淮安市代表团来我县考察学习</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2017-07-21</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/dhxw/content/F538129941F54896A3AAA88D10E86ABF.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['7月19日，淮安市委副秘书长吴苏率考察团来我县，考察学习现代农业、特色田园乡村建设等方面的先进经验和特色做法。县委副书记董桂军陪同。', '考察团一行先后来到西双湖风景区、中国东海水晶城、胜泉村和帕蒂亚葡萄庄园进行实地考察，对我县生态旅游、水晶产业和现代农业的发展给予了高度评价。考察团认为东海资源丰富，生态环境优美，水晶产业发展迅速，特别是在现代农业发展方面的经验和做法值得学习借鉴，希望今后两地进一步加强交流学习，共同推动两地工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>75</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>我县赴东海泗阳两地考察学习生态县生态乡镇创建工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/c9143630-60da-4fc6-9260-fcee020333bb.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['为了学习生态县、生态乡镇创建工作的先进经验和一些好的做法， 有效推进我县生态创建工作的全面开展，践行“热爱灌南奉献家乡”主题行动， 6月22日，我县组织近40名机关乡镇领导干部赴国家级生态县东海县和泗阳县考察、学习。', '6月22日，我县组织近40名机关乡镇领导干部赴国家级生态县东海县和泗阳县考察、学习', '考察组一行实地察看了两地的乡镇污水处理厂和垃圾中转站， 详细了解了污水处理工艺、污水处理厂运行管理模式、垃圾收运体系、防雨淋、防渗漏措施及渗滤液收集处理方式等现场考核要点，然后分别就如何更好地开展生态县、生态乡镇创建工作进行了学习交流。', '详细了解了污水处理工艺、污水处理厂运行管理模式、垃圾收运体系、防雨淋、防渗漏措施及渗滤液收集处理方式等现场考核要点，然后分别就如何更好地开展生态县、生态乡镇创建工作进行了学习交流', '学习会上， 东海县和泗阳县参与创建的分管领导、资料组及现场组主要负责同志对各自在生态县创建工作中的好经验、创新做法及成功的生态创建管理模式都进行了一一介绍，并对一些重点、难点、关键点问题进行了指导。 考察组现场还学习调阅了两地生态县创建台帐资料，并就具体的基础条件、创建指标佐证材料收集整理问题进行了深入的探讨。 与会人员纷纷表示此次学习受益良多，通过学习思路变得更加清晰， 为今后生态县、生态乡镇创建工作的高效开展提供了有力的保障。', '东海县和泗阳县参与创建的分管领导、资料组及现场组主要负责同志对各自在生态县创建工作中的好经验、创新做法及成功的生态创建管理模式都进行了一一介绍，并对一些重点、难点、关键点问题进行了指导', '考察组现场还学习调阅了两地生态县创建台帐资料，并就具体的基础条件、创建指标佐证材料收集整理问题进行了深入的探讨', '会上， 县环保局局长相海龙对东海县和泗阳县取得的优异成绩表示祝贺，他指出， 两县的生态县、生态乡镇创建经验非常值得我们学习，我们非常感谢两地的精心安排和讲解， 并强调参会部门今后要进一步加强沟通和交流，确保我县生态县、生态乡镇创建工作高效开展和快速提升。 （封甜甜 戴青）', '并强调参会部门今后要进一步加强沟通和交流，确保我县生态县、生态乡镇创建工作高效开展和快速提升']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>75</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>淮安市机关事务管理局领导来连考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2017-06-13</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://jgsw.lyg.gov.cn/lygsjgswglj/szyw/content/82f865ec-446f-4369-8e56-b462a230e2fd.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['6月13日，淮安市机关事务管理局局长刘天培，带领相关工作人员一行5人来连进行考察学习。我局党组书记、局长赵建军和相关分管领导、职能处室负责人、局属单位负责人陪同。', '淮安管理局此次来连主要考察易地交流干部的住房保障以及生活服务工作等内容。座谈会上，我局就相关内容作了详细的介绍，双方就机关事务管理工作方面的经验做了深入的交流和探讨。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>75</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>市民政局组织人员赴常州市考察学习申请救助家庭经济状况核对工作</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2017-06-08</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://mzj.lyg.gov.cn/lygsmzj/gzdt/content/869cb343-5437-4b68-9a8e-7d282ea43b7b.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['上午，市民政局副局长钟玲带队，专程赴常州市申请救助家庭经济状况核对中心考察学习该市核对系统建设和核对业务工作经验做法。', '座谈会上，常州市申请救助家庭经济状况核对中心主任张一骏详细介绍了该市居民家庭经济状况核对工作的相关情况。常州市核对中心通过信息化手段，与公安、人社、住房、银行、证券等', '家部门和机构实现了网络互联，信息共享，核查各类申请助家庭真实财产、收入情况，解决了救助家庭收入核算难、救助对象认定难的瓶颈问题，从根本上杜绝了“错保”、“骗保”、“人情保”等现象的发生，有效避免了因救助对象认定不准确造成的财政资金流失，为公平公正实施各项社会救助制度发挥了积极作用。该市还创新性地引入司法解矫及刑释人员信息及供电部门的用电缴费信息，更全面地为社会救助审批部门提供了可行性、可操作性的量化数据，提高了认定救助对象的准确性。', '钟玲副局长表示，常州的核对工作走在了全省前列，通过高位协调、主动沟通、趁势而为推进核对系统建设以及推行核对工作标准化的做法值得我市学习借鉴。', '常州市民政局副局长潘奕、社会救助处处长周伟、社会救助处助理调研员郑跃声，连云港市民政局社会救助处和市申请救助家庭经济状况核对中心负责人参加了座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>75</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>县委副书记太仓灌南高新技术产业园党工委书记徐志豪带队赴宿迁等地考察学习</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/17760d90-bc02-4f2a-8a6c-263b8448a7b5.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['县委副书记、太仓灌南高新技术产业园党工委书记徐志豪带队赴宿迁等地考察学习 - 灌南县人民政府', '为借鉴学习共建园区建设先进经验， 推动园区建设发展，5月3日至4日， 县委副书记、太仓灌南高新技术产业园党委书记徐志豪带领园区班子成员、办公室、招商部门人员赴全省南北共建园区考核排名第一方阵的宿迁、淮安等地共建园区考察学习。', '县委副书记、太仓灌南高新技术产业园党委书记徐志豪带领园区班子成员、办公室、招商部门人员赴全省南北共建园区考核排名第一方阵的宿迁、淮安等地共建园区考察学习。', '园区考察人员一行通过座谈交流、实地参观， 详细了解了宿迁、淮安等地共建园区在规划化管理、规划建设、招商引资等方面的经验做法，并就共建园区发展难题、南北共建模式、合作共赢机制、招商引资政策、产业转移承接等方面情况与宿迁、淮安等地共建园区进行了深入交流。', '详细了解了宿迁、淮安等地共建园区在规划化管理、规划建设、招商引资等方面的经验做法，并就共建园区发展难题、南北共建模式、合作共赢机制、招商引资政策、产业转移承接等方面情况与宿迁、淮安等地共建园区进行了深入交流', '期间， 县委副书记、太仓灌南高新技术产业园党工委书记徐志豪带队考察了张家港经济技术开发区宿豫工业园、江宁经济技术开发区淮阴工业园；太仓灌南高新技术产业园管委会主任孙文彪带队考察了常熟高新区泗洪工业园、吴江经济技术开发区泗阳工业园。', '县委副书记、太仓灌南高新技术产业园党工委书记徐志豪带队考察了张家港经济技术开发区宿豫工业园、江宁经济技术开发区淮阴工业园；太仓灌南高新技术产业园管委会主任孙文彪带队考察了常熟高新区泗洪工业园、吴江经济技术开发区泗阳工业园']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>75</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>赣榆区水利局组织外出考察学习两改及信息化系统工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://slj.lyg.gov.cn/lygsslj/jcdt/content/12ec912d-0cb3-47db-903f-ba97c8183ef1.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['近日，赣榆区水利局组织农水科和相关水利站负责人赴宿豫区、铜山区、邳州市、灌南县等地，考察高效节水灌溉建设情况，学习水价改革、小型农田水利改革的先进经验，为我区推进两改进程、加快信息化发展、探索高效节水运行管理模式提供重要借鉴。', '考察学习人员在宿豫区参观了省水价改革试点区来龙灌区，听取了水价改革以及信息化系统介绍。在铜山区考察学习了河道管护成果，并就小水改工作进行了座谈，对小水改过程中的问题和做法进行了细致探讨。在邳州市、灌南县，实地学习了管灌放水口、电磁流量计设置、预制放水闸门以及水泵安装方式等建设经验。', '通过外出考察学习，既增长了见识又拓宽了思路，为我区在高效节水灌溉建设，水价改革和小型农田水利改革等工作提供了宝贵的经验。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>75</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>连云港市商务局组织对徐州市肉菜追溯体系建设考察学习</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://boc.lyg.gov.cn/sswj/gzdt/content/36e26aae-df27-4e37-91cb-eb7bf68e97d2.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['根据全省市场秩序工作会议精神，为加快推进我市肉菜追溯体系建设，3月16日，商务局市场秩序处牵头组织相关企业一行5人赴我省肉菜追溯体系建设比较完备的徐州市商务局进行了考察学习。期间，首先听取了徐州市肉菜追溯体系建设的经验介绍，查阅了相关资料信息，参观了信息中心现场演示，并实地考察了批发市场、农贸市场追溯体系运转情况。通过系列的考察学习，为下一步我市肉菜追溯体系建设积累了宝贵经验并明确了建设框架和推进方向。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>75</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>句容市监察局等单位来我中心考察学习</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://12345.lyg.gov.cn/lygszcg/zxdt/content/8F4E82EE96EB4F718C7149BA9675EC07.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['日上午，句容市监察局、城管局、市委督查室、市政府督查室、编办、行政服务中心等单位一行', '人来我中心考察学习，中心领导孙桂伟、相关处室负责人与其进行了座谈交流。座谈会上，孙桂伟副主任向来宾介绍了我市']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>75</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>樊继刚总畜牧师带队赴烟台等地考察学习动物疫病防控支持政策调整试点工作经验</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2017-03-23</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://nync.lyg.gov.cn/lygnyxxw/zscd/content/a133d2c6-06f0-46e5-bc60-509dae8a1293.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['连云港市农业农村局-樊继刚总畜牧师带队赴烟台等地考察学习动物疫病防控支持政策调整试点工作经验', '3月16日，我委总畜牧师樊继刚带领委有关处室负责人和东海、灌云、灌南、赣榆等四县区动物疫病预防控制中心主要负责人赴山东烟台等地考察学习动物疫病防控支持政策调整试点工作经验。烟台市畜牧兽医局副局长张刚陪同考察学习。', '动物防疫支持政策调整试点工作，是着眼于新形势下加强动物防疫能力建设，优化财政支持结构和资源配置，进一步提高动物防疫质量和财政资金使用效率的关键一招，是我国兽医事业发展进程中一场深刻的制度性变革。近年来，国家相继出台了一系列动物防疫支持政策，以相对较低的经济成本取得了较好的防控成效。面对动物防疫的新形势新任务，烟台等地按照农业部、财政部的决策部署，成为国家首批组织开展试点地区，并于2016年在广泛调研和总结试点经验基础上，及时调整完善动物防疫支持政策，积极探索推进兽医领域供给侧结构性改革。', '试点期间，烟台等地市、县(市、区)高度重视，加强组织领导，切实抓好落实。一是从2015年起启动强制免疫机制试点。积极开展“先打后补”试点示范，积累经验，逐步推开，对暂不符合条件的养殖场户，继续实施省级疫苗招标采购。探索以政府购买服务的形式，引导社会力量参与强制免疫工作。二是规范疫苗生产、采购和使用全过程监管。坚持依法依规、公开透明、改革创新和综合监管，严把疫苗生产、招标采购、疫苗配送和使用管理等关键环节，切实做好全程监管。三是做好政策调整后相关病种的防控指导。对口蹄疫、高致病性禽流感，试点地按照单病种防治计划要求，落实免疫等防控措施;对猪瘟，实施全面免疫，依据国家防治指导意见，做好各项防控工作;对高致病性猪蓝耳病，根据流行状况和监测评估结果，制定和实施免疫方案;对布病、包虫病，依据相关计划规划，推动其监测净化。四是强化作风建设，筑牢廉政防线。试点地区全面梳理廉政风险点，进一步完善制度措施，规范运行管理，健全监督检查，有效构筑风险防范长效机制。', '烟台等地兽医主管部门领导对“先打后补”、猪瘟和高致病性猪蓝耳病强制免疫退出、政府购买服务等试点工作开展情况逐一向樊总一行进行了详实的介绍，在交流动物防疫支持政策调整试点成效的同时，就樊总一行提出的试点企业资质如何确定、动物饲养(存栏)量如何核定等一些关注的问题进行了解释和答复，还对在试点工作中遇到的问题提出了建设性指导意见，特别是对“先打后补”企业的监测，建议由企业在当地县级动物疫病预防控制机构实验室或有资质的监督实验室二者中选择，而不是一味强调由第三方承担，这不仅可以发挥现行监测体系的作用，还会有效地为企业减轻额外负担。', '学习考察期间，樊总一行实地参观了山东春雪食品有限公司、烟台福祖畜牧养殖有限公司、莱阳市动物无害化处理中心专业处理厂等现代化畜牧龙头企业，详细询问了企业生产模式、产业链条等，了解了无害化处理厂PPP模式。连烟双方表示，通过这次考察学习，两地要加强往来，进一步推进两地合作交流，共同提高动物疫病防控水平。', '烟台及其所属县(市区)兽医主管部门有关科、站、所负责人，莱阳等地兽医主管部门的主要领导陪同考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>75</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>常熟市司法局到我县司法局考察学习</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2017-03-20</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/950A0FFF9FBE4D7EBDBD00A0B6B4850D.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['常熟市司法局陈局长一行17人到我县考察学习司法所规范化建设和人民调解工作。陈局长一行听取了我县关于司法所规范化建设和人民调解工作汇报', '在随后召开的座谈会上， 双方就司法所规范化建设以及人民调解工作中取得的宝贵经验、优秀做法及工作难点进行深入交流。通过此次考察学习， 陈局长一行表示受益匪浅，县司法局也从兄弟单位的亮点工作中得到很大启发， 将进一步促进我县司法所规范化建设和人民调解工作的开展。 （顾海钰）', '双方就司法所规范化建设以及人民调解工作中取得的宝贵经验、优秀做法及工作难点进行深入交流。通过此次考察学习']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>75</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>赣榆县管理局赴淮安考察学习</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2017-01-24</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://jgsw.lyg.gov.cn/lygsjgswglj/xqdt/content/b8065cb7-9eb1-430f-8ae3-af278d4aef68.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['《机关事务管理条例》出台后，赋予地方机关事务管理局更多职能。为强力推进公共机构节能等工作，近日，赣榆县机关事务管理局张雷远局长组织中层以上干部一行10人，前往淮安市市级机关事务管理局，考察学习机关绩效考评和公共机构节能等工作。', '赣榆县机关事务管理局近年来创新工作方式方法，在绩效考评和节能管理等方面进行思考探索，取得了一定的成绩。淮安市市级机关事务管理局在绩效考评方面已有三年经验，相关制度、办法、内容健全，考评结果发挥了充分的激励作用；公共机构节能工作也走在全省前列，早在《机关事务管理条例》出台前淮安就办理了节能检查监督执法证，对全市公共机构节能工作履行执法检查职能。', '围绕淮安局绩效考评、公共机构节能工作的制度、措施、方法，赣榆局进行了深入学习研讨，深受启发，下一步将结合赣榆县实际，学习淮安局经验，深化《机关事务管理条例》的贯彻落实，推动绩效考评、公共机构节能等工作再上新台阶。另外还对淮安行政中心安保、机关运转后勤保障、资产管理等方面进行了学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>75</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>赣榆县机关事务管理局赴邳州考察学习国家级节约型公共机构示范单位创建工作</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2017-01-24</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://jgsw.lyg.gov.cn/lygsjgswglj/xqdt/content/70ef1ad3-a676-4928-948a-fe8d083cf05e.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['连云港市机关事务管理局 县区动态 赣榆县机关事务管理局赴邳州考察学习国家级节约型公共机构示范单位创建工作', '近日，赣榆县机关事务管理局张雷远局长一行，前往邳州市机关事务管理局，考察学习国家级节约型公共机构示范单位创建及相关工作。', '赣榆县机关事务管理局近年来狠抓节能管理工作，创新了行政中心水、电、办公用品、公务用车节能等管理模式，出台了公务用车“定点维修、定点加油、定点保险”等一系列节能管理制度。水、电、汽油、办公用品等能源大幅节约。据悉该局已通过省级节约型公共机构示范单位初验，现正积极创建国家级节约型公共机构示范单位。', '邳州市机关事务管理局在公共机构节能管理工作方面走在全省前列，此次张雷远局长一行专程前往考察学习，将学得的节能管理等先进经验带回加以吸收借鉴和创新。双方还就《机关事务管理条例》的贯彻落实、餐饮管理、会务服务、资产管理、安全保卫等机关事务管理工作进行了探讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>75</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>徐州市机关事务管理局来我局考察学习</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2017-01-23</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://jgsw.lyg.gov.cn/lygsjgswglj/szyw/content/a4df69c4-29ba-49aa-8a75-7c4d15e84be9.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['11月13日，徐州市机关事务管理局局长徐思群一行6人来我局学习交流机关事务后勤服务管理工作。我局分管机关物业领导及相关处室工作人员陪同。', '座谈会上，局长张传亚对我局情况做了大致介绍，分管领导孙铜介绍了机关物业管理中心的主要职能、机构概况，并就连云港市行政中心中央空调改造工作做了详细的说明。双方针对后勤服务保障改革方向、面临问题、主要举措等内容，两地机关事务管理局进行了深入的探讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>75</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>长春市委副书记杨子明考察学习我县食用菌产业发展经验</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2016-10-21</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/D778B2F231E643B5ADB4FF6BFD13CD6A.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['近年来， 我县先后出台《关于鼓励扶持高效农业发展的政策措施》等一系列惠农政策，着力培养以食用菌为代表的高效农业。 全县科学规划布局，全面提高技术支撑， 专门成立灌南县食用菌产业发展局、灌南县菜菌产业协会和灌南县食用菌协会来服务食用菌产业发展。目前， “灌南金针菇”成为国家地理标志产品，主要生产杏鲍菇的香如公司刚刚在新三板上市， 裕灌公司正在争取主板上市，灌南食用菌产业发展特色鲜明， 被评为“全国食用菌产业化发展示范县”。目前， 全县食用菌企业已经有50多家，全部采用工厂化栽培技术， 产业集聚度全国领先，2015年全县食用菌总产量45万吨， 总产值达40亿元。', '我县先后出台《关于鼓励扶持高效农业发展的政策措施》等一系列惠农政策，着力培养以食用菌为代表的高效农业', '专门成立灌南县食用菌产业发展局、灌南县菜菌产业协会和灌南县食用菌协会来服务食用菌产业发展。目前', '杨子明一行先后参观了灌南县菌菇展览馆、可为食用菌、香如食用菌和裕灌食用菌， 详细了解灌南食用菌产业发展在短时间内从无到有的思路和办法。杨子明表示， 灌南食用菌产业的发展成效显著，成绩令人振奋， 经过考察，感觉灌南食用菌产业之所以能够发展到国内有影响的地步， 主要在于县委县政府找准产业发展方向，选准了产业发展的项目， 精准出台支持产业发展的政策。万闻华说， 长春市既是工业大市也是农业大市，希望今后长春市和连云港市能够加强交流合作， 分享现代农业发展方面的经验，更好地把两地的农业向高效、精致方向进一步发展。 （许士勇 图/文）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>75</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>枣庄市政府来连考察学习环保工作</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2016-09-22</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/snhbdt/content/a614ff74-bbe1-4aa5-9d7a-2f1b597f8984.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['月21日，枣庄市委常委、常务副市长石爱作一行来我市考察学习环保工作。副市长徐家保、市政协副主席方韬参加座谈交流。', '交流会上，我市介绍了在环境管理、执法监管、信访查处等方面的做法。枣庄市考察团也为我市在环保工作方面提供了很多值得参考的经验和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>75</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>无锡市农机局组团赴我县考察学习粮食生产全程机械化建设情况</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2016-12-16</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/1BF5955240D74797A715A0C37F827480.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['12月14-15日， 无锡市农机局吴伯荣局长、顾建新副局长等一行16人来我县考察学习粮食生产全程机械化建设情况。市县相关领导陪同考察。', '无锡市农机局吴伯荣局长、顾建新副局长等一行16人来我县考察学习粮食生产全程机械化建设情况。市县相关领导陪同考察', '无锡市考察团在市农机局吴孟军局长、我县周文生副县长、县农机局王士富局长陪同下， 先后察看了我县加祥、绿塘、新民、柴米河等农机服务专业合作社以及粮食烘干中心；参观后无锡市农机局一行与市农机局、县农机局陪同领导进行了相互交流。', '先后察看了我县加祥、绿塘、新民、柴米河等农机服务专业合作社以及粮食烘干中心；参观后无锡市农机局一行与市农机局、县农机局陪同领导进行了相互交流', '无锡市一行对我县粮食生产全程机械化建设过程中采取的一些创新举措给予充分肯定， 吴伯荣局长说，此次参观学习， 真正学到了不少真“金”。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>75</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>我局赴重庆市考察学习生态文明建设</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2015-05-28</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/stbh/content/d3c09b67-af9b-4ecf-96e1-d807b56a290a.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['近日，韦怀余局长一行赴重庆市考察学习生态文明建设，座谈学习重庆市生态文明建设工作，现场参观生态文明建设案例。 通过考察学习重庆市五大功能区域发展战略、区域定位和产业“禁投清单”等情况；《关于加快推进生态文明建设的意见》制定和实施情况；2015年重庆市生态文明大会筹备和召开情况；.生态文明建设目标考核体系及差异化绩效考核情况；排污权有偿使用和交易实施方案、资源与环境交易所筹建情况；全国首支环保产业股权投资基金建管情况；能源、土地和水资源集约使用等源头保护制度情况，给我市生态文明创建工作提供了很多宝贵的经验。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>75</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>李振峰率团赴盐城东台市考察学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2014-08-18</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/AADD222EB37B4E638F82A615C4F3DB60.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['县委副书记、县长李振峰率领县住建、教育、卫生等16个部门主要负责人赴盐城东台市考察经济社会发展情况。县领导钱光杰参加考察活动', '东台位于盐城市南部， 市域总面积3221平方公里，人口113万。 近年来，该市依托资源优势和产业基础， 加快发展新材料、新能源、机械装备、电子信息等特色产业，新型工业化进程得到全面提速； 城乡建设坚持开发与保护并重，因地制宜打造特色镇村， 率先在苏北实现城乡联网供水、住房保障、公交客运“三个全覆盖”，镇村面貌日新月异， 城乡统筹成效显著，实现了经济社会又好又快发展， 2013年位列全国县域经济百强县第48位。李振峰一行先后参观了东台市生辉光电科技有限公司、磊达钢帘线有限公司两家企业， 以及城市规划展示馆、文博馆、临塔村、西溪植物园、古城、海春塔苑等城乡建设项目。通过学习考察， 东台市新一轮发展的强劲势头，干事创业的拼搏精神， 给代表团成员留下了深刻印象。', '2013年位列全国县域经济百强县第48位。李振峰一行先后参观了东台市生辉光电科技有限公司、磊达钢帘线有限公司两家企业', '以及城市规划展示馆、文博馆、临塔村、西溪植物园、古城、海春塔苑等城乡建设项目。通过学习考察', '在考察交流过程中， 东台市详细介绍了在发展工业经济、推进城乡统筹和城市规划建设等方面工作中的理念与做法，李振峰代表考察团对东台市的热情接待和周密安排表示感谢， 并表示通过短暂的考察学习，充分感受到东台市近年来经济社会发展的巨大变化， 特别是机械、电子等特色产业技术水平高、体量大；城乡统筹独具地方特色， 彰显历史文化底蕴；城市建设高起点规划、大手笔推进， 总体感觉非常震撼、深受启发。李振峰要求， 这次考察学习之后，各有关部门要切实增强责任感和使命意识， 认真消化吸收学习成果，积极借鉴成功经验做法， 在推进灌南产业发展、城市建设、城乡统筹等各个方面，以更加超前的理念、更加科学完善的发展思路， 创新实践、奋力拼搏，为经济社会发展注入新的生机和活力。 （赵占成）', '东台市详细介绍了在发展工业经济、推进城乡统筹和城市规划建设等方面工作中的理念与做法，李振峰代表考察团对东台市的热情接待和周密安排表示感谢', '在推进灌南产业发展、城市建设、城乡统筹等各个方面，以更加超前的理念、更加科学完善的发展思路']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>75</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>涟水县来我县考察学习农民资金互助合作社管理工作</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2014-06-18</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/gnyw/content/0DEAB67B7607471795AC8B57AFF269E3.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['涟水县县长吕春雷一行来我县考察学习农民资金互助合作社管理工作。县领导阮冰、李振峰、成善全参加座谈会', '座谈中， 县委书记阮冰详细介绍了我县加强农民资金互助合作社规范管理实施情况。阮冰说， 为实现农民资金互助合作社规范管理，从2012年11月开始， 我县根据农民资金互助合作社章程和相关法律、法规，强化工作措施， 在充分调研的基础上制定了《灌南县农民资金互助专业合作社监督管理实施细则》和《进一步加强农民资金互助专业合作社监督管理的意见》，从控制资金占用费率、控制资金规模、控制大额、控制入社会员等方面入手， 对全县农民资金互助合作社实行有效监管。同时， 我县为了加强日常监管，县互助办负责对全县资金互助社实行监督管理， 乡镇政府对辖区内资金互助社实行属地监管，在全县建立了运行周报制度、月度会审制度、季度例会制度、现场检查制度； 加强财务管理，向各农民资金互助社派出委派会计， 严禁账外账、做假账；运用信息网络平台， 保证实时掌握全县资金互助合作社运行情况，确保农民资金互助合作社在阳光下运行。', '在充分调研的基础上制定了《灌南县农民资金互助专业合作社监督管理实施细则》和《进一步加强农民资金互助专业合作社监督管理的意见》，从控制资金占用费率、控制资金规模、控制大额、控制入社会员等方面入手', '乡镇政府对辖区内资金互助社实行属地监管，在全县建立了运行周报制度、月度会审制度、季度例会制度、现场检查制度', '吕春雷表示， 涟水县将借鉴灌南县加强农民资金互助合作社管理方面的经验作法，强化监管， 规范合作社经营行为，积极防范金融风险， 为涟水的经济社会发展营造健康和谐环境。 （李敏）']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>75</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>县残联赴泰兴考察学习残疾人托养机构建设情况</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2013-11-17</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/F4DC9F85815247929452C523D21B1210.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['11月10日-16日， 县残联参加了在泰兴市举办的全省残疾人托养服务实习培训班。通过护理培训、后勤管理、庇护就业、法律规范等方面的集中学习和跟班实习， 参训人员了解了托养中心运行机制、服务流程和规范，提高了理论水平和实践能力。', '县残联参加了在泰兴市举办的全省残疾人托养服务实习培训班。通过护理培训、后勤管理、庇护就业、法律规范等方面的集中学习和跟班实习', '据悉， 泰兴市残疾人托养中心为公办公营残疾人托养机构，围绕社会化建设机制、市场化运行机制、科学化托养机制和规范化运行机制等“四个机制”建设， 实现了残疾人及其家庭的“双解放”，托养服务工作位居全省乃至全国的前列， 被中国残联授予“全国阳光家园示范机构”称号。托养服务实习活动， 为推进我县残疾人托养服务工作培训了人才、积累了资源、奠定了基础。（石民 尤翔飞）', '泰兴市残疾人托养中心为公办公营残疾人托养机构，围绕社会化建设机制、市场化运行机制、科学化托养机制和规范化运行机制等“四个机制”建设']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>75</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>淮安盐化新材料产业园区管委会到县化工产业园区考察学习</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2013-11-11</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/4E1BAD39043442A1BA47E9A573B21A28.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['淮安盐化新材料产业园区管委会党工委副书记王道凯一行2人到县化工园区考察学习。王道凯一行就园区管理体制和环保、安监运行机制等相关事宜进行交流']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>75</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>县化工园区安监分局到滨海县工业园区考察学习</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2013-05-07</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/BDD3E96E8EB245C5AEC6B71BCE4D8DAD.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['5月7日， 县化工园区安监分局一行4人到滨海县沿海工业园区进行考察学习。考察组听取了滨海县安监局危化品安全生产监管情况介绍， 重点围绕安全教育培训、执法监察工作，危险化学品安全监管工作模式和应急救援等方面进行了考察学习， 并就重大危险源监管，生产事故处理， 新形势下如何创新监管方式，提高安监人员业务素质， 增强监督人员的敬业精神，加强服务， 高效廉洁及自我保护方面进行了深入交流。（杨利忠）', '县化工园区安监分局一行4人到滨海县沿海工业园区进行考察学习。考察组听取了滨海县安监局危化品安全生产监管情况介绍', '重点围绕安全教育培训、执法监察工作，危险化学品安全监管工作模式和应急救援等方面进行了考察学习']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>75</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>县文广体局组织赴外地考察学习增强内部管理经验</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2012-11-29</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/bmxx/content/83206BC5A0A44F1A92DE2838369798F7.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['为更进一步强化内部监督机制、完善和规范工作流程， 11月28日，县文广体局分管副局长张朝带领监察室、计划产业处、办公室等部门负责人赴洪泽、海安等县文广体局考察学习。', '11月28日，县文广体局分管副局长张朝带领监察室、计划产业处、办公室等部门负责人赴洪泽、海安等县文广体局考察学习', '张朝一行在洪泽、海安等地， 分别就有线（数字）电视发展考核办法、广告经营创收管理、薪酬包干使用、新闻宣传奖罚等方面进行了深入的调研与学习，尤其是洪泽与海安在数字电视整转过程中， 所实施的人财物统一管理以及灵活的、市场化的奖罚运作措施，对我县全面推进数字化整转工作有很大的启迪作用； 其次，洪泽、海安两县文广体局的新闻宣传、外宣以及经营创收所采取的多种激励手段也值得借鉴和学习， 这些先进的管理方法和经验，为我县文广体局规划明年的内部管理方案起到一定的促进作用。', '分别就有线（数字）电视发展考核办法、广告经营创收管理、薪酬包干使用、新闻宣传奖罚等方面进行了深入的调研与学习，尤其是洪泽与海安在数字电视整转过程中', '所实施的人财物统一管理以及灵活的、市场化的奖罚运作措施，对我县全面推进数字化整转工作有很大的启迪作用', '其次，洪泽、海安两县文广体局的新闻宣传、外宣以及经营创收所采取的多种激励手段也值得借鉴和学习']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>75</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>苏州局平江分局方昉局长一行到新浦分局考察学习</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2012-10-23</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://scjgj.lyg.gov.cn//sscjdglj/scjgyw/content/ded69aad-7047-4ebb-bf3f-15b53cf1bc73.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['月21-22日，苏州局平江分局局长方昉一行到新浦分局考察学习，新浦分局局长邢映江陪同考察。', '在考察中，邢映江局长介绍了新浦区及该局的基本情况，重点介绍了该局近期重点工作开展情况。一是以“服务会员百日行”活动开展为抓手，高质量服务地方经济建设。要求各基层分局、分会要根据实际情况，制定切合实际的走访计划，明确分工，对口挂钩走访，以“家家访、户户到”的方式走访所有会员。走访时要加强与会员企业的沟通联系，了解不同行业、不同类型、不同所有制经营主体的经营情况，发放会员服务手册，广泛征求会员对协会服务的意见和建议。填写《百日行走访登记表》，建立跟踪服务信息网络，了解需求，帮助解决实际存在的困难。二是以作风建设为抓手，高要求提升队伍管理水平。要用更严的标准、更大的力度、更实的举措，动真格、出重拳、下猛药，彻底解决当前队伍在思想作风、工作作风等方面的突出问题，对分局的工作部署和作风整训各项任务落实情况，要开展经常性监督检查，督查结果要定期进行公开通报，要建立严格的责任追究和督查制度。三是以效能建设为抓手，高效能维护市场经营秩序。完善监管机制，加强对市场主体的宣传教育和指导规范，对市场主体的违法行为视性质、情节和社会危害程度，依法采取合理的监管措施，并指导规范到位。进一步明确执法方向和重点，集中查办一批有影响、有特色的案件。全面加强食品安全诚信体系建设，以专项整治为突破口，努力保障流通环节食品安全。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>75</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>日照市副市长陈刚一行来连考察学习环境保护工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2016-09-05</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/snhbdt/content/c99a67e6-5f5e-4ca6-a964-1da00354e418.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['9月2日，日照市副市长陈刚一行8人来我市考察学习环境保护工作。副市长徐家保、市局相关领导参加接待。我局相关处室负责同志汇报了我市在水污染治理、大气污染防治等方面的创新举措。', '日照市岚山区和我市赣榆区建立了边界区域环境保护联防联动机制，两地先后签署了《赣榆区、岚山区边界区域环境联合执法联动工作协议书》和《岚山区、赣榆区边界区域环境保护联合联动工作备忘录》，此次来连考察更为今后两市的紧密合作奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>75</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>区安监局赴兴化市考察学习基层安监能力建设工作</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2016-05-16</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/F961FC0D19374809B793F3DAB1D08C39.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['为贯彻落实4月25日全省基层安监能力建设工作会议精神，进一步加强海州区基层安监能力建设，按照区政府领导要求，由区安监局带队，组织海州开发区及街道分管安全生产工作负责人，于2016年5月11日再赴兴化市考察学习基层安监能力建设工作，重点考察了兴化市开发区和临城镇。 通过此次参观学习，我区考察组人员着重了解了企业管理、制度建设，特别是网格化管理工作的机制及具体办法。学习如何通过网格化的管理，可以加大企业主体、部门监管和属地负责“三大责任”的落实力度，能够有效避免监管盲区，突出监管重点，对我区的生产安全管理提供了非常宝贵的经验和管理思路。 （区安监局 孔龙）']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>75</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>汉中市环保局来赣榆区考察学习环境保护工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2016-04-27</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/snhbdt/content/59226f90-3e27-44af-b42d-947aafc9c31d.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['考察组一行首先来到大夹山生态修复基地，现场考察了生态修复及宕口整治工作。该区域过去植被稀少、水土流失严重，自2009年被划定为生态红线保护区后，作为西部山区生态修复示范项目进行保护。经过生态修复后的园区山水环绕，植被茂密，花木争荣，景色优美，获得考察组一致赞叹。随后，考察组又实地参观了小塔山水库饮用水源地，听取了区环保局对我区饮用水源保护及农村环境综合整治工作的介绍，双方还就如何进行督查考核、如何进行部门联动、如何做好环保工作等方面的具体做法进行了深入探讨和交流，表示将进一步互动学习，取长补短，共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>75</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>拉萨市质监局局长一行考察学习东海县人防办民生热线国家级服务业标准化项目</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2016-04-29</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/bmdt/content/0D32FB9B68E84CEAB2F35CE5A660A290.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['连云港市质监局局长刘玉君、东海县委常委朱崇慧、县市场监管局局长李春太、党委书记赵士强、县人防办主任吕士兵等人陪同。', '次仁卓嘎一行先后参观了一楼展示厅、六楼应急指挥大厅，并于七楼会议室听取了项目情况介绍，互相也进行了相关经验交流。', '年通过了由国家标准委委托，省质监局、省发展和改革委、省政府法制办、省社科院、省纪委等单位相关人员组成的考评组的考核评估。', '自开展试点工作以来，民生热线暨应急联动指挥中心在国标委和省、市质监部门的关心支持下，全面推行标准化理念，通过考察学习、听取专家建议等方式，经过多次调研，逐步建立起比较完善的服务通用基础、服务保障、服务提供等', '个。实现了服务范围内的全程受控，形成全面覆盖、活性循环的标准化体系，服务质量、服务效率得到全面提升。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>75</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>关于组织全市平安工地和施工标准化建设考察学习活动的通知</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2016-04-18</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://jtj.lyg.gov.cn/lygjt/aqyyjgl/content/jtj_15683.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['组织全市交通工程建设有关单位人员赴扬州市考察学习“平安工地”和“施工标准化”建设活动先进经验，现将有关事项通知予以印发。', '建设过程中出现的问题和遇到的困难形成书面材料，便于我们在考察学习中进行交流。交流材料及参加人员名单请于']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>75</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>柳州市司法局来我区考察学习法治宣传教育工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2015-10-15</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.lyghz.gov.cn/lyghzqrmzf/jcdt/content/DA4918C6DB184A3880F850753082A034.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['10月13日，柳州市司法局副局长周建军一行7人来我区考察学习法治宣传教育工作，市司法局副局长刘红、法制宣传处副处长吕从娟、区司法局局长刘亚军陪同考察。', '刘亚军局长向考察团人员介绍了我区法治宣传教育工作的开展情况和经验做法，并陪同参观了港城法治文化公园、江浦村法治游园、江浦村法律明白人工作室、调解室等。考察团一致认为，此次考察既开阔了眼界，又开拓了思路，我区法治宣传教育工作领导有力、工作务实、全市联动、成效显著，给他们留下了深刻的印象，尤其是法治文化阵地建设等方面值得学习借鉴。（海州区司法局 王玉洁）']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>75</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>山东禹城考察团来东海考察学习</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2015-08-31</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.jsdh.gov.cn/dhxzf/dhxw/content/24EAAE7C6EFF43579CD8781EE7719A44.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['27日，山东省禹城市副市长孙现旺率考察团来我县，学习我县农村产权交易所的经验做法。县委副书记宋波陪同。', '孙现旺一行实地参观了我县农村产权交易所，并通过翻阅卷宗、现场询问、听取介绍等方式，详细了解了我县农村产权交易所的运行方式和取得的成果。在随后召开的座谈会上，考察团成员表示对我县不断创新体制机制、加大资金投入、统筹推进农村产权交易所建设的做法，以及全县上下干群同心、大干大上、团结和谐的干事创业氛围留下了深刻印象。考察团认为东海农村产权交易所在建设过程中有很多成功经验值得借鉴和学习，表示将进一步加强两地的沟通与交流，实现经验共享、优势互补，实现共赢。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>75</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>三口镇组织村官赶赴常熟市蒋巷村考察学习</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2015-10-14</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/xzdt/content/A74DF0D40C7B4A8F8681114336EAD6D6.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['为学习农村发展的先进理念和经验， 进一步激发全镇村官干事创业的激情，近日， 三口镇组织全镇各村（社）书记、后备干部、大学生村官赴常熟市蒋巷村考察学习。 蒋巷村位于常、昆、太三市交界阳澄水网地区的沙家浜水乡， 全村186户，837人， 村辖面积3平方公里。据介绍， 40多年前的蒋巷村，是一个“小雨白茫茫， 大雨成汪洋”、穷土恶水、血吸虫流行而且偏僻闭塞的苦地方，河沟坑洼、土地破碎， 村民绝大多数住在泥墙草房里。蒋巷村的带头人——常德盛同志怀着“天不能改， 地一定要换”的精神、“穷不会生根，富不是天生”的信念， 带领村（支）两委以坚韧不拔的毅力和全心全意为人民服务的宗旨，坚持社会主义方向， 以常盛工业园、生态种养园、村民新家园、农民蔬菜园和无公害优质粮食生产基地组成的“四园一基地”为依托，大力发展农村生态观光旅游产业， 使蒋巷村成为周边城市的一个后花园和度假胜地。 在听取了蒋巷村常德盛书记的专题报告和实地考察后， 大家感想强烈，对该村将科学、自然、人文交集的环境特点， 产业、休闲、居住相宜的生活空间，生产、生活、生态相结合的现代化新农村进行有效融合发展方式产生了浓厚的兴趣， 触发了思想共鸣。纷纷表示， 通过实地考察学习，切身感受了蒋巷村优美的人居环境、整洁的村绕村貌、完善的服务功能， 特别是蒋巷村蓬勃发展的工业园区、高科技的现代农业、四通八达的村庄道路、高度发达的物质文明、精神文明的理念，让随行人员开阔了眼界， 增长了见识，拓宽了思路， 明确了方向，感触很深、受益匪浅， 进一步坚定了今后干好发展的信心和决心。（周海波）', '三口镇组织全镇各村（社）书记、后备干部、大学生村官赴常熟市蒋巷村考察学习。 蒋巷村位于常、昆、太三市交界阳澄水网地区的沙家浜水乡', '以常盛工业园、生态种养园、村民新家园、农民蔬菜园和无公害优质粮食生产基地组成的“四园一基地”为依托，大力发展农村生态观光旅游产业', '使蒋巷村成为周边城市的一个后花园和度假胜地。 在听取了蒋巷村常德盛书记的专题报告和实地考察后', '产业、休闲、居住相宜的生活空间，生产、生活、生态相结合的现代化新农村进行有效融合发展方式产生了浓厚的兴趣', '特别是蒋巷村蓬勃发展的工业园区、高科技的现代农业、四通八达的村庄道路、高度发达的物质文明、精神文明的理念，让随行人员开阔了眼界']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>75</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>新集镇组织大学生村官实地考察学习</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2015-05-29</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.guannan.gov.cn/gnzx/xzdt/content/1F29511671E64CD1B2196D946509C816.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['为了进一步提高大学生村官自主创业、为民服务的本领， 5月29日上午，新集镇大学生村官一行在镇组织科长的带领下实地参观了碾房村乡情浓服饰厂和夏庄村苗木基地。 本次学习主要是采取实地参观考察的形式，目的是让大学生村官身临其境， 加深认识，提高其解决实际问题的能力， 进一步增强自主创新的意识。', '5月29日上午，新集镇大学生村官一行在镇组织科长的带领下实地参观了碾房村乡情浓服饰厂和夏庄村苗木基地', '在碾房村的乡情浓服饰厂， 在该厂工作人员的带领下大学生村官一行参观了该厂在裁剪、订单、包装、查看、发货等自产自销的工作流程。据了解， 该公司由灌南县电子商务协会会长、连云港乡情浓服饰有限公司法人代表杜明华于2012年创办，并在阿里巴巴和淘宝网上销售自己生产的服装， 年销售额从最初的几十万元猛增至现在的2000多万元。该公司实行线上线下双管齐下， 一件代发，同时， 实现免费加盟，不仅促进了当地的劳动者就业和快递物流产业的迅速增长， 更是吸引了一大批农民返乡创业。通过学习参观， 大学生村官们受益匪浅，感触极深， 进一步促进了对电子营销方式和策略的理解，也为自己今后的工作拓宽了思路。', '在该厂工作人员的带领下大学生村官一行参观了该厂在裁剪、订单、包装、查看、发货等自产自销的工作流程。据了解', '该公司由灌南县电子商务协会会长、连云港乡情浓服饰有限公司法人代表杜明华于2012年创办，并在阿里巴巴和淘宝网上销售自己生产的服装', '大学生村官一行来到夏庄村的东郊农业科技有限公司时， 在该村的党支部书记以及公司工作人员的带领下参观了公司在石头收藏和苗木产业方面的发展。在石头收藏上， 大学生村官们一睹了各种奇形怪状的石头，这些石头来自于全国各地， 它们形态各异，栩栩如生， 让人叹为观止；在发展苗木产业、建设特色苗木基地方面， 该村的思路是坚持以千家万户为基础、以集中连片为重点的原则，发挥龙头带动、合作促动、政策拉动效应， 培育一批市场意识强、管理能力突出的苗木产业经营大户，以点带面推进苗木产业规模化经营。', '在该村的党支部书记以及公司工作人员的带领下参观了公司在石头收藏和苗木产业方面的发展。在石头收藏上', '该村的思路是坚持以千家万户为基础、以集中连片为重点的原则，发挥龙头带动、合作促动、政策拉动效应', '培育一批市场意识强、管理能力突出的苗木产业经营大户，以点带面推进苗木产业规模化经营', '实地参观学习后大学生村官们纷纷表示， 在今后的工作中要进一步鼓足干劲，力争回到工作岗位上为村发展谋路子， 不断开拓创新，积极奉献， 为建设社会主义新农村贡献自己的青春和热血。（周晶晶 温玉亮 毕卫友）']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>75</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>我委与市委研究室共同赴皖江城市带考察学习</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2012-09-11</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://fgw.lyg.gov.cn/lygsfzhggwyh/tpxw/content/D573451CCF8F43CF8F8636A3B079EF4504.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['2012年7月2日至7月7日，市委研究室副主任刘江船与市发改委副主任谭树林带领相关人员赴安徽学习考察皖江城市带承接产业转移示范区开发建设方面的经验和做法，具体了解各市在推进皖江城市带开发建设方面的主要举措、各市在承接产业转移方面的主要成效、各市进一步推进皖江城市带开发的主要思路。', '2010年1月，国家发改委发布了《皖江城市带承接产业转移示范区规划》，决定在安徽建立皖江城市带承接产业转移示范区。皖江城市带包括合肥、芜湖、马鞍山、铜陵、安庆、池州、巢湖、滁州、宣城九市，以及六安市的金安区和舒城县，共59个县（市、区），土地面积7.6万平方公里，人口3058万人。2011年，皖江示范区(不含六安的金安区和舒城县)全年生产总值10128.6亿元，较上年增加1878.5亿元，增长14.4%，增幅高于全省平均水平0.9个百分点。皖江城市带是实施促进中部地区崛起战略的重点开发区域，是泛长三角地区的重要组成部分，在中西部承接产业转移中具有重要的战略地位。', '学习考察组分别走访了安庆市、铜陵市、池州市、芜湖市、合肥市等皖江城市带相关城市，与当地政策研究室、发改委（皖江办或承接办）进行座谈，参观了芜湖市的奇瑞汽车、合肥市着力打造的滨湖新区等重点项目，为进一步做好我市东中西合作示范区行动方案提供新的思路。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>75</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>盐城环保局长吴雨晴率队赴泰州环保考察学习</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2012-02-03</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/snhbdt1/content/d43d451b-e56f-455a-9cdb-c8de18f1035a.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['，盐城市环保局局长吴雨晴率领局领导班子成员一行来到泰州市环保局考察调研，苏中环保督查中心主任单体华参加了此次考察调研，泰州市环保局局长田军热情接待了吴雨晴一行。', '吴雨晴局长一行首先参观了泰州市环境监测中心站的实验室，详细了解了二噁英监测分析全过程，同时对有关泰州市今年开展PM2.5监测的情况也进行了深入了解。而后参观了泰州市环保局环境教育展示厅，城市污水处理模型流动展现、“人机互动之窗”答题互动等让吴雨晴局长啧啧称赞，并留下了签名和环保手印。', '英监测分析全过程，同时对有关泰州市今年开展PM2.5监测的情况也进行了深入了解。而后参观了泰州市环保局环境教育展示厅，城市污水处理模型流动展现、“人机互动之窗”答题互动等让吴雨晴局长啧啧称赞，并留下了签名和环保手印。', '考察调研期间，田军局长向客人们介绍了泰州市近年来在环保模范城市复核、生态市创建、总量减排、专项行动、队伍建设、能力建设等方面的工作情况。吴雨晴局长对泰州市深化创建国家环保模范城市、污染减排、生态市建设、推进全市经济社会跨越式发展大加赞叹，并表示泰州的环保工作、创模经验和生态文明建设很有借鉴意义，同时提出，希望两地能够进一步加强联系，共同推进两地环保工作迈上新台阶。', '考察调研期间，田军局长向客人们介绍了泰州市近年来在环保模范城市复核、生态市创建、总量减排、专项行动、队伍建设、能力建设等方面的工作情况。吴雨晴局长对泰州', '市深化创建国家环保模范城市、污染减排、生态市建设、推进全市经济社会跨越式发展大加赞叹，并表示泰州的环保工作、创模经验和生态文明建设很有借鉴意义，同时提出，希望两地能够进一步加强联系，共同推进两地环保工作迈上新台阶。', '单体华主任在总结发言中指出，举行经常性的走访交流，既是落实省厅领导的要求，也是当前环保工作的实际需要，希望两地环保部门今后要建立正常的联络机制，互通情况，相互交流，共叙友谊，共议举措，在省环保厅的领导下，圆满完成环保各项工作任务。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>75</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>市环境监察代表团赴盐城考察学习</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2007-12-13</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://hbj.lyg.gov.cn/lygshbj/lygshjjcj/content/77206b76-6ca9-4e85-a30e-cf3795261da7.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['月5-6日，市环保局纪检组长秦士君带领市环境监察局一行9人到盐城考察学习。盐城市环保局纪检组长郑琳、助理调研员王瑞涛等陪同考察。', '考察中，大家听取了盐城市环保局在建设项目日常管理、环境监察机构设置和职能分工以及饮用水源保护运作模式等方面的情况介绍，实地参观了盐城市饮用水源保护区环境监察支队标准化建设和盐城国家级珍禽自然保护区生态环境监察现场。通过实地考察与交流讨论，大家一致认为，盐城市饮用水源保护、环境监察等工作中许多好的做法值得我们学习，此次考察既开阔了视野、转变了观念，又增进了了解、加深了友谊，为做好下一步环境监察工作积累了宝贵的经验。']</t>
         </is>
